--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$V$144</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$W$144</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="49">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -603,16 +603,19 @@
     <t>Unit: In million Philippine pesos</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -23552,16 +23555,16 @@
   <dimension ref="A1:CR144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="22" width="10.81640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.81640625" style="1"/>
+    <col min="2" max="23" width="10.81640625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.25">
@@ -23576,7 +23579,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -23586,7 +23589,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -23619,6 +23622,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -23686,6 +23690,9 @@
       </c>
       <c r="V10" s="6">
         <v>2020</v>
+      </c>
+      <c r="W10" s="6">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23758,7 +23765,9 @@
       <c r="V12" s="8">
         <v>954094.10339547088</v>
       </c>
-      <c r="W12" s="9"/>
+      <c r="W12" s="8">
+        <v>1010292.7802423732</v>
+      </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -23900,7 +23909,9 @@
       <c r="V13" s="8">
         <v>538037.28907748265</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="8">
+        <v>581687.60999341612</v>
+      </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -24042,7 +24053,9 @@
       <c r="V14" s="8">
         <v>235661.04890531785</v>
       </c>
-      <c r="W14" s="9"/>
+      <c r="W14" s="8">
+        <v>264333.83098763891</v>
+      </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -24184,7 +24197,9 @@
       <c r="V15" s="8">
         <v>94775.436155712043</v>
       </c>
-      <c r="W15" s="9"/>
+      <c r="W15" s="8">
+        <v>100745.34438333812</v>
+      </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -24424,7 +24439,9 @@
       <c r="V17" s="12">
         <v>1822567.8775339834</v>
       </c>
-      <c r="W17" s="9"/>
+      <c r="W17" s="12">
+        <v>1957059.5656067664</v>
+      </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -24522,6 +24539,7 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
     </row>
     <row r="19" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
@@ -24736,7 +24754,7 @@
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.25">
@@ -24746,7 +24764,7 @@
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.25">
@@ -24779,6 +24797,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -24846,6 +24865,9 @@
       </c>
       <c r="V31" s="15">
         <v>2020</v>
+      </c>
+      <c r="W31" s="15">
+        <v>2021</v>
       </c>
     </row>
     <row r="32" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24918,7 +24940,9 @@
       <c r="V33" s="8">
         <v>922510.57477222895</v>
       </c>
-      <c r="W33" s="9"/>
+      <c r="W33" s="8">
+        <v>951988.37602879026</v>
+      </c>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -25060,7 +25084,9 @@
       <c r="V34" s="8">
         <v>524150.90579058509</v>
       </c>
-      <c r="W34" s="9"/>
+      <c r="W34" s="8">
+        <v>549918.69364167203</v>
+      </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -25202,7 +25228,9 @@
       <c r="V35" s="8">
         <v>230292.04448686878</v>
       </c>
-      <c r="W35" s="9"/>
+      <c r="W35" s="8">
+        <v>252392.9467974054</v>
+      </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -25344,7 +25372,9 @@
       <c r="V36" s="8">
         <v>91649.997813881142</v>
       </c>
-      <c r="W36" s="9"/>
+      <c r="W36" s="8">
+        <v>94303.53043028884</v>
+      </c>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -25584,7 +25614,9 @@
       <c r="V38" s="12">
         <v>1768603.5228635638</v>
       </c>
-      <c r="W38" s="9"/>
+      <c r="W38" s="12">
+        <v>1848603.5468981564</v>
+      </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -25682,6 +25714,7 @@
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
     </row>
     <row r="40" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
@@ -25896,7 +25929,7 @@
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.25">
@@ -25906,7 +25939,7 @@
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.25">
@@ -25938,6 +25971,8 @@
       <c r="S51" s="16"/>
       <c r="T51" s="16"/>
       <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
     </row>
     <row r="52" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
@@ -26001,8 +26036,12 @@
         <v>16</v>
       </c>
       <c r="U52" s="17" t="s">
-        <v>46</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="V52" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="W52" s="17"/>
     </row>
     <row r="53" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
@@ -26071,7 +26110,10 @@
       <c r="U54" s="18">
         <v>15.26703001296859</v>
       </c>
-      <c r="W54" s="9"/>
+      <c r="V54" s="18">
+        <v>5.8902656086962537</v>
+      </c>
+      <c r="W54" s="18"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
@@ -26205,7 +26247,10 @@
       <c r="U55" s="18">
         <v>4.3356177992670553</v>
       </c>
-      <c r="W55" s="9"/>
+      <c r="V55" s="18">
+        <v>8.1128802412145546</v>
+      </c>
+      <c r="W55" s="18"/>
       <c r="X55" s="9"/>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
@@ -26339,7 +26384,10 @@
       <c r="U56" s="18">
         <v>-6.0639178696129221</v>
       </c>
-      <c r="W56" s="9"/>
+      <c r="V56" s="18">
+        <v>12.166958526031607</v>
+      </c>
+      <c r="W56" s="18"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
@@ -26473,7 +26521,10 @@
       <c r="U57" s="18">
         <v>8.2012703506952249</v>
       </c>
-      <c r="W57" s="9"/>
+      <c r="V57" s="18">
+        <v>6.2990036973480841</v>
+      </c>
+      <c r="W57" s="18"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
@@ -26565,6 +26616,7 @@
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
       <c r="W58" s="9"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="9"/>
@@ -26699,7 +26751,10 @@
       <c r="U59" s="18">
         <v>8.3655556756869913</v>
       </c>
-      <c r="W59" s="9"/>
+      <c r="V59" s="18">
+        <v>7.3792416584646645</v>
+      </c>
+      <c r="W59" s="18"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
@@ -26791,6 +26846,8 @@
       <c r="S60" s="13"/>
       <c r="T60" s="13"/>
       <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
     </row>
     <row r="61" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
@@ -26819,6 +26876,7 @@
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
       <c r="W62" s="9"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
@@ -26911,6 +26969,7 @@
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
@@ -26993,7 +27052,7 @@
     </row>
     <row r="66" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:91" x14ac:dyDescent="0.25">
@@ -27003,7 +27062,7 @@
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:91" x14ac:dyDescent="0.25">
@@ -27035,6 +27094,8 @@
       <c r="S72" s="16"/>
       <c r="T72" s="16"/>
       <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -27098,8 +27159,12 @@
         <v>16</v>
       </c>
       <c r="U73" s="17" t="s">
-        <v>46</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="V73" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="W73" s="17"/>
     </row>
     <row r="74" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
@@ -27168,7 +27233,10 @@
       <c r="U75" s="18">
         <v>12.307771866206593</v>
       </c>
-      <c r="W75" s="9"/>
+      <c r="V75" s="18">
+        <v>3.1953889811874916</v>
+      </c>
+      <c r="W75" s="18"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
@@ -27302,7 +27370,10 @@
       <c r="U76" s="18">
         <v>1.6041200346238895</v>
       </c>
-      <c r="W76" s="9"/>
+      <c r="V76" s="18">
+        <v>4.9161009866463843</v>
+      </c>
+      <c r="W76" s="18"/>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
@@ -27436,7 +27507,10 @@
       <c r="U77" s="18">
         <v>-8.5477524134779657</v>
       </c>
-      <c r="W77" s="9"/>
+      <c r="V77" s="18">
+        <v>9.5969022116162677</v>
+      </c>
+      <c r="W77" s="18"/>
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
@@ -27570,7 +27644,10 @@
       <c r="U78" s="18">
         <v>4.9313678348275545</v>
       </c>
-      <c r="W78" s="9"/>
+      <c r="V78" s="18">
+        <v>2.8952893395550063</v>
+      </c>
+      <c r="W78" s="18"/>
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
@@ -27662,6 +27739,7 @@
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
@@ -27796,7 +27874,10 @@
       <c r="U80" s="18">
         <v>5.4970637788058809</v>
       </c>
-      <c r="W80" s="9"/>
+      <c r="V80" s="18">
+        <v>4.5233441526263363</v>
+      </c>
+      <c r="W80" s="18"/>
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
@@ -27888,6 +27969,8 @@
       <c r="S81" s="13"/>
       <c r="T81" s="13"/>
       <c r="U81" s="13"/>
+      <c r="V81" s="13"/>
+      <c r="W81" s="13"/>
     </row>
     <row r="82" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
@@ -27916,6 +27999,7 @@
       <c r="S83" s="9"/>
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
       <c r="W83" s="9"/>
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
@@ -28087,7 +28171,7 @@
     </row>
     <row r="86" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:96" x14ac:dyDescent="0.25">
@@ -28097,7 +28181,7 @@
     </row>
     <row r="89" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:96" x14ac:dyDescent="0.25">
@@ -28130,6 +28214,7 @@
       <c r="T92" s="5"/>
       <c r="U92" s="5"/>
       <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
     </row>
     <row r="93" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
@@ -28197,6 +28282,9 @@
       </c>
       <c r="V93" s="15">
         <v>2020</v>
+      </c>
+      <c r="W93" s="15">
+        <v>2021</v>
       </c>
     </row>
     <row r="94" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28269,7 +28357,9 @@
       <c r="V95" s="18">
         <v>103.42364949377843</v>
       </c>
-      <c r="W95" s="9"/>
+      <c r="W95" s="18">
+        <v>106.12448698762471</v>
+      </c>
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
@@ -28411,7 +28501,9 @@
       <c r="V96" s="18">
         <v>102.6493101764181</v>
       </c>
-      <c r="W96" s="9"/>
+      <c r="W96" s="18">
+        <v>105.77702062487893</v>
+      </c>
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
@@ -28553,7 +28645,9 @@
       <c r="V97" s="18">
         <v>102.33138944526378</v>
       </c>
-      <c r="W97" s="9"/>
+      <c r="W97" s="18">
+        <v>104.73106889148467</v>
+      </c>
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
@@ -28695,7 +28789,9 @@
       <c r="V98" s="18">
         <v>103.41018921591018</v>
       </c>
-      <c r="W98" s="9"/>
+      <c r="W98" s="18">
+        <v>106.83093615229093</v>
+      </c>
       <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
@@ -28935,7 +29031,9 @@
       <c r="V100" s="18">
         <v>103.05124093516704</v>
       </c>
-      <c r="W100" s="9"/>
+      <c r="W100" s="18">
+        <v>105.86691607784657</v>
+      </c>
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
@@ -29033,6 +29131,7 @@
       <c r="T101" s="13"/>
       <c r="U101" s="13"/>
       <c r="V101" s="13"/>
+      <c r="W101" s="13"/>
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
@@ -29051,7 +29150,7 @@
     </row>
     <row r="107" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.25">
@@ -29061,7 +29160,7 @@
     </row>
     <row r="110" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:96" x14ac:dyDescent="0.25">
@@ -29094,6 +29193,7 @@
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
       <c r="V113" s="5"/>
+      <c r="W113" s="5"/>
     </row>
     <row r="114" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
@@ -29161,6 +29261,9 @@
       </c>
       <c r="V114" s="15">
         <v>2020</v>
+      </c>
+      <c r="W114" s="15">
+        <v>2021</v>
       </c>
     </row>
     <row r="115" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -29233,7 +29336,9 @@
       <c r="V116" s="18">
         <v>52.348892743923656</v>
       </c>
-      <c r="W116" s="9"/>
+      <c r="W116" s="18">
+        <v>51.622995947450491</v>
+      </c>
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
@@ -29375,7 +29480,9 @@
       <c r="V117" s="18">
         <v>29.520836820929347</v>
       </c>
-      <c r="W117" s="9"/>
+      <c r="W117" s="18">
+        <v>29.72252966725976</v>
+      </c>
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
@@ -29517,7 +29624,9 @@
       <c r="V118" s="18">
         <v>12.93016582867563</v>
       </c>
-      <c r="W118" s="9"/>
+      <c r="W118" s="18">
+        <v>13.506682966273686</v>
+      </c>
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
@@ -29659,7 +29768,9 @@
       <c r="V119" s="18">
         <v>5.2001046064713643</v>
       </c>
-      <c r="W119" s="9"/>
+      <c r="W119" s="18">
+        <v>5.1477914190160607</v>
+      </c>
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
@@ -29757,7 +29868,7 @@
       <c r="T120" s="18"/>
       <c r="U120" s="18"/>
       <c r="V120" s="18"/>
-      <c r="W120" s="9"/>
+      <c r="W120" s="18"/>
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
@@ -29899,7 +30010,9 @@
       <c r="V121" s="18">
         <v>100</v>
       </c>
-      <c r="W121" s="9"/>
+      <c r="W121" s="18">
+        <v>100</v>
+      </c>
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
       <c r="Z121" s="9"/>
@@ -29997,6 +30110,7 @@
       <c r="T122" s="13"/>
       <c r="U122" s="13"/>
       <c r="V122" s="13"/>
+      <c r="W122" s="13"/>
     </row>
     <row r="123" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
@@ -30211,7 +30325,7 @@
     </row>
     <row r="128" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.25">
@@ -30221,7 +30335,7 @@
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:96" x14ac:dyDescent="0.25">
@@ -30254,6 +30368,7 @@
       <c r="T134" s="5"/>
       <c r="U134" s="5"/>
       <c r="V134" s="5"/>
+      <c r="W134" s="5"/>
     </row>
     <row r="135" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
@@ -30321,6 +30436,9 @@
       </c>
       <c r="V135" s="15">
         <v>2020</v>
+      </c>
+      <c r="W135" s="15">
+        <v>2021</v>
       </c>
     </row>
     <row r="136" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30393,7 +30511,9 @@
       <c r="V137" s="18">
         <v>52.160394505976257</v>
       </c>
-      <c r="W137" s="9"/>
+      <c r="W137" s="18">
+        <v>51.497703638304081</v>
+      </c>
       <c r="X137" s="9"/>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
@@ -30535,7 +30655,9 @@
       <c r="V138" s="18">
         <v>29.636427781277234</v>
       </c>
-      <c r="W138" s="9"/>
+      <c r="W138" s="18">
+        <v>29.747789598500006</v>
+      </c>
       <c r="X138" s="9"/>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
@@ -30677,7 +30799,9 @@
       <c r="V139" s="18">
         <v>13.021123248358151</v>
       </c>
-      <c r="W139" s="9"/>
+      <c r="W139" s="18">
+        <v>13.653167939708075</v>
+      </c>
       <c r="X139" s="9"/>
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
@@ -30819,7 +30943,9 @@
       <c r="V140" s="18">
         <v>5.1820544643883606</v>
       </c>
-      <c r="W140" s="9"/>
+      <c r="W140" s="18">
+        <v>5.1013388234878372</v>
+      </c>
       <c r="X140" s="9"/>
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
@@ -31059,7 +31185,9 @@
       <c r="V142" s="18">
         <v>100</v>
       </c>
-      <c r="W142" s="9"/>
+      <c r="W142" s="18">
+        <v>100</v>
+      </c>
       <c r="X142" s="9"/>
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
@@ -31157,6 +31285,7 @@
       <c r="T143" s="13"/>
       <c r="U143" s="13"/>
       <c r="V143" s="13"/>
+      <c r="W143" s="13"/>
     </row>
     <row r="144" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
@@ -31169,9 +31298,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="81" man="1"/>
-    <brk id="84" max="81" man="1"/>
-    <brk id="104" max="81" man="1"/>
+    <brk id="42" max="22" man="1"/>
+    <brk id="84" max="22" man="1"/>
+    <brk id="104" max="22" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA80F558-6241-47F9-8BE5-5AE4DDA132CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="1" r:id="rId1"/>
@@ -609,19 +610,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -737,9 +738,9 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23548,16 +23549,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:CR144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23579,7 +23580,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -23589,7 +23590,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -23763,10 +23764,10 @@
         <v>827725.06872791529</v>
       </c>
       <c r="V12" s="8">
-        <v>954094.10339547088</v>
+        <v>955504.94750781474</v>
       </c>
       <c r="W12" s="8">
-        <v>1010292.7802423732</v>
+        <v>1014756.6578156658</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
@@ -23910,7 +23911,7 @@
         <v>538037.28907748265</v>
       </c>
       <c r="W13" s="8">
-        <v>581687.60999341612</v>
+        <v>582085.68898903811</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -24437,10 +24438,10 @@
         <v>1681870.098085878</v>
       </c>
       <c r="V17" s="12">
-        <v>1822567.8775339834</v>
+        <v>1823978.7216463273</v>
       </c>
       <c r="W17" s="12">
-        <v>1957059.5656067664</v>
+        <v>1961921.5221756808</v>
       </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
@@ -24754,7 +24755,7 @@
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.25">
@@ -24764,7 +24765,7 @@
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.25">
@@ -24938,10 +24939,10 @@
         <v>821412.94359505712</v>
       </c>
       <c r="V33" s="8">
-        <v>922510.57477222895</v>
+        <v>923859.54923183529</v>
       </c>
       <c r="W33" s="8">
-        <v>951988.37602879026</v>
+        <v>956166.1122652241</v>
       </c>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
@@ -25085,7 +25086,7 @@
         <v>524150.90579058509</v>
       </c>
       <c r="W34" s="8">
-        <v>549918.69364167203</v>
+        <v>550291.83284621756</v>
       </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
@@ -25612,10 +25613,10 @@
         <v>1676448.1015052404</v>
       </c>
       <c r="V38" s="12">
-        <v>1768603.5228635638</v>
+        <v>1769952.4973231701</v>
       </c>
       <c r="W38" s="12">
-        <v>1848603.5468981564</v>
+        <v>1853154.4223391358</v>
       </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
@@ -25929,7 +25930,7 @@
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.25">
@@ -25939,7 +25940,7 @@
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.25">
@@ -26108,10 +26109,10 @@
         <v>17.035521281805828</v>
       </c>
       <c r="U54" s="18">
-        <v>15.26703001296859</v>
+        <v>15.437478410105101</v>
       </c>
       <c r="V54" s="18">
-        <v>5.8902656086962537</v>
+        <v>6.2010888025638877</v>
       </c>
       <c r="W54" s="18"/>
       <c r="X54" s="9"/>
@@ -26248,7 +26249,7 @@
         <v>4.3356177992670553</v>
       </c>
       <c r="V55" s="18">
-        <v>8.1128802412145546</v>
+        <v>8.1868674914857138</v>
       </c>
       <c r="W55" s="18"/>
       <c r="X55" s="9"/>
@@ -26749,10 +26750,10 @@
         <v>12.263377781431871</v>
       </c>
       <c r="U59" s="18">
-        <v>8.3655556756869913</v>
+        <v>8.4494411145178248</v>
       </c>
       <c r="V59" s="18">
-        <v>7.3792416584646645</v>
+        <v>7.5627417629546869</v>
       </c>
       <c r="W59" s="18"/>
       <c r="X59" s="9"/>
@@ -27052,7 +27053,7 @@
     </row>
     <row r="66" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:91" x14ac:dyDescent="0.25">
@@ -27062,7 +27063,7 @@
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:91" x14ac:dyDescent="0.25">
@@ -27231,10 +27232,10 @@
         <v>16.143023418408561</v>
       </c>
       <c r="U75" s="18">
-        <v>12.307771866206593</v>
+        <v>12.471997968330356</v>
       </c>
       <c r="V75" s="18">
-        <v>3.1953889811874916</v>
+        <v>3.4969128218949237</v>
       </c>
       <c r="W75" s="18"/>
       <c r="X75" s="9"/>
@@ -27371,7 +27372,7 @@
         <v>1.6041200346238895</v>
       </c>
       <c r="V76" s="18">
-        <v>4.9161009866463843</v>
+        <v>4.9872902568399979</v>
       </c>
       <c r="W76" s="18"/>
       <c r="X76" s="9"/>
@@ -27872,10 +27873,10 @@
         <v>11.901464188250998</v>
       </c>
       <c r="U80" s="18">
-        <v>5.4970637788058809</v>
+        <v>5.5775300013149547</v>
       </c>
       <c r="V80" s="18">
-        <v>4.5233441526263363</v>
+        <v>4.7007998882341724</v>
       </c>
       <c r="W80" s="18"/>
       <c r="X80" s="9"/>
@@ -28171,7 +28172,7 @@
     </row>
     <row r="86" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:96" x14ac:dyDescent="0.25">
@@ -28181,7 +28182,7 @@
     </row>
     <row r="89" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:96" x14ac:dyDescent="0.25">
@@ -28355,10 +28356,10 @@
         <v>100.76844724472348</v>
       </c>
       <c r="V95" s="18">
-        <v>103.42364949377843</v>
+        <v>103.42534731629843</v>
       </c>
       <c r="W95" s="18">
-        <v>106.12448698762471</v>
+        <v>106.12765342746111</v>
       </c>
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
@@ -28502,7 +28503,7 @@
         <v>102.6493101764181</v>
       </c>
       <c r="W96" s="18">
-        <v>105.77702062487893</v>
+        <v>105.77763547359524</v>
       </c>
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
@@ -29029,10 +29030,10 @@
         <v>100.32342167799702</v>
       </c>
       <c r="V100" s="18">
-        <v>103.05124093516704</v>
+        <v>103.0524109774056</v>
       </c>
       <c r="W100" s="18">
-        <v>105.86691607784657</v>
+        <v>105.86929499913205</v>
       </c>
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
@@ -29150,7 +29151,7 @@
     </row>
     <row r="107" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.25">
@@ -29160,7 +29161,7 @@
     </row>
     <row r="110" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:96" x14ac:dyDescent="0.25">
@@ -29334,10 +29335,10 @@
         <v>49.214565956665865</v>
       </c>
       <c r="V116" s="18">
-        <v>52.348892743923656</v>
+        <v>52.38575078580817</v>
       </c>
       <c r="W116" s="18">
-        <v>51.622995947450491</v>
+        <v>51.722591670758945</v>
       </c>
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
@@ -29478,10 +29479,10 @@
         <v>30.661071967446212</v>
       </c>
       <c r="V117" s="18">
-        <v>29.520836820929347</v>
+        <v>29.498002509143799</v>
       </c>
       <c r="W117" s="18">
-        <v>29.72252966725976</v>
+        <v>29.669162726933735</v>
       </c>
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
@@ -29622,10 +29623,10 @@
         <v>14.916361990255389</v>
       </c>
       <c r="V118" s="18">
-        <v>12.93016582867563</v>
+        <v>12.920164369714229</v>
       </c>
       <c r="W118" s="18">
-        <v>13.506682966273686</v>
+        <v>13.473211237037901</v>
       </c>
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
@@ -29766,10 +29767,10 @@
         <v>5.2080000856325279</v>
       </c>
       <c r="V119" s="18">
-        <v>5.2001046064713643</v>
+        <v>5.1960823353337977</v>
       </c>
       <c r="W119" s="18">
-        <v>5.1477914190160607</v>
+        <v>5.1350343652694201</v>
       </c>
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
@@ -30325,7 +30326,7 @@
     </row>
     <row r="128" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.25">
@@ -30335,7 +30336,7 @@
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:96" x14ac:dyDescent="0.25">
@@ -30509,10 +30510,10 @@
         <v>48.99721875419413</v>
       </c>
       <c r="V137" s="18">
-        <v>52.160394505976257</v>
+        <v>52.196855600873825</v>
       </c>
       <c r="W137" s="18">
-        <v>51.497703638304081</v>
+        <v>51.596677575218351</v>
       </c>
       <c r="X137" s="9"/>
       <c r="Y137" s="9"/>
@@ -30653,10 +30654,10 @@
         <v>30.771942227853899</v>
       </c>
       <c r="V138" s="18">
-        <v>29.636427781277234</v>
+        <v>29.613840291380544</v>
       </c>
       <c r="W138" s="18">
-        <v>29.747789598500006</v>
+        <v>29.694871955226169</v>
       </c>
       <c r="X138" s="9"/>
       <c r="Y138" s="9"/>
@@ -30797,10 +30798,10 @@
         <v>15.020847557673173</v>
       </c>
       <c r="V139" s="18">
-        <v>13.021123248358151</v>
+        <v>13.011199161285766</v>
       </c>
       <c r="W139" s="18">
-        <v>13.653167939708075</v>
+        <v>13.619639235397528</v>
       </c>
       <c r="X139" s="9"/>
       <c r="Y139" s="9"/>
@@ -30941,10 +30942,10 @@
         <v>5.209991460278796</v>
       </c>
       <c r="V140" s="18">
-        <v>5.1820544643883606</v>
+        <v>5.1781049464598743</v>
       </c>
       <c r="W140" s="18">
-        <v>5.1013388234878372</v>
+        <v>5.0888112341579523</v>
       </c>
       <c r="X140" s="9"/>
       <c r="Y140" s="9"/>

--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA80F558-6241-47F9-8BE5-5AE4DDA132CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B51FA8B-162D-40CA-B205-BD2610EAFE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="4185" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$W$144</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$X$144</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="50">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -610,13 +610,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2000 to 2021</t>
+    <t>As of April 2022</t>
   </si>
   <si>
-    <t>Annual 2001 to 2021</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of April 2022</t>
+    <t>Annual 2000 to 2022</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2022</t>
   </si>
 </sst>
 </file>
@@ -624,9 +627,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -700,42 +703,41 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -756,7 +758,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15123,7 +15125,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -15832,7 +15834,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15855,7 +15857,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15884,7 +15886,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15947,7 +15949,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15976,7 +15978,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16007,7 +16009,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -18401,7 +18403,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18489,7 +18491,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -18510,7 +18512,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -18567,7 +18569,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18584,7 +18586,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18625,7 +18627,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18638,7 +18640,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18685,7 +18687,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18714,7 +18716,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -23131,7 +23133,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -23174,7 +23176,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -23556,49 +23558,49 @@
   <dimension ref="A1:CR144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="topRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="23" width="10.81640625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="2" max="24" width="10.77734375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>7</v>
@@ -23624,8 +23626,9 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -23695,11 +23698,14 @@
       <c r="W10" s="6">
         <v>2021</v>
       </c>
+      <c r="X10" s="6">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -23769,7 +23775,9 @@
       <c r="W12" s="8">
         <v>1014756.6578156658</v>
       </c>
-      <c r="X12" s="9"/>
+      <c r="X12" s="8">
+        <v>1156996.2067255452</v>
+      </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -23843,7 +23851,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -23913,7 +23921,9 @@
       <c r="W13" s="8">
         <v>582085.68898903811</v>
       </c>
-      <c r="X13" s="9"/>
+      <c r="X13" s="8">
+        <v>668636.40644890373</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -23987,7 +23997,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -24057,7 +24067,9 @@
       <c r="W14" s="8">
         <v>264333.83098763891</v>
       </c>
-      <c r="X14" s="9"/>
+      <c r="X14" s="8">
+        <v>287304.78225133271</v>
+      </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -24131,7 +24143,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -24201,7 +24213,9 @@
       <c r="W15" s="8">
         <v>100745.34438333812</v>
       </c>
-      <c r="X15" s="9"/>
+      <c r="X15" s="8">
+        <v>111648.59266189681</v>
+      </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -24275,8 +24289,8 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -24373,77 +24387,79 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>191405.2843733044</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>215507.95997912256</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>234807.87254137819</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>260031.2108793206</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>298287.05987683038</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>352560.0861773623</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>418982.31222357211</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>468983.42995635525</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>518049.26418475708</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="11">
         <v>560948.34511806211</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="11">
         <v>636283.08787916042</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="11">
         <v>692889.38219799136</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="11">
         <v>769803.68131182645</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="11">
         <v>892657.83897444024</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="11">
         <v>1005738.6442246609</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="11">
         <v>1087980.5076331669</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="11">
         <v>1193651.4815225021</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="11">
         <v>1326582.5205022865</v>
       </c>
-      <c r="T17" s="12">
+      <c r="T17" s="11">
         <v>1498146.7076114076</v>
       </c>
-      <c r="U17" s="12">
+      <c r="U17" s="11">
         <v>1681870.098085878</v>
       </c>
-      <c r="V17" s="12">
+      <c r="V17" s="11">
         <v>1823978.7216463273</v>
       </c>
-      <c r="W17" s="12">
+      <c r="W17" s="11">
         <v>1961921.5221756808</v>
       </c>
-      <c r="X17" s="9"/>
+      <c r="X17" s="11">
+        <v>2224585.9880876783</v>
+      </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -24517,38 +24533,39 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
+    <row r="18" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
     </row>
-    <row r="19" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -24645,8 +24662,8 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+    <row r="21" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -24743,37 +24760,37 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>7</v>
@@ -24799,82 +24816,86 @@
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>2000</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <v>2001</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <v>2002</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="14">
         <v>2003</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="14">
         <v>2004</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <v>2005</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <v>2006</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="14">
         <v>2007</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="14">
         <v>2008</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="14">
         <v>2009</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="14">
         <v>2010</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="14">
         <v>2011</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N31" s="14">
         <v>2012</v>
       </c>
-      <c r="O31" s="15">
+      <c r="O31" s="14">
         <v>2013</v>
       </c>
-      <c r="P31" s="15">
+      <c r="P31" s="14">
         <v>2014</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="Q31" s="14">
         <v>2015</v>
       </c>
-      <c r="R31" s="15">
+      <c r="R31" s="14">
         <v>2016</v>
       </c>
-      <c r="S31" s="15">
+      <c r="S31" s="14">
         <v>2017</v>
       </c>
-      <c r="T31" s="15">
+      <c r="T31" s="14">
         <v>2018</v>
       </c>
-      <c r="U31" s="15">
+      <c r="U31" s="14">
         <v>2019</v>
       </c>
-      <c r="V31" s="15">
+      <c r="V31" s="14">
         <v>2020</v>
       </c>
-      <c r="W31" s="15">
+      <c r="W31" s="14">
         <v>2021</v>
       </c>
+      <c r="X31" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="32" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -24944,7 +24965,9 @@
       <c r="W33" s="8">
         <v>956166.1122652241</v>
       </c>
-      <c r="X33" s="9"/>
+      <c r="X33" s="8">
+        <v>1031302.9881008554</v>
+      </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
@@ -25018,7 +25041,7 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>4</v>
       </c>
@@ -25088,7 +25111,9 @@
       <c r="W34" s="8">
         <v>550291.83284621756</v>
       </c>
-      <c r="X34" s="9"/>
+      <c r="X34" s="8">
+        <v>597692.61169706192</v>
+      </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -25162,7 +25187,7 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -25232,7 +25257,9 @@
       <c r="W35" s="8">
         <v>252392.9467974054</v>
       </c>
-      <c r="X35" s="9"/>
+      <c r="X35" s="8">
+        <v>259283.08226081391</v>
+      </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
@@ -25306,7 +25333,7 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -25376,7 +25403,9 @@
       <c r="W36" s="8">
         <v>94303.53043028884</v>
       </c>
-      <c r="X36" s="9"/>
+      <c r="X36" s="8">
+        <v>98653.779832295404</v>
+      </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
@@ -25450,8 +25479,8 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -25548,77 +25577,79 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <v>341019.56811902323</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>357883.57906836487</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <v>379993.59561073506</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="11">
         <v>407907.10362089326</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="11">
         <v>444300.13912649633</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="11">
         <v>489868.28940495494</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="11">
         <v>555549.36376414099</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="11">
         <v>618666.65259779315</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="11">
         <v>637228.44195282261</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="11">
         <v>680187.41591636196</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="11">
         <v>757900.74959671567</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="11">
         <v>806878.36040022213</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N38" s="11">
         <v>883974.15503234253</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O38" s="11">
         <v>1006838.7645971226</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P38" s="11">
         <v>1092038.2003398756</v>
       </c>
-      <c r="Q38" s="12">
+      <c r="Q38" s="11">
         <v>1171993.6847962306</v>
       </c>
-      <c r="R38" s="12">
+      <c r="R38" s="11">
         <v>1275687.0448127007</v>
       </c>
-      <c r="S38" s="12">
+      <c r="S38" s="11">
         <v>1382520.5845157304</v>
       </c>
-      <c r="T38" s="12">
+      <c r="T38" s="11">
         <v>1498146.7076114074</v>
       </c>
-      <c r="U38" s="12">
+      <c r="U38" s="11">
         <v>1676448.1015052404</v>
       </c>
-      <c r="V38" s="12">
+      <c r="V38" s="11">
         <v>1769952.4973231701</v>
       </c>
-      <c r="W38" s="12">
+      <c r="W38" s="11">
         <v>1853154.4223391358</v>
       </c>
-      <c r="X38" s="9"/>
+      <c r="X38" s="11">
+        <v>1986932.4618910265</v>
+      </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -25692,38 +25723,39 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
+    <row r="39" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
     </row>
-    <row r="40" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -25820,8 +25852,8 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -25918,204 +25950,210 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
     </row>
-    <row r="52" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="G52" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H52" s="17" t="s">
+      <c r="H52" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I52" s="17" t="s">
+      <c r="I52" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J52" s="17" t="s">
+      <c r="J52" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K52" s="17" t="s">
+      <c r="K52" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L52" s="17" t="s">
+      <c r="L52" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M52" s="17" t="s">
+      <c r="M52" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="17" t="s">
+      <c r="N52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O52" s="17" t="s">
+      <c r="O52" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="P52" s="17" t="s">
+      <c r="P52" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q52" s="17" t="s">
+      <c r="Q52" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R52" s="17" t="s">
+      <c r="R52" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="S52" s="17" t="s">
+      <c r="S52" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T52" s="17" t="s">
+      <c r="T52" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="U52" s="17" t="s">
+      <c r="U52" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="V52" s="17" t="s">
+      <c r="V52" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W52" s="17"/>
+      <c r="W52" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="X52" s="16"/>
     </row>
-    <row r="53" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="17">
         <v>14.477115344499552</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="17">
         <v>11.446554159854273</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="17">
         <v>15.074579884005317</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="17">
         <v>16.741028578231834</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="17">
         <v>31.836210566727885</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="17">
         <v>16.60027444590402</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="17">
         <v>11.695394724544059</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="17">
         <v>17.721232217251398</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J54" s="17">
         <v>13.319096040475628</v>
       </c>
-      <c r="K54" s="18">
+      <c r="K54" s="17">
         <v>15.410679103113239</v>
       </c>
-      <c r="L54" s="18">
+      <c r="L54" s="17">
         <v>5.5278511284280114</v>
       </c>
-      <c r="M54" s="18">
+      <c r="M54" s="17">
         <v>9.1422576099565447</v>
       </c>
-      <c r="N54" s="18">
+      <c r="N54" s="17">
         <v>13.981809770150576</v>
       </c>
-      <c r="O54" s="18">
+      <c r="O54" s="17">
         <v>10.980033928089412</v>
       </c>
-      <c r="P54" s="18">
+      <c r="P54" s="17">
         <v>7.1765992770577611</v>
       </c>
-      <c r="Q54" s="18">
+      <c r="Q54" s="17">
         <v>10.280524211980023</v>
       </c>
-      <c r="R54" s="18">
+      <c r="R54" s="17">
         <v>13.832666081731105</v>
       </c>
-      <c r="S54" s="18">
+      <c r="S54" s="17">
         <v>11.839717757406618</v>
       </c>
-      <c r="T54" s="18">
+      <c r="T54" s="17">
         <v>17.035521281805828</v>
       </c>
-      <c r="U54" s="18">
+      <c r="U54" s="17">
         <v>15.437478410105101</v>
       </c>
-      <c r="V54" s="18">
+      <c r="V54" s="17">
         <v>6.2010888025638877</v>
       </c>
-      <c r="W54" s="18"/>
-      <c r="X54" s="9"/>
+      <c r="W54" s="17">
+        <v>14.017109206857526</v>
+      </c>
+      <c r="X54" s="17"/>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
@@ -26184,75 +26222,77 @@
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
     </row>
-    <row r="55" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="17">
         <v>11.024341479014964</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="17">
         <v>6.8515156681285845</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="17">
         <v>8.7063929181275199</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="17">
         <v>15.585478560975787</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="17">
         <v>5.6555698556511231</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="17">
         <v>28.687670973365329</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="17">
         <v>7.5118057954474153</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I55" s="17">
         <v>5.6429107340827898</v>
       </c>
-      <c r="J55" s="18">
+      <c r="J55" s="17">
         <v>4.2523460183020489</v>
       </c>
-      <c r="K55" s="18">
+      <c r="K55" s="17">
         <v>12.615151263785805</v>
       </c>
-      <c r="L55" s="18">
+      <c r="L55" s="17">
         <v>13.477567875699719</v>
       </c>
-      <c r="M55" s="18">
+      <c r="M55" s="17">
         <v>13.308814566373201</v>
       </c>
-      <c r="N55" s="18">
+      <c r="N55" s="17">
         <v>14.795158092643291</v>
       </c>
-      <c r="O55" s="18">
+      <c r="O55" s="17">
         <v>12.178507214239119</v>
       </c>
-      <c r="P55" s="18">
+      <c r="P55" s="17">
         <v>7.5354442019878007</v>
       </c>
-      <c r="Q55" s="18">
+      <c r="Q55" s="17">
         <v>7.9837658504153097</v>
       </c>
-      <c r="R55" s="18">
+      <c r="R55" s="17">
         <v>10.54119698732714</v>
       </c>
-      <c r="S55" s="18">
+      <c r="S55" s="17">
         <v>14.579964729605905</v>
       </c>
-      <c r="T55" s="18">
+      <c r="T55" s="17">
         <v>9.508265419916313</v>
       </c>
-      <c r="U55" s="18">
+      <c r="U55" s="17">
         <v>4.3356177992670553</v>
       </c>
-      <c r="V55" s="18">
+      <c r="V55" s="17">
         <v>8.1868674914857138</v>
       </c>
-      <c r="W55" s="18"/>
-      <c r="X55" s="9"/>
+      <c r="W55" s="17">
+        <v>14.869068093769172</v>
+      </c>
+      <c r="X55" s="17"/>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
@@ -26321,75 +26361,77 @@
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
     </row>
-    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="17">
         <v>11.318923921707295</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="17">
         <v>7.7159849196649191</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="17">
         <v>6.1771091409500372</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="17">
         <v>9.803641860712105</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="17">
         <v>11.502486922563946</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="17">
         <v>4.6201346841661177</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="17">
         <v>23.438465050644169</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="17">
         <v>0.3338632684735785</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J56" s="17">
         <v>-5.4186344830355893E-3</v>
       </c>
-      <c r="K56" s="18">
+      <c r="K56" s="17">
         <v>10.073508483307592</v>
       </c>
-      <c r="L56" s="18">
+      <c r="L56" s="17">
         <v>12.233072229612134</v>
       </c>
-      <c r="M56" s="18">
+      <c r="M56" s="17">
         <v>12.889274012262703</v>
       </c>
-      <c r="N56" s="18">
+      <c r="N56" s="17">
         <v>26.706471894349448</v>
       </c>
-      <c r="O56" s="18">
+      <c r="O56" s="17">
         <v>22.767316794736203</v>
       </c>
-      <c r="P56" s="18">
+      <c r="P56" s="17">
         <v>12.514153187641526</v>
       </c>
-      <c r="Q56" s="18">
+      <c r="Q56" s="17">
         <v>12.106391640442112</v>
       </c>
-      <c r="R56" s="18">
+      <c r="R56" s="17">
         <v>4.2973840384734814</v>
       </c>
-      <c r="S56" s="18">
+      <c r="S56" s="17">
         <v>15.031028449215128</v>
       </c>
-      <c r="T56" s="18">
+      <c r="T56" s="17">
         <v>5.0905000324627139</v>
       </c>
-      <c r="U56" s="18">
+      <c r="U56" s="17">
         <v>-6.0639178696129221</v>
       </c>
-      <c r="V56" s="18">
+      <c r="V56" s="17">
         <v>12.166958526031607</v>
       </c>
-      <c r="W56" s="18"/>
-      <c r="X56" s="9"/>
+      <c r="W56" s="17">
+        <v>8.6901291362769086</v>
+      </c>
+      <c r="X56" s="17"/>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
@@ -26458,75 +26500,77 @@
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
     </row>
-    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57" s="17">
         <v>14.479535465210347</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="17">
         <v>9.9071620623823975</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="17">
         <v>9.2529671438775125</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="17">
         <v>10.817080697748111</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="17">
         <v>18.686063650472207</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="17">
         <v>20.97047620153451</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H57" s="17">
         <v>12.314299175989049</v>
       </c>
-      <c r="I57" s="18">
+      <c r="I57" s="17">
         <v>9.3152635309907907</v>
       </c>
-      <c r="J57" s="18">
+      <c r="J57" s="17">
         <v>8.967390495897547</v>
       </c>
-      <c r="K57" s="18">
+      <c r="K57" s="17">
         <v>8.8430022206833314</v>
       </c>
-      <c r="L57" s="18">
+      <c r="L57" s="17">
         <v>7.2521900170364546</v>
       </c>
-      <c r="M57" s="18">
+      <c r="M57" s="17">
         <v>11.596112136724713</v>
       </c>
-      <c r="N57" s="18">
+      <c r="N57" s="17">
         <v>14.594301506102653</v>
       </c>
-      <c r="O57" s="18">
+      <c r="O57" s="17">
         <v>4.6439533229827106</v>
       </c>
-      <c r="P57" s="18">
+      <c r="P57" s="17">
         <v>8.0332385328773199</v>
       </c>
-      <c r="Q57" s="18">
+      <c r="Q57" s="17">
         <v>7.8592230287280955</v>
       </c>
-      <c r="R57" s="18">
+      <c r="R57" s="17">
         <v>12.389086061794657</v>
       </c>
-      <c r="S57" s="18">
+      <c r="S57" s="17">
         <v>7.3690631555190578</v>
       </c>
-      <c r="T57" s="18">
+      <c r="T57" s="17">
         <v>7.7683443750632648</v>
       </c>
-      <c r="U57" s="18">
+      <c r="U57" s="17">
         <v>8.2012703506952249</v>
       </c>
-      <c r="V57" s="18">
+      <c r="V57" s="17">
         <v>6.2990036973480841</v>
       </c>
-      <c r="W57" s="18"/>
-      <c r="X57" s="9"/>
+      <c r="W57" s="17">
+        <v>10.822582765781803</v>
+      </c>
+      <c r="X57" s="17"/>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
@@ -26595,8 +26639,8 @@
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
     </row>
-    <row r="58" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+    <row r="58" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -26688,75 +26732,77 @@
       <c r="CL58" s="9"/>
       <c r="CM58" s="9"/>
     </row>
-    <row r="59" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B59" s="17">
         <v>12.592481803590047</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="17">
         <v>8.9555451056774444</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="17">
         <v>10.742117828054305</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="17">
         <v>14.712022017720088</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="17">
         <v>18.194898002931296</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="17">
         <v>18.839973284098519</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="17">
         <v>11.933944769034113</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I59" s="17">
         <v>10.462167977441766</v>
       </c>
-      <c r="J59" s="18">
+      <c r="J59" s="17">
         <v>8.280888305249178</v>
       </c>
-      <c r="K59" s="18">
+      <c r="K59" s="17">
         <v>13.42988947498236</v>
       </c>
-      <c r="L59" s="18">
+      <c r="L59" s="17">
         <v>8.8964008940594965</v>
       </c>
-      <c r="M59" s="18">
+      <c r="M59" s="17">
         <v>11.100516343582399</v>
       </c>
-      <c r="N59" s="18">
+      <c r="N59" s="17">
         <v>15.959154346112953</v>
       </c>
-      <c r="O59" s="18">
+      <c r="O59" s="17">
         <v>12.667877916149521</v>
       </c>
-      <c r="P59" s="18">
+      <c r="P59" s="17">
         <v>8.1772599552349305</v>
       </c>
-      <c r="Q59" s="18">
+      <c r="Q59" s="17">
         <v>9.7125796967829672</v>
       </c>
-      <c r="R59" s="18">
+      <c r="R59" s="17">
         <v>11.136503496835687</v>
       </c>
-      <c r="S59" s="18">
+      <c r="S59" s="17">
         <v>12.932794187892767</v>
       </c>
-      <c r="T59" s="18">
+      <c r="T59" s="17">
         <v>12.263377781431871</v>
       </c>
-      <c r="U59" s="18">
+      <c r="U59" s="17">
         <v>8.4494411145178248</v>
       </c>
-      <c r="V59" s="18">
+      <c r="V59" s="17">
         <v>7.5627417629546869</v>
       </c>
-      <c r="W59" s="18"/>
-      <c r="X59" s="9"/>
+      <c r="W59" s="17">
+        <v>13.388122967360829</v>
+      </c>
+      <c r="X59" s="17"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
@@ -26825,38 +26871,39 @@
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
     </row>
-    <row r="60" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="13"/>
+    <row r="60" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
     </row>
-    <row r="61" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+    <row r="61" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
+    <row r="62" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -26948,8 +26995,8 @@
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
     </row>
-    <row r="63" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
+    <row r="63" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -27041,204 +27088,210 @@
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
     </row>
-    <row r="64" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="15"/>
+      <c r="V72" s="15"/>
+      <c r="W72" s="15"/>
+      <c r="X72" s="15"/>
     </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="17" t="s">
+      <c r="F73" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G73" s="17" t="s">
+      <c r="G73" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H73" s="17" t="s">
+      <c r="H73" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I73" s="17" t="s">
+      <c r="I73" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J73" s="17" t="s">
+      <c r="J73" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K73" s="17" t="s">
+      <c r="K73" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L73" s="17" t="s">
+      <c r="L73" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M73" s="17" t="s">
+      <c r="M73" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N73" s="17" t="s">
+      <c r="N73" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O73" s="17" t="s">
+      <c r="O73" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="P73" s="17" t="s">
+      <c r="P73" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q73" s="17" t="s">
+      <c r="Q73" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R73" s="17" t="s">
+      <c r="R73" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="S73" s="17" t="s">
+      <c r="S73" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T73" s="17" t="s">
+      <c r="T73" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="U73" s="17" t="s">
+      <c r="U73" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="V73" s="17" t="s">
+      <c r="V73" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="W73" s="17"/>
+      <c r="W73" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="X73" s="16"/>
     </row>
-    <row r="74" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="18">
+      <c r="B75" s="17">
         <v>5.9646325692756221</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75" s="17">
         <v>7.1947638051122169</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D75" s="17">
         <v>10.488937943773522</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="17">
         <v>9.7560025193715632</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="17">
         <v>22.377271149983287</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="17">
         <v>10.043565366400117</v>
       </c>
-      <c r="H75" s="18">
+      <c r="H75" s="17">
         <v>10.044044462149373</v>
       </c>
-      <c r="I75" s="18">
+      <c r="I75" s="17">
         <v>9.1855884155622505</v>
       </c>
-      <c r="J75" s="18">
+      <c r="J75" s="17">
         <v>11.412693267779488</v>
       </c>
-      <c r="K75" s="18">
+      <c r="K75" s="17">
         <v>12.954657064203175</v>
       </c>
-      <c r="L75" s="18">
+      <c r="L75" s="17">
         <v>2.8823534268636735</v>
       </c>
-      <c r="M75" s="18">
+      <c r="M75" s="17">
         <v>7.910033329607046</v>
       </c>
-      <c r="N75" s="18">
+      <c r="N75" s="17">
         <v>13.44683261913022</v>
       </c>
-      <c r="O75" s="18">
+      <c r="O75" s="17">
         <v>9.0450550566217203</v>
       </c>
-      <c r="P75" s="18">
+      <c r="P75" s="17">
         <v>7.624601984371381</v>
       </c>
-      <c r="Q75" s="18">
+      <c r="Q75" s="17">
         <v>10.640508580970192</v>
       </c>
-      <c r="R75" s="18">
+      <c r="R75" s="17">
         <v>10.590891367827055</v>
       </c>
-      <c r="S75" s="18">
+      <c r="S75" s="17">
         <v>9.4809180685911514</v>
       </c>
-      <c r="T75" s="18">
+      <c r="T75" s="17">
         <v>16.143023418408561</v>
       </c>
-      <c r="U75" s="18">
+      <c r="U75" s="17">
         <v>12.471997968330356</v>
       </c>
-      <c r="V75" s="18">
+      <c r="V75" s="17">
         <v>3.4969128218949237</v>
       </c>
-      <c r="W75" s="18"/>
-      <c r="X75" s="9"/>
+      <c r="W75" s="17">
+        <v>7.8581404289288912</v>
+      </c>
+      <c r="X75" s="17"/>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
@@ -27307,75 +27360,77 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="18">
+      <c r="B76" s="17">
         <v>3.0566062218475167</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C76" s="17">
         <v>5.3861982465247564</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D76" s="17">
         <v>5.5886959803821412</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="17">
         <v>9.7189255008428859</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="17">
         <v>-1.0523468685593826</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G76" s="17">
         <v>22.25629998688899</v>
       </c>
-      <c r="H76" s="18">
+      <c r="H76" s="17">
         <v>6.0289564370273894</v>
       </c>
-      <c r="I76" s="18">
+      <c r="I76" s="17">
         <v>-2.0478305547028981</v>
       </c>
-      <c r="J76" s="18">
+      <c r="J76" s="17">
         <v>2.2636346804344214</v>
       </c>
-      <c r="K76" s="18">
+      <c r="K76" s="17">
         <v>9.7217872283469973</v>
       </c>
-      <c r="L76" s="18">
+      <c r="L76" s="17">
         <v>9.6660076054301243</v>
       </c>
-      <c r="M76" s="18">
+      <c r="M76" s="17">
         <v>10.720238827265732</v>
       </c>
-      <c r="N76" s="18">
+      <c r="N76" s="17">
         <v>11.897975398252242</v>
       </c>
-      <c r="O76" s="18">
+      <c r="O76" s="17">
         <v>7.9722789148461288</v>
       </c>
-      <c r="P76" s="18">
+      <c r="P76" s="17">
         <v>6.3239570280805566</v>
       </c>
-      <c r="Q76" s="18">
+      <c r="Q76" s="17">
         <v>6.2863015194214711</v>
       </c>
-      <c r="R76" s="18">
+      <c r="R76" s="17">
         <v>7.2029610612957669</v>
       </c>
-      <c r="S76" s="18">
+      <c r="S76" s="17">
         <v>9.3050753017282659</v>
       </c>
-      <c r="T76" s="18">
+      <c r="T76" s="17">
         <v>9.549938430580255</v>
       </c>
-      <c r="U76" s="18">
+      <c r="U76" s="17">
         <v>1.6041200346238895</v>
       </c>
-      <c r="V76" s="18">
+      <c r="V76" s="17">
         <v>4.9872902568399979</v>
       </c>
-      <c r="W76" s="18"/>
-      <c r="X76" s="9"/>
+      <c r="W76" s="17">
+        <v>8.6137529255482832</v>
+      </c>
+      <c r="X76" s="17"/>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
@@ -27444,75 +27499,77 @@
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
     </row>
-    <row r="77" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="18">
+      <c r="B77" s="17">
         <v>6.0839780110534036</v>
       </c>
-      <c r="C77" s="18">
+      <c r="C77" s="17">
         <v>5.5877166023823293</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D77" s="17">
         <v>4.7086072374202104</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="17">
         <v>6.2720219410193039</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="17">
         <v>7.3515294542324767</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G77" s="17">
         <v>2.7784415927102515</v>
       </c>
-      <c r="H77" s="18">
+      <c r="H77" s="17">
         <v>28.789591099951707</v>
       </c>
-      <c r="I77" s="18">
+      <c r="I77" s="17">
         <v>-1.7369135435507275</v>
       </c>
-      <c r="J77" s="18">
+      <c r="J77" s="17">
         <v>3.0389623121615443</v>
       </c>
-      <c r="K77" s="18">
+      <c r="K77" s="17">
         <v>11.75081447429254</v>
       </c>
-      <c r="L77" s="18">
+      <c r="L77" s="17">
         <v>10.952949984902787</v>
       </c>
-      <c r="M77" s="18">
+      <c r="M77" s="17">
         <v>11.114765991960837</v>
       </c>
-      <c r="N77" s="18">
+      <c r="N77" s="17">
         <v>18.555642222705231</v>
       </c>
-      <c r="O77" s="18">
+      <c r="O77" s="17">
         <v>9.1337167305186568</v>
       </c>
-      <c r="P77" s="18">
+      <c r="P77" s="17">
         <v>7.6159345378630832</v>
       </c>
-      <c r="Q77" s="18">
+      <c r="Q77" s="17">
         <v>8.6442406315210292</v>
       </c>
-      <c r="R77" s="18">
+      <c r="R77" s="17">
         <v>4.3372517519586467</v>
       </c>
-      <c r="S77" s="18">
+      <c r="S77" s="17">
         <v>3.7533894079595314</v>
       </c>
-      <c r="T77" s="18">
+      <c r="T77" s="17">
         <v>5.4854711054304772</v>
       </c>
-      <c r="U77" s="18">
+      <c r="U77" s="17">
         <v>-8.5477524134779657</v>
       </c>
-      <c r="V77" s="18">
+      <c r="V77" s="17">
         <v>9.5969022116162677</v>
       </c>
-      <c r="W77" s="18"/>
-      <c r="X77" s="9"/>
+      <c r="W77" s="17">
+        <v>2.7299239344192898</v>
+      </c>
+      <c r="X77" s="17"/>
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
@@ -27581,75 +27638,77 @@
       <c r="CL77" s="9"/>
       <c r="CM77" s="9"/>
     </row>
-    <row r="78" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="17">
         <v>8.3368727175604675</v>
       </c>
-      <c r="C78" s="18">
+      <c r="C78" s="17">
         <v>6.7553442575196243</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D78" s="17">
         <v>6.407514805526219</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="17">
         <v>5.545548680962483</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="17">
         <v>11.625594285168688</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="17">
         <v>15.547065922424792</v>
       </c>
-      <c r="H78" s="18">
+      <c r="H78" s="17">
         <v>11.564708951457021</v>
       </c>
-      <c r="I78" s="18">
+      <c r="I78" s="17">
         <v>3.0184102919693032</v>
       </c>
-      <c r="J78" s="18">
+      <c r="J78" s="17">
         <v>7.3710953690800238</v>
       </c>
-      <c r="K78" s="18">
+      <c r="K78" s="17">
         <v>7.6198505640402487</v>
       </c>
-      <c r="L78" s="18">
+      <c r="L78" s="17">
         <v>5.7403510947430902</v>
       </c>
-      <c r="M78" s="18">
+      <c r="M78" s="17">
         <v>11.677510264679825</v>
       </c>
-      <c r="N78" s="18">
+      <c r="N78" s="17">
         <v>15.791378288453203</v>
       </c>
-      <c r="O78" s="18">
+      <c r="O78" s="17">
         <v>4.5015345351075382</v>
       </c>
-      <c r="P78" s="18">
+      <c r="P78" s="17">
         <v>9.9533902007299133</v>
       </c>
-      <c r="Q78" s="18">
+      <c r="Q78" s="17">
         <v>9.8504004490048089</v>
       </c>
-      <c r="R78" s="18">
+      <c r="R78" s="17">
         <v>9.3367592201136063</v>
       </c>
-      <c r="S78" s="18">
+      <c r="S78" s="17">
         <v>7.4792014971845333</v>
       </c>
-      <c r="T78" s="18">
+      <c r="T78" s="17">
         <v>7.4619961928934941</v>
       </c>
-      <c r="U78" s="18">
+      <c r="U78" s="17">
         <v>4.9313678348275545</v>
       </c>
-      <c r="V78" s="18">
+      <c r="V78" s="17">
         <v>2.8952893395550063</v>
       </c>
-      <c r="W78" s="18"/>
-      <c r="X78" s="9"/>
+      <c r="W78" s="17">
+        <v>4.6130292070267274</v>
+      </c>
+      <c r="X78" s="17"/>
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
@@ -27718,8 +27777,8 @@
       <c r="CL78" s="9"/>
       <c r="CM78" s="9"/>
     </row>
-    <row r="79" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
+    <row r="79" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -27811,75 +27870,77 @@
       <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
     </row>
-    <row r="80" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="18">
+      <c r="B80" s="17">
         <v>4.9451739800033181</v>
       </c>
-      <c r="C80" s="18">
+      <c r="C80" s="17">
         <v>6.1779913456567499</v>
       </c>
-      <c r="D80" s="18">
+      <c r="D80" s="17">
         <v>7.3457838059862297</v>
       </c>
-      <c r="E80" s="18">
+      <c r="E80" s="17">
         <v>8.9218930444090887</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="17">
         <v>10.256163855371867</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G80" s="17">
         <v>13.407904896021975</v>
       </c>
-      <c r="H80" s="18">
+      <c r="H80" s="17">
         <v>11.361238613612869</v>
       </c>
-      <c r="I80" s="18">
+      <c r="I80" s="17">
         <v>3.0002892958733298</v>
       </c>
-      <c r="J80" s="18">
+      <c r="J80" s="17">
         <v>6.7415342968510856</v>
       </c>
-      <c r="K80" s="18">
+      <c r="K80" s="17">
         <v>11.425282482719396</v>
       </c>
-      <c r="L80" s="18">
+      <c r="L80" s="17">
         <v>6.4622723792749639</v>
       </c>
-      <c r="M80" s="18">
+      <c r="M80" s="17">
         <v>9.5548224386485998</v>
       </c>
-      <c r="N80" s="18">
+      <c r="N80" s="17">
         <v>13.899117849241264</v>
       </c>
-      <c r="O80" s="18">
+      <c r="O80" s="17">
         <v>8.4620734459747098</v>
       </c>
-      <c r="P80" s="18">
+      <c r="P80" s="17">
         <v>7.3216746842253713</v>
       </c>
-      <c r="Q80" s="18">
+      <c r="Q80" s="17">
         <v>8.8476039898200298</v>
       </c>
-      <c r="R80" s="18">
+      <c r="R80" s="17">
         <v>8.374588433538193</v>
       </c>
-      <c r="S80" s="18">
+      <c r="S80" s="17">
         <v>8.3634286816914596</v>
       </c>
-      <c r="T80" s="18">
+      <c r="T80" s="17">
         <v>11.901464188250998</v>
       </c>
-      <c r="U80" s="18">
+      <c r="U80" s="17">
         <v>5.5775300013149547</v>
       </c>
-      <c r="V80" s="18">
+      <c r="V80" s="17">
         <v>4.7007998882341724</v>
       </c>
-      <c r="W80" s="18"/>
-      <c r="X80" s="9"/>
+      <c r="W80" s="17">
+        <v>7.2189364220942736</v>
+      </c>
+      <c r="X80" s="17"/>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
@@ -27948,38 +28009,39 @@
       <c r="CL80" s="9"/>
       <c r="CM80" s="9"/>
     </row>
-    <row r="81" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="13"/>
-      <c r="V81" s="13"/>
-      <c r="W81" s="13"/>
+    <row r="81" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="W81" s="12"/>
+      <c r="X81" s="12"/>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A82" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
+    <row r="83" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -28071,8 +28133,8 @@
       <c r="CL83" s="9"/>
       <c r="CM83" s="9"/>
     </row>
-    <row r="84" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
+    <row r="84" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -28165,32 +28227,32 @@
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="5" t="s">
         <v>7</v>
@@ -28216,152 +28278,158 @@
       <c r="U92" s="5"/>
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
     </row>
-    <row r="93" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="15">
+      <c r="B93" s="14">
         <v>2000</v>
       </c>
-      <c r="C93" s="15">
+      <c r="C93" s="14">
         <v>2001</v>
       </c>
-      <c r="D93" s="15">
+      <c r="D93" s="14">
         <v>2002</v>
       </c>
-      <c r="E93" s="15">
+      <c r="E93" s="14">
         <v>2003</v>
       </c>
-      <c r="F93" s="15">
+      <c r="F93" s="14">
         <v>2004</v>
       </c>
-      <c r="G93" s="15">
+      <c r="G93" s="14">
         <v>2005</v>
       </c>
-      <c r="H93" s="15">
+      <c r="H93" s="14">
         <v>2006</v>
       </c>
-      <c r="I93" s="15">
+      <c r="I93" s="14">
         <v>2007</v>
       </c>
-      <c r="J93" s="15">
+      <c r="J93" s="14">
         <v>2008</v>
       </c>
-      <c r="K93" s="15">
+      <c r="K93" s="14">
         <v>2009</v>
       </c>
-      <c r="L93" s="15">
+      <c r="L93" s="14">
         <v>2010</v>
       </c>
-      <c r="M93" s="15">
+      <c r="M93" s="14">
         <v>2011</v>
       </c>
-      <c r="N93" s="15">
+      <c r="N93" s="14">
         <v>2012</v>
       </c>
-      <c r="O93" s="15">
+      <c r="O93" s="14">
         <v>2013</v>
       </c>
-      <c r="P93" s="15">
+      <c r="P93" s="14">
         <v>2014</v>
       </c>
-      <c r="Q93" s="15">
+      <c r="Q93" s="14">
         <v>2015</v>
       </c>
-      <c r="R93" s="15">
+      <c r="R93" s="14">
         <v>2016</v>
       </c>
-      <c r="S93" s="15">
+      <c r="S93" s="14">
         <v>2017</v>
       </c>
-      <c r="T93" s="15">
+      <c r="T93" s="14">
         <v>2018</v>
       </c>
-      <c r="U93" s="15">
+      <c r="U93" s="14">
         <v>2019</v>
       </c>
-      <c r="V93" s="15">
+      <c r="V93" s="14">
         <v>2020</v>
       </c>
-      <c r="W93" s="15">
+      <c r="W93" s="14">
         <v>2021</v>
       </c>
+      <c r="X93" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="94" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
     </row>
-    <row r="95" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="18">
+      <c r="B95" s="17">
         <v>55.916294516428465</v>
       </c>
-      <c r="C95" s="18">
+      <c r="C95" s="17">
         <v>60.408231895763635</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="17">
         <v>62.804273722847562</v>
       </c>
-      <c r="E95" s="18">
+      <c r="E95" s="17">
         <v>65.410850607094972</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="17">
         <v>69.573688953381634</v>
       </c>
-      <c r="G95" s="18">
+      <c r="G95" s="17">
         <v>74.951266853471623</v>
       </c>
-      <c r="H95" s="18">
+      <c r="H95" s="17">
         <v>79.417076828477462</v>
       </c>
-      <c r="I95" s="18">
+      <c r="I95" s="17">
         <v>80.608830651233717</v>
       </c>
-      <c r="J95" s="18">
+      <c r="J95" s="17">
         <v>86.910470599272386</v>
       </c>
-      <c r="K95" s="18">
+      <c r="K95" s="17">
         <v>88.397611402237743</v>
       </c>
-      <c r="L95" s="18">
+      <c r="L95" s="17">
         <v>90.319678959554125</v>
       </c>
-      <c r="M95" s="18">
+      <c r="M95" s="17">
         <v>92.642142386320359</v>
       </c>
-      <c r="N95" s="18">
+      <c r="N95" s="17">
         <v>93.700022675202632</v>
       </c>
-      <c r="O95" s="18">
+      <c r="O95" s="17">
         <v>94.141880504319928</v>
       </c>
-      <c r="P95" s="18">
+      <c r="P95" s="17">
         <v>95.81240604627601</v>
       </c>
-      <c r="Q95" s="18">
+      <c r="Q95" s="17">
         <v>95.413573283956509</v>
       </c>
-      <c r="R95" s="18">
+      <c r="R95" s="17">
         <v>95.103131878613681</v>
       </c>
-      <c r="S95" s="18">
+      <c r="S95" s="17">
         <v>97.890910549388209</v>
       </c>
-      <c r="T95" s="18">
+      <c r="T95" s="17">
         <v>100.00000000000003</v>
       </c>
-      <c r="U95" s="18">
+      <c r="U95" s="17">
         <v>100.76844724472348</v>
       </c>
-      <c r="V95" s="18">
+      <c r="V95" s="17">
         <v>103.42534731629843</v>
       </c>
-      <c r="W95" s="18">
+      <c r="W95" s="17">
         <v>106.12765342746111</v>
       </c>
-      <c r="X95" s="9"/>
+      <c r="X95" s="17">
+        <v>112.18780708239331</v>
+      </c>
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
@@ -28435,77 +28503,79 @@
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
     </row>
-    <row r="96" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="18">
+      <c r="B96" s="17">
         <v>52.355384798345462</v>
       </c>
-      <c r="C96" s="18">
+      <c r="C96" s="17">
         <v>56.403197555369012</v>
       </c>
-      <c r="D96" s="18">
+      <c r="D96" s="17">
         <v>57.187442450689261</v>
       </c>
-      <c r="E96" s="18">
+      <c r="E96" s="17">
         <v>58.876004967259497</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="17">
         <v>62.024041694126844</v>
       </c>
-      <c r="G96" s="18">
+      <c r="G96" s="17">
         <v>66.228811523588931</v>
       </c>
-      <c r="H96" s="18">
+      <c r="H96" s="17">
         <v>69.712820584449602</v>
       </c>
-      <c r="I96" s="18">
+      <c r="I96" s="17">
         <v>70.687776999669026</v>
       </c>
-      <c r="J96" s="18">
+      <c r="J96" s="17">
         <v>76.237847082470353</v>
       </c>
-      <c r="K96" s="18">
+      <c r="K96" s="17">
         <v>77.720437363378238</v>
       </c>
-      <c r="L96" s="18">
+      <c r="L96" s="17">
         <v>79.769925655232043</v>
       </c>
-      <c r="M96" s="18">
+      <c r="M96" s="17">
         <v>82.54241538134464</v>
       </c>
-      <c r="N96" s="18">
+      <c r="N96" s="17">
         <v>84.472209754682481</v>
       </c>
-      <c r="O96" s="18">
+      <c r="O96" s="17">
         <v>86.659304055425835</v>
       </c>
-      <c r="P96" s="18">
+      <c r="P96" s="17">
         <v>90.035252222742997</v>
       </c>
-      <c r="Q96" s="18">
+      <c r="Q96" s="17">
         <v>91.061140990582487</v>
       </c>
-      <c r="R96" s="18">
+      <c r="R96" s="17">
         <v>92.515449180456528</v>
       </c>
-      <c r="S96" s="18">
+      <c r="S96" s="17">
         <v>95.396324793496206</v>
       </c>
-      <c r="T96" s="18">
+      <c r="T96" s="17">
         <v>100</v>
       </c>
-      <c r="U96" s="18">
+      <c r="U96" s="17">
         <v>99.961959804577759</v>
       </c>
-      <c r="V96" s="18">
+      <c r="V96" s="17">
         <v>102.6493101764181</v>
       </c>
-      <c r="W96" s="18">
+      <c r="W96" s="17">
         <v>105.77763547359524</v>
       </c>
-      <c r="X96" s="9"/>
+      <c r="X96" s="17">
+        <v>111.86961213229776</v>
+      </c>
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
@@ -28579,77 +28649,79 @@
       <c r="CQ96" s="9"/>
       <c r="CR96" s="9"/>
     </row>
-    <row r="97" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="18">
+      <c r="B97" s="17">
         <v>61.021083233618803</v>
       </c>
-      <c r="C97" s="18">
+      <c r="C97" s="17">
         <v>64.032302044665073</v>
       </c>
-      <c r="D97" s="18">
+      <c r="D97" s="17">
         <v>65.322962777840303</v>
       </c>
-      <c r="E97" s="18">
+      <c r="E97" s="17">
         <v>66.239094676777327</v>
       </c>
-      <c r="F97" s="18">
+      <c r="F97" s="17">
         <v>68.440344845450653</v>
       </c>
-      <c r="G97" s="18">
+      <c r="G97" s="17">
         <v>71.086725032260418</v>
       </c>
-      <c r="H97" s="18">
+      <c r="H97" s="17">
         <v>72.360532343962475</v>
       </c>
-      <c r="I97" s="18">
+      <c r="I97" s="17">
         <v>69.353997993938563</v>
       </c>
-      <c r="J97" s="18">
+      <c r="J97" s="17">
         <v>70.815550404371763</v>
       </c>
-      <c r="K97" s="18">
+      <c r="K97" s="17">
         <v>68.72323981098593</v>
       </c>
-      <c r="L97" s="18">
+      <c r="L97" s="17">
         <v>67.691749325684995</v>
       </c>
-      <c r="M97" s="18">
+      <c r="M97" s="17">
         <v>68.472744460171185</v>
       </c>
-      <c r="N97" s="18">
+      <c r="N97" s="17">
         <v>69.566257398185599</v>
       </c>
-      <c r="O97" s="18">
+      <c r="O97" s="17">
         <v>74.349013446870529</v>
       </c>
-      <c r="P97" s="18">
+      <c r="P97" s="17">
         <v>83.637111982053142</v>
       </c>
-      <c r="Q97" s="18">
+      <c r="Q97" s="17">
         <v>87.443916833800856</v>
       </c>
-      <c r="R97" s="18">
+      <c r="R97" s="17">
         <v>90.230480052710405</v>
       </c>
-      <c r="S97" s="18">
+      <c r="S97" s="17">
         <v>90.196002597477815</v>
       </c>
-      <c r="T97" s="18">
+      <c r="T97" s="17">
         <v>99.999999999999986</v>
       </c>
-      <c r="U97" s="18">
+      <c r="U97" s="17">
         <v>99.625568271318627</v>
       </c>
-      <c r="V97" s="18">
+      <c r="V97" s="17">
         <v>102.33138944526378</v>
       </c>
-      <c r="W97" s="18">
+      <c r="W97" s="17">
         <v>104.73106889148467</v>
       </c>
-      <c r="X97" s="9"/>
+      <c r="X97" s="17">
+        <v>110.80737692030816</v>
+      </c>
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
       <c r="AA97" s="9"/>
@@ -28723,77 +28795,79 @@
       <c r="CQ97" s="9"/>
       <c r="CR97" s="9"/>
     </row>
-    <row r="98" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="18">
+      <c r="B98" s="17">
         <v>70.208928025600841</v>
       </c>
-      <c r="C98" s="18">
+      <c r="C98" s="17">
         <v>74.189749660166868</v>
       </c>
-      <c r="D98" s="18">
+      <c r="D98" s="17">
         <v>76.380109080049081</v>
       </c>
-      <c r="E98" s="18">
+      <c r="E98" s="17">
         <v>78.422596026413387</v>
       </c>
-      <c r="F98" s="18">
+      <c r="F98" s="17">
         <v>82.339456860045587</v>
       </c>
-      <c r="G98" s="18">
+      <c r="G98" s="17">
         <v>87.547538540944856</v>
       </c>
-      <c r="H98" s="18">
+      <c r="H98" s="17">
         <v>91.656740420224864</v>
       </c>
-      <c r="I98" s="18">
+      <c r="I98" s="17">
         <v>92.272571333756531</v>
       </c>
-      <c r="J98" s="18">
+      <c r="J98" s="17">
         <v>97.912600509406701</v>
       </c>
-      <c r="K98" s="18">
+      <c r="K98" s="17">
         <v>99.368275395743041</v>
       </c>
-      <c r="L98" s="18">
+      <c r="L98" s="17">
         <v>100.49764390936818</v>
       </c>
-      <c r="M98" s="18">
+      <c r="M98" s="17">
         <v>101.93452441986344</v>
       </c>
-      <c r="N98" s="18">
+      <c r="N98" s="17">
         <v>101.86022763940956</v>
       </c>
-      <c r="O98" s="18">
+      <c r="O98" s="17">
         <v>100.80717416207446</v>
       </c>
-      <c r="P98" s="18">
+      <c r="P98" s="17">
         <v>100.94455813080903</v>
       </c>
-      <c r="Q98" s="18">
+      <c r="Q98" s="17">
         <v>99.181730615425792</v>
       </c>
-      <c r="R98" s="18">
+      <c r="R98" s="17">
         <v>97.383936327028252</v>
       </c>
-      <c r="S98" s="18">
+      <c r="S98" s="17">
         <v>100.10257921456012</v>
       </c>
-      <c r="T98" s="18">
+      <c r="T98" s="17">
         <v>100</v>
       </c>
-      <c r="U98" s="18">
+      <c r="U98" s="17">
         <v>100.2850758342697</v>
       </c>
-      <c r="V98" s="18">
+      <c r="V98" s="17">
         <v>103.41018921591018</v>
       </c>
-      <c r="W98" s="18">
+      <c r="W98" s="17">
         <v>106.83093615229093</v>
       </c>
-      <c r="X98" s="9"/>
+      <c r="X98" s="17">
+        <v>113.17213881889947</v>
+      </c>
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
@@ -28867,8 +28941,8 @@
       <c r="CQ98" s="9"/>
       <c r="CR98" s="9"/>
     </row>
-    <row r="99" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
+    <row r="99" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -28965,77 +29039,79 @@
       <c r="CQ99" s="9"/>
       <c r="CR99" s="9"/>
     </row>
-    <row r="100" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="18">
+      <c r="B100" s="17">
         <v>56.127361086358484</v>
       </c>
-      <c r="C100" s="18">
+      <c r="C100" s="17">
         <v>60.217336749601202</v>
       </c>
-      <c r="D100" s="18">
+      <c r="D100" s="17">
         <v>61.792586836625283</v>
       </c>
-      <c r="E100" s="18">
+      <c r="E100" s="17">
         <v>63.747654446585031</v>
       </c>
-      <c r="F100" s="18">
+      <c r="F100" s="17">
         <v>67.136386781977876</v>
       </c>
-      <c r="G100" s="18">
+      <c r="G100" s="17">
         <v>71.970383428088098</v>
       </c>
-      <c r="H100" s="18">
+      <c r="H100" s="17">
         <v>75.417656746962166</v>
       </c>
-      <c r="I100" s="18">
+      <c r="I100" s="17">
         <v>75.805513031466106</v>
       </c>
-      <c r="J100" s="18">
+      <c r="J100" s="17">
         <v>81.297260146952283</v>
       </c>
-      <c r="K100" s="18">
+      <c r="K100" s="17">
         <v>82.469674091565111</v>
       </c>
-      <c r="L100" s="18">
+      <c r="L100" s="17">
         <v>83.953352496053228</v>
       </c>
-      <c r="M100" s="18">
+      <c r="M100" s="17">
         <v>85.872842327102347</v>
       </c>
-      <c r="N100" s="18">
+      <c r="N100" s="17">
         <v>87.084410435468115</v>
       </c>
-      <c r="O100" s="18">
+      <c r="O100" s="17">
         <v>88.659462702712801</v>
       </c>
-      <c r="P100" s="18">
+      <c r="P100" s="17">
         <v>92.097386695048243</v>
       </c>
-      <c r="Q100" s="18">
+      <c r="Q100" s="17">
         <v>92.831601547608102</v>
       </c>
-      <c r="R100" s="18">
+      <c r="R100" s="17">
         <v>93.569303409972065</v>
       </c>
-      <c r="S100" s="18">
+      <c r="S100" s="17">
         <v>95.953907331293891</v>
       </c>
-      <c r="T100" s="18">
+      <c r="T100" s="17">
         <v>100.00000000000003</v>
       </c>
-      <c r="U100" s="18">
+      <c r="U100" s="17">
         <v>100.32342167799702</v>
       </c>
-      <c r="V100" s="18">
+      <c r="V100" s="17">
         <v>103.0524109774056</v>
       </c>
-      <c r="W100" s="18">
+      <c r="W100" s="17">
         <v>105.86929499913205</v>
       </c>
-      <c r="X100" s="9"/>
+      <c r="X100" s="17">
+        <v>111.96082558188563</v>
+      </c>
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
@@ -29109,67 +29185,68 @@
       <c r="CQ100" s="9"/>
       <c r="CR100" s="9"/>
     </row>
-    <row r="101" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="13"/>
-      <c r="P101" s="13"/>
-      <c r="Q101" s="13"/>
-      <c r="R101" s="13"/>
-      <c r="S101" s="13"/>
-      <c r="T101" s="13"/>
-      <c r="U101" s="13"/>
-      <c r="V101" s="13"/>
-      <c r="W101" s="13"/>
+    <row r="101" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A102" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="5" t="s">
         <v>7</v>
@@ -29195,152 +29272,158 @@
       <c r="U113" s="5"/>
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
+      <c r="X113" s="5"/>
     </row>
-    <row r="114" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="15">
+      <c r="B114" s="14">
         <v>2000</v>
       </c>
-      <c r="C114" s="15">
+      <c r="C114" s="14">
         <v>2001</v>
       </c>
-      <c r="D114" s="15">
+      <c r="D114" s="14">
         <v>2002</v>
       </c>
-      <c r="E114" s="15">
+      <c r="E114" s="14">
         <v>2003</v>
       </c>
-      <c r="F114" s="15">
+      <c r="F114" s="14">
         <v>2004</v>
       </c>
-      <c r="G114" s="15">
+      <c r="G114" s="14">
         <v>2005</v>
       </c>
-      <c r="H114" s="15">
+      <c r="H114" s="14">
         <v>2006</v>
       </c>
-      <c r="I114" s="15">
+      <c r="I114" s="14">
         <v>2007</v>
       </c>
-      <c r="J114" s="15">
+      <c r="J114" s="14">
         <v>2008</v>
       </c>
-      <c r="K114" s="15">
+      <c r="K114" s="14">
         <v>2009</v>
       </c>
-      <c r="L114" s="15">
+      <c r="L114" s="14">
         <v>2010</v>
       </c>
-      <c r="M114" s="15">
+      <c r="M114" s="14">
         <v>2011</v>
       </c>
-      <c r="N114" s="15">
+      <c r="N114" s="14">
         <v>2012</v>
       </c>
-      <c r="O114" s="15">
+      <c r="O114" s="14">
         <v>2013</v>
       </c>
-      <c r="P114" s="15">
+      <c r="P114" s="14">
         <v>2014</v>
       </c>
-      <c r="Q114" s="15">
+      <c r="Q114" s="14">
         <v>2015</v>
       </c>
-      <c r="R114" s="15">
+      <c r="R114" s="14">
         <v>2016</v>
       </c>
-      <c r="S114" s="15">
+      <c r="S114" s="14">
         <v>2017</v>
       </c>
-      <c r="T114" s="15">
+      <c r="T114" s="14">
         <v>2018</v>
       </c>
-      <c r="U114" s="15">
+      <c r="U114" s="14">
         <v>2019</v>
       </c>
-      <c r="V114" s="15">
+      <c r="V114" s="14">
         <v>2020</v>
       </c>
-      <c r="W114" s="15">
+      <c r="W114" s="14">
         <v>2021</v>
       </c>
+      <c r="X114" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="115" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
     </row>
-    <row r="116" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B116" s="18">
+      <c r="B116" s="17">
         <v>37.200657252286987</v>
       </c>
-      <c r="C116" s="18">
+      <c r="C116" s="17">
         <v>37.823341869221174</v>
       </c>
-      <c r="D116" s="18">
+      <c r="D116" s="17">
         <v>38.688082502330495</v>
       </c>
-      <c r="E116" s="18">
+      <c r="E116" s="17">
         <v>40.201640783011925</v>
       </c>
-      <c r="F116" s="18">
+      <c r="F116" s="17">
         <v>40.912720506455969</v>
       </c>
-      <c r="G116" s="18">
+      <c r="G116" s="17">
         <v>45.634609671671669</v>
       </c>
-      <c r="H116" s="18">
+      <c r="H116" s="17">
         <v>44.774564188332782</v>
       </c>
-      <c r="I116" s="18">
+      <c r="I116" s="17">
         <v>44.679142068606829</v>
       </c>
-      <c r="J116" s="18">
+      <c r="J116" s="17">
         <v>47.615249229945832</v>
       </c>
-      <c r="K116" s="18">
+      <c r="K116" s="17">
         <v>49.830741924360851</v>
       </c>
-      <c r="L116" s="18">
+      <c r="L116" s="17">
         <v>50.70092012185976</v>
       </c>
-      <c r="M116" s="18">
+      <c r="M116" s="17">
         <v>49.132561836447344</v>
       </c>
-      <c r="N116" s="18">
+      <c r="N116" s="17">
         <v>48.266550844886432</v>
       </c>
-      <c r="O116" s="18">
+      <c r="O116" s="17">
         <v>47.443505842085862</v>
       </c>
-      <c r="P116" s="18">
+      <c r="P116" s="17">
         <v>46.732768783847703</v>
       </c>
-      <c r="Q116" s="18">
+      <c r="Q116" s="17">
         <v>46.300481590368285</v>
       </c>
-      <c r="R116" s="18">
+      <c r="R116" s="17">
         <v>46.540163353780535</v>
       </c>
-      <c r="S116" s="18">
+      <c r="S116" s="17">
         <v>47.669223952065018</v>
       </c>
-      <c r="T116" s="18">
+      <c r="T116" s="17">
         <v>47.207833569083121</v>
       </c>
-      <c r="U116" s="18">
+      <c r="U116" s="17">
         <v>49.214565956665865</v>
       </c>
-      <c r="V116" s="18">
+      <c r="V116" s="17">
         <v>52.38575078580817</v>
       </c>
-      <c r="W116" s="18">
+      <c r="W116" s="17">
         <v>51.722591670758945</v>
       </c>
-      <c r="X116" s="9"/>
+      <c r="X116" s="17">
+        <v>52.009507068779762</v>
+      </c>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
@@ -29414,77 +29497,79 @@
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
     </row>
-    <row r="117" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B117" s="18">
+      <c r="B117" s="17">
         <v>37.382066071195879</v>
       </c>
-      <c r="C117" s="18">
+      <c r="C117" s="17">
         <v>36.861424512513203</v>
       </c>
-      <c r="D117" s="18">
+      <c r="D117" s="17">
         <v>36.149597297027391</v>
       </c>
-      <c r="E117" s="18">
+      <c r="E117" s="17">
         <v>35.485074736463375</v>
       </c>
-      <c r="F117" s="18">
+      <c r="F117" s="17">
         <v>35.755270224009514</v>
       </c>
-      <c r="G117" s="18">
+      <c r="G117" s="17">
         <v>31.961984101605033</v>
       </c>
-      <c r="H117" s="18">
+      <c r="H117" s="17">
         <v>34.610520181542654</v>
       </c>
-      <c r="I117" s="18">
+      <c r="I117" s="17">
         <v>33.243173301141724</v>
       </c>
-      <c r="J117" s="18">
+      <c r="J117" s="17">
         <v>31.792835989669783</v>
       </c>
-      <c r="K117" s="18">
+      <c r="K117" s="17">
         <v>30.609997667866406</v>
       </c>
-      <c r="L117" s="18">
+      <c r="L117" s="17">
         <v>30.390133795477208</v>
       </c>
-      <c r="M117" s="18">
+      <c r="M117" s="17">
         <v>31.668617532023397</v>
       </c>
-      <c r="N117" s="18">
+      <c r="N117" s="17">
         <v>32.298081319553752</v>
       </c>
-      <c r="O117" s="18">
+      <c r="O117" s="17">
         <v>31.973873663312951</v>
       </c>
-      <c r="P117" s="18">
+      <c r="P117" s="17">
         <v>31.834995774718518</v>
       </c>
-      <c r="Q117" s="18">
+      <c r="Q117" s="17">
         <v>31.646118724206929</v>
       </c>
-      <c r="R117" s="18">
+      <c r="R117" s="17">
         <v>31.147449853368155</v>
       </c>
-      <c r="S117" s="18">
+      <c r="S117" s="17">
         <v>30.980607465233923</v>
       </c>
-      <c r="T117" s="18">
+      <c r="T117" s="17">
         <v>31.432472172452709</v>
       </c>
-      <c r="U117" s="18">
+      <c r="U117" s="17">
         <v>30.661071967446212</v>
       </c>
-      <c r="V117" s="18">
+      <c r="V117" s="17">
         <v>29.498002509143799</v>
       </c>
-      <c r="W117" s="18">
+      <c r="W117" s="17">
         <v>29.669162726933735</v>
       </c>
-      <c r="X117" s="9"/>
+      <c r="X117" s="17">
+        <v>30.056667174447316</v>
+      </c>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
@@ -29558,77 +29643,79 @@
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
     </row>
-    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="18">
+      <c r="B118" s="17">
         <v>18.81061477561736</v>
       </c>
-      <c r="C118" s="18">
+      <c r="C118" s="17">
         <v>18.597843848759755</v>
       </c>
-      <c r="D118" s="18">
+      <c r="D118" s="17">
         <v>18.386260796623759</v>
       </c>
-      <c r="E118" s="18">
+      <c r="E118" s="17">
         <v>17.628342834550171</v>
       </c>
-      <c r="F118" s="18">
+      <c r="F118" s="17">
         <v>16.874048675593809</v>
       </c>
-      <c r="G118" s="18">
+      <c r="G118" s="17">
         <v>15.918609208787032</v>
       </c>
-      <c r="H118" s="18">
+      <c r="H118" s="17">
         <v>14.013862452043712</v>
       </c>
-      <c r="I118" s="18">
+      <c r="I118" s="17">
         <v>15.454200904654311</v>
       </c>
-      <c r="J118" s="18">
+      <c r="J118" s="17">
         <v>14.037201232622564</v>
       </c>
-      <c r="K118" s="18">
+      <c r="K118" s="17">
         <v>12.962989893864465</v>
       </c>
-      <c r="L118" s="18">
+      <c r="L118" s="17">
         <v>12.579416101485563</v>
       </c>
-      <c r="M118" s="18">
+      <c r="M118" s="17">
         <v>12.964859300518839</v>
       </c>
-      <c r="N118" s="18">
+      <c r="N118" s="17">
         <v>13.173598127847463</v>
       </c>
-      <c r="O118" s="18">
+      <c r="O118" s="17">
         <v>14.394552550386994</v>
       </c>
-      <c r="P118" s="18">
+      <c r="P118" s="17">
         <v>15.684866225908875</v>
       </c>
-      <c r="Q118" s="18">
+      <c r="Q118" s="17">
         <v>16.313682210104592</v>
       </c>
-      <c r="R118" s="18">
+      <c r="R118" s="17">
         <v>16.669629426253707</v>
       </c>
-      <c r="S118" s="18">
+      <c r="S118" s="17">
         <v>15.643813574704762</v>
       </c>
-      <c r="T118" s="18">
+      <c r="T118" s="17">
         <v>15.934467727523948</v>
       </c>
-      <c r="U118" s="18">
+      <c r="U118" s="17">
         <v>14.916361990255389</v>
       </c>
-      <c r="V118" s="18">
+      <c r="V118" s="17">
         <v>12.920164369714229</v>
       </c>
-      <c r="W118" s="18">
+      <c r="W118" s="17">
         <v>13.473211237037901</v>
       </c>
-      <c r="X118" s="9"/>
+      <c r="X118" s="17">
+        <v>12.914977608858743</v>
+      </c>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
@@ -29702,77 +29789,79 @@
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
     </row>
-    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="18">
+      <c r="B119" s="17">
         <v>6.6066619008997938</v>
       </c>
-      <c r="C119" s="18">
+      <c r="C119" s="17">
         <v>6.7173897695058713</v>
       </c>
-      <c r="D119" s="18">
+      <c r="D119" s="17">
         <v>6.776059404018353</v>
       </c>
-      <c r="E119" s="18">
+      <c r="E119" s="17">
         <v>6.6849416459745363</v>
       </c>
-      <c r="F119" s="18">
+      <c r="F119" s="17">
         <v>6.4579605939407259</v>
       </c>
-      <c r="G119" s="18">
+      <c r="G119" s="17">
         <v>6.4847970179362679</v>
       </c>
-      <c r="H119" s="18">
+      <c r="H119" s="17">
         <v>6.6010531780808455</v>
       </c>
-      <c r="I119" s="18">
+      <c r="I119" s="17">
         <v>6.6234837255971302</v>
       </c>
-      <c r="J119" s="18">
+      <c r="J119" s="17">
         <v>6.5547135477618177</v>
       </c>
-      <c r="K119" s="18">
+      <c r="K119" s="17">
         <v>6.5962705139082871</v>
       </c>
-      <c r="L119" s="18">
+      <c r="L119" s="17">
         <v>6.329529981177469</v>
       </c>
-      <c r="M119" s="18">
+      <c r="M119" s="17">
         <v>6.233961331010418</v>
       </c>
-      <c r="N119" s="18">
+      <c r="N119" s="17">
         <v>6.2617697077123422</v>
       </c>
-      <c r="O119" s="18">
+      <c r="O119" s="17">
         <v>6.1880679442142021</v>
       </c>
-      <c r="P119" s="18">
+      <c r="P119" s="17">
         <v>5.747369215524909</v>
       </c>
-      <c r="Q119" s="18">
+      <c r="Q119" s="17">
         <v>5.7397174753202043</v>
       </c>
-      <c r="R119" s="18">
+      <c r="R119" s="17">
         <v>5.6427573665976158</v>
       </c>
-      <c r="S119" s="18">
+      <c r="S119" s="17">
         <v>5.7063550079962866</v>
       </c>
-      <c r="T119" s="18">
+      <c r="T119" s="17">
         <v>5.4252265309402059</v>
       </c>
-      <c r="U119" s="18">
+      <c r="U119" s="17">
         <v>5.2080000856325279</v>
       </c>
-      <c r="V119" s="18">
+      <c r="V119" s="17">
         <v>5.1960823353337977</v>
       </c>
-      <c r="W119" s="18">
+      <c r="W119" s="17">
         <v>5.1350343652694201</v>
       </c>
-      <c r="X119" s="9"/>
+      <c r="X119" s="17">
+        <v>5.0188481479141807</v>
+      </c>
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
@@ -29846,31 +29935,31 @@
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
     </row>
-    <row r="120" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="18"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="18"/>
-      <c r="P120" s="18"/>
-      <c r="Q120" s="18"/>
-      <c r="R120" s="18"/>
-      <c r="S120" s="18"/>
-      <c r="T120" s="18"/>
-      <c r="U120" s="18"/>
-      <c r="V120" s="18"/>
-      <c r="W120" s="18"/>
-      <c r="X120" s="9"/>
+    <row r="120" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
+      <c r="R120" s="17"/>
+      <c r="S120" s="17"/>
+      <c r="T120" s="17"/>
+      <c r="U120" s="17"/>
+      <c r="V120" s="17"/>
+      <c r="W120" s="17"/>
+      <c r="X120" s="17"/>
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
@@ -29944,77 +30033,79 @@
       <c r="CQ120" s="9"/>
       <c r="CR120" s="9"/>
     </row>
-    <row r="121" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="18">
+      <c r="B121" s="17">
         <v>100</v>
       </c>
-      <c r="C121" s="18">
+      <c r="C121" s="17">
         <v>100</v>
       </c>
-      <c r="D121" s="18">
+      <c r="D121" s="17">
         <v>100</v>
       </c>
-      <c r="E121" s="18">
+      <c r="E121" s="17">
         <v>100</v>
       </c>
-      <c r="F121" s="18">
+      <c r="F121" s="17">
         <v>100</v>
       </c>
-      <c r="G121" s="18">
+      <c r="G121" s="17">
         <v>100</v>
       </c>
-      <c r="H121" s="18">
+      <c r="H121" s="17">
         <v>100</v>
       </c>
-      <c r="I121" s="18">
+      <c r="I121" s="17">
         <v>100</v>
       </c>
-      <c r="J121" s="18">
+      <c r="J121" s="17">
         <v>100</v>
       </c>
-      <c r="K121" s="18">
+      <c r="K121" s="17">
         <v>100</v>
       </c>
-      <c r="L121" s="18">
+      <c r="L121" s="17">
         <v>100</v>
       </c>
-      <c r="M121" s="18">
+      <c r="M121" s="17">
         <v>100</v>
       </c>
-      <c r="N121" s="18">
+      <c r="N121" s="17">
         <v>100</v>
       </c>
-      <c r="O121" s="18">
+      <c r="O121" s="17">
         <v>100</v>
       </c>
-      <c r="P121" s="18">
+      <c r="P121" s="17">
         <v>100</v>
       </c>
-      <c r="Q121" s="18">
+      <c r="Q121" s="17">
         <v>100</v>
       </c>
-      <c r="R121" s="18">
+      <c r="R121" s="17">
         <v>100</v>
       </c>
-      <c r="S121" s="18">
+      <c r="S121" s="17">
         <v>100</v>
       </c>
-      <c r="T121" s="18">
+      <c r="T121" s="17">
         <v>100</v>
       </c>
-      <c r="U121" s="18">
+      <c r="U121" s="17">
         <v>100</v>
       </c>
-      <c r="V121" s="18">
+      <c r="V121" s="17">
         <v>100</v>
       </c>
-      <c r="W121" s="18">
+      <c r="W121" s="17">
         <v>100</v>
       </c>
-      <c r="X121" s="9"/>
+      <c r="X121" s="17">
+        <v>100</v>
+      </c>
       <c r="Y121" s="9"/>
       <c r="Z121" s="9"/>
       <c r="AA121" s="9"/>
@@ -30088,38 +30179,39 @@
       <c r="CQ121" s="9"/>
       <c r="CR121" s="9"/>
     </row>
-    <row r="122" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="13"/>
-      <c r="L122" s="13"/>
-      <c r="M122" s="13"/>
-      <c r="N122" s="13"/>
-      <c r="O122" s="13"/>
-      <c r="P122" s="13"/>
-      <c r="Q122" s="13"/>
-      <c r="R122" s="13"/>
-      <c r="S122" s="13"/>
-      <c r="T122" s="13"/>
-      <c r="U122" s="13"/>
-      <c r="V122" s="13"/>
-      <c r="W122" s="13"/>
+    <row r="122" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="12"/>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="12"/>
+      <c r="S122" s="12"/>
+      <c r="T122" s="12"/>
+      <c r="U122" s="12"/>
+      <c r="V122" s="12"/>
+      <c r="W122" s="12"/>
+      <c r="X122" s="12"/>
     </row>
-    <row r="123" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
+    <row r="123" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A123" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
+    <row r="124" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -30216,8 +30308,8 @@
       <c r="CQ124" s="9"/>
       <c r="CR124" s="9"/>
     </row>
-    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
+    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -30314,37 +30406,37 @@
       <c r="CQ125" s="9"/>
       <c r="CR125" s="9"/>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="5" t="s">
         <v>7</v>
@@ -30370,152 +30462,158 @@
       <c r="U134" s="5"/>
       <c r="V134" s="5"/>
       <c r="W134" s="5"/>
+      <c r="X134" s="5"/>
     </row>
-    <row r="135" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B135" s="15">
+      <c r="B135" s="14">
         <v>2000</v>
       </c>
-      <c r="C135" s="15">
+      <c r="C135" s="14">
         <v>2001</v>
       </c>
-      <c r="D135" s="15">
+      <c r="D135" s="14">
         <v>2002</v>
       </c>
-      <c r="E135" s="15">
+      <c r="E135" s="14">
         <v>2003</v>
       </c>
-      <c r="F135" s="15">
+      <c r="F135" s="14">
         <v>2004</v>
       </c>
-      <c r="G135" s="15">
+      <c r="G135" s="14">
         <v>2005</v>
       </c>
-      <c r="H135" s="15">
+      <c r="H135" s="14">
         <v>2006</v>
       </c>
-      <c r="I135" s="15">
+      <c r="I135" s="14">
         <v>2007</v>
       </c>
-      <c r="J135" s="15">
+      <c r="J135" s="14">
         <v>2008</v>
       </c>
-      <c r="K135" s="15">
+      <c r="K135" s="14">
         <v>2009</v>
       </c>
-      <c r="L135" s="15">
+      <c r="L135" s="14">
         <v>2010</v>
       </c>
-      <c r="M135" s="15">
+      <c r="M135" s="14">
         <v>2011</v>
       </c>
-      <c r="N135" s="15">
+      <c r="N135" s="14">
         <v>2012</v>
       </c>
-      <c r="O135" s="15">
+      <c r="O135" s="14">
         <v>2013</v>
       </c>
-      <c r="P135" s="15">
+      <c r="P135" s="14">
         <v>2014</v>
       </c>
-      <c r="Q135" s="15">
+      <c r="Q135" s="14">
         <v>2015</v>
       </c>
-      <c r="R135" s="15">
+      <c r="R135" s="14">
         <v>2016</v>
       </c>
-      <c r="S135" s="15">
+      <c r="S135" s="14">
         <v>2017</v>
       </c>
-      <c r="T135" s="15">
+      <c r="T135" s="14">
         <v>2018</v>
       </c>
-      <c r="U135" s="15">
+      <c r="U135" s="14">
         <v>2019</v>
       </c>
-      <c r="V135" s="15">
+      <c r="V135" s="14">
         <v>2020</v>
       </c>
-      <c r="W135" s="15">
+      <c r="W135" s="14">
         <v>2021</v>
       </c>
+      <c r="X135" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="136" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
     </row>
-    <row r="137" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B137" s="18">
+      <c r="B137" s="17">
         <v>37.341078129480039</v>
       </c>
-      <c r="C137" s="18">
+      <c r="C137" s="17">
         <v>37.703816894761808</v>
       </c>
-      <c r="D137" s="18">
+      <c r="D137" s="17">
         <v>38.06487291163581</v>
       </c>
-      <c r="E137" s="18">
+      <c r="E137" s="17">
         <v>39.179437066412454</v>
       </c>
-      <c r="F137" s="18">
+      <c r="F137" s="17">
         <v>39.4794680222412</v>
       </c>
-      <c r="G137" s="18">
+      <c r="G137" s="17">
         <v>43.819677685797807</v>
       </c>
-      <c r="H137" s="18">
+      <c r="H137" s="17">
         <v>42.519730614658599</v>
       </c>
-      <c r="I137" s="18">
+      <c r="I137" s="17">
         <v>42.01680211651432</v>
       </c>
-      <c r="J137" s="18">
+      <c r="J137" s="17">
         <v>44.539964827221681</v>
       </c>
-      <c r="K137" s="18">
+      <c r="K137" s="17">
         <v>46.489096040652726</v>
       </c>
-      <c r="L137" s="18">
+      <c r="L137" s="17">
         <v>47.127184993326097</v>
       </c>
-      <c r="M137" s="18">
+      <c r="M137" s="17">
         <v>45.542478045400351</v>
       </c>
-      <c r="N137" s="18">
+      <c r="N137" s="17">
         <v>44.858731130199168</v>
       </c>
-      <c r="O137" s="18">
+      <c r="O137" s="17">
         <v>44.680600325370932</v>
       </c>
-      <c r="P137" s="18">
+      <c r="P137" s="17">
         <v>44.920757714168538</v>
       </c>
-      <c r="Q137" s="18">
+      <c r="Q137" s="17">
         <v>45.047551522547927</v>
       </c>
-      <c r="R137" s="18">
+      <c r="R137" s="17">
         <v>45.789561075210223</v>
       </c>
-      <c r="S137" s="18">
+      <c r="S137" s="17">
         <v>46.725975598556005</v>
       </c>
-      <c r="T137" s="18">
+      <c r="T137" s="17">
         <v>47.207833569083121</v>
       </c>
-      <c r="U137" s="18">
+      <c r="U137" s="17">
         <v>48.99721875419413</v>
       </c>
-      <c r="V137" s="18">
+      <c r="V137" s="17">
         <v>52.196855600873825</v>
       </c>
-      <c r="W137" s="18">
+      <c r="W137" s="17">
         <v>51.596677575218351</v>
       </c>
-      <c r="X137" s="9"/>
+      <c r="X137" s="17">
+        <v>51.904279983393685</v>
+      </c>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
@@ -30589,77 +30687,79 @@
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
     </row>
-    <row r="138" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B138" s="18">
+      <c r="B138" s="17">
         <v>40.075280290909589</v>
       </c>
-      <c r="C138" s="18">
+      <c r="C138" s="17">
         <v>39.354095319879953</v>
       </c>
-      <c r="D138" s="18">
+      <c r="D138" s="17">
         <v>39.060623003235506</v>
       </c>
-      <c r="E138" s="18">
+      <c r="E138" s="17">
         <v>38.42125979113635</v>
       </c>
-      <c r="F138" s="18">
+      <c r="F138" s="17">
         <v>38.702406126502787</v>
       </c>
-      <c r="G138" s="18">
+      <c r="G138" s="17">
         <v>34.732863205550025</v>
       </c>
-      <c r="H138" s="18">
+      <c r="H138" s="17">
         <v>37.442816242435065</v>
       </c>
-      <c r="I138" s="18">
+      <c r="I138" s="17">
         <v>35.64995129071302</v>
       </c>
-      <c r="J138" s="18">
+      <c r="J138" s="17">
         <v>33.902720986672172</v>
       </c>
-      <c r="K138" s="18">
+      <c r="K138" s="17">
         <v>32.480472540444069</v>
       </c>
-      <c r="L138" s="18">
+      <c r="L138" s="17">
         <v>31.983903632566278</v>
       </c>
-      <c r="M138" s="18">
+      <c r="M138" s="17">
         <v>32.946385049199577</v>
       </c>
-      <c r="N138" s="18">
+      <c r="N138" s="17">
         <v>33.296860329313603</v>
       </c>
-      <c r="O138" s="18">
+      <c r="O138" s="17">
         <v>32.711853509701214</v>
       </c>
-      <c r="P138" s="18">
+      <c r="P138" s="17">
         <v>32.564132869268207</v>
       </c>
-      <c r="Q138" s="18">
+      <c r="Q138" s="17">
         <v>32.261399889967329</v>
       </c>
-      <c r="R138" s="18">
+      <c r="R138" s="17">
         <v>31.502254073175468</v>
       </c>
-      <c r="S138" s="18">
+      <c r="S138" s="17">
         <v>31.161686199350484</v>
       </c>
-      <c r="T138" s="18">
+      <c r="T138" s="17">
         <v>31.432472172452712</v>
       </c>
-      <c r="U138" s="18">
+      <c r="U138" s="17">
         <v>30.771942227853899</v>
       </c>
-      <c r="V138" s="18">
+      <c r="V138" s="17">
         <v>29.613840291380544</v>
       </c>
-      <c r="W138" s="18">
+      <c r="W138" s="17">
         <v>29.694871955226169</v>
       </c>
-      <c r="X138" s="9"/>
+      <c r="X138" s="17">
+        <v>30.081174028845396</v>
+      </c>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
@@ -30733,77 +30833,79 @@
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
     </row>
-    <row r="139" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="18">
+      <c r="B139" s="17">
         <v>17.30205548343644</v>
       </c>
-      <c r="C139" s="18">
+      <c r="C139" s="17">
         <v>17.489807333118868</v>
       </c>
-      <c r="D139" s="18">
+      <c r="D139" s="17">
         <v>17.392576340117056</v>
       </c>
-      <c r="E139" s="18">
+      <c r="E139" s="17">
         <v>16.965290859822353</v>
       </c>
-      <c r="F139" s="18">
+      <c r="F139" s="17">
         <v>16.552556259334668</v>
       </c>
-      <c r="G139" s="18">
+      <c r="G139" s="17">
         <v>16.116488808260222</v>
       </c>
-      <c r="H139" s="18">
+      <c r="H139" s="17">
         <v>14.60592720743794</v>
       </c>
-      <c r="I139" s="18">
+      <c r="I139" s="17">
         <v>16.89179660804928</v>
       </c>
-      <c r="J139" s="18">
+      <c r="J139" s="17">
         <v>16.114906878887801</v>
       </c>
-      <c r="K139" s="18">
+      <c r="K139" s="17">
         <v>15.555924818730071</v>
       </c>
-      <c r="L139" s="18">
+      <c r="L139" s="17">
         <v>15.601371875934428</v>
       </c>
-      <c r="M139" s="18">
+      <c r="M139" s="17">
         <v>16.259452243134717</v>
       </c>
-      <c r="N139" s="18">
+      <c r="N139" s="17">
         <v>16.49096946111268</v>
       </c>
-      <c r="O139" s="18">
+      <c r="O139" s="17">
         <v>17.165167845505461</v>
       </c>
-      <c r="P139" s="18">
+      <c r="P139" s="17">
         <v>17.271461864651663</v>
       </c>
-      <c r="Q139" s="18">
+      <c r="Q139" s="17">
         <v>17.318817609475392</v>
       </c>
-      <c r="R139" s="18">
+      <c r="R139" s="17">
         <v>17.28646032477889</v>
       </c>
-      <c r="S139" s="18">
+      <c r="S139" s="17">
         <v>16.642478544800095</v>
       </c>
-      <c r="T139" s="18">
+      <c r="T139" s="17">
         <v>15.934467727523952</v>
       </c>
-      <c r="U139" s="18">
+      <c r="U139" s="17">
         <v>15.020847557673173</v>
       </c>
-      <c r="V139" s="18">
+      <c r="V139" s="17">
         <v>13.011199161285766</v>
       </c>
-      <c r="W139" s="18">
+      <c r="W139" s="17">
         <v>13.619639235397528</v>
       </c>
-      <c r="X139" s="9"/>
+      <c r="X139" s="17">
+        <v>13.049415983371976</v>
+      </c>
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
@@ -30877,77 +30979,79 @@
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
     </row>
-    <row r="140" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B140" s="18">
+      <c r="B140" s="17">
         <v>5.281586096173938</v>
       </c>
-      <c r="C140" s="18">
+      <c r="C140" s="17">
         <v>5.4522804522393811</v>
       </c>
-      <c r="D140" s="18">
+      <c r="D140" s="17">
         <v>5.4819277450116246</v>
       </c>
-      <c r="E140" s="18">
+      <c r="E140" s="17">
         <v>5.4340122826288422</v>
       </c>
-      <c r="F140" s="18">
+      <c r="F140" s="17">
         <v>5.265569591921353</v>
       </c>
-      <c r="G140" s="18">
+      <c r="G140" s="17">
         <v>5.3309703003919369</v>
       </c>
-      <c r="H140" s="18">
+      <c r="H140" s="17">
         <v>5.4315259354683878</v>
       </c>
-      <c r="I140" s="18">
+      <c r="I140" s="17">
         <v>5.4414499847233868</v>
       </c>
-      <c r="J140" s="18">
+      <c r="J140" s="17">
         <v>5.442407307218339</v>
       </c>
-      <c r="K140" s="18">
+      <c r="K140" s="17">
         <v>5.4745066001731342</v>
       </c>
-      <c r="L140" s="18">
+      <c r="L140" s="17">
         <v>5.2875394981731976</v>
       </c>
-      <c r="M140" s="18">
+      <c r="M140" s="17">
         <v>5.2516846622653608</v>
       </c>
-      <c r="N140" s="18">
+      <c r="N140" s="17">
         <v>5.3534390793745512</v>
       </c>
-      <c r="O140" s="18">
+      <c r="O140" s="17">
         <v>5.4423783194223985</v>
       </c>
-      <c r="P140" s="18">
+      <c r="P140" s="17">
         <v>5.2436475519115868</v>
       </c>
-      <c r="Q140" s="18">
+      <c r="Q140" s="17">
         <v>5.3722309780093465</v>
       </c>
-      <c r="R140" s="18">
+      <c r="R140" s="17">
         <v>5.4217245268354128</v>
       </c>
-      <c r="S140" s="18">
+      <c r="S140" s="17">
         <v>5.4698596572934122</v>
       </c>
-      <c r="T140" s="18">
+      <c r="T140" s="17">
         <v>5.4252265309402068</v>
       </c>
-      <c r="U140" s="18">
+      <c r="U140" s="17">
         <v>5.209991460278796</v>
       </c>
-      <c r="V140" s="18">
+      <c r="V140" s="17">
         <v>5.1781049464598743</v>
       </c>
-      <c r="W140" s="18">
+      <c r="W140" s="17">
         <v>5.0888112341579523</v>
       </c>
-      <c r="X140" s="9"/>
+      <c r="X140" s="17">
+        <v>4.9651300043889508</v>
+      </c>
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
@@ -31021,8 +31125,8 @@
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
     </row>
-    <row r="141" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
+    <row r="141" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -31119,77 +31223,79 @@
       <c r="CQ141" s="9"/>
       <c r="CR141" s="9"/>
     </row>
-    <row r="142" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="18">
+      <c r="B142" s="17">
         <v>100</v>
       </c>
-      <c r="C142" s="18">
+      <c r="C142" s="17">
         <v>100</v>
       </c>
-      <c r="D142" s="18">
+      <c r="D142" s="17">
         <v>100</v>
       </c>
-      <c r="E142" s="18">
+      <c r="E142" s="17">
         <v>100</v>
       </c>
-      <c r="F142" s="18">
+      <c r="F142" s="17">
         <v>100</v>
       </c>
-      <c r="G142" s="18">
+      <c r="G142" s="17">
         <v>100</v>
       </c>
-      <c r="H142" s="18">
+      <c r="H142" s="17">
         <v>100</v>
       </c>
-      <c r="I142" s="18">
+      <c r="I142" s="17">
         <v>100</v>
       </c>
-      <c r="J142" s="18">
+      <c r="J142" s="17">
         <v>100</v>
       </c>
-      <c r="K142" s="18">
+      <c r="K142" s="17">
         <v>100</v>
       </c>
-      <c r="L142" s="18">
+      <c r="L142" s="17">
         <v>100</v>
       </c>
-      <c r="M142" s="18">
+      <c r="M142" s="17">
         <v>100</v>
       </c>
-      <c r="N142" s="18">
+      <c r="N142" s="17">
         <v>100</v>
       </c>
-      <c r="O142" s="18">
+      <c r="O142" s="17">
         <v>100</v>
       </c>
-      <c r="P142" s="18">
+      <c r="P142" s="17">
         <v>100</v>
       </c>
-      <c r="Q142" s="18">
+      <c r="Q142" s="17">
         <v>100</v>
       </c>
-      <c r="R142" s="18">
+      <c r="R142" s="17">
         <v>100</v>
       </c>
-      <c r="S142" s="18">
+      <c r="S142" s="17">
         <v>100</v>
       </c>
-      <c r="T142" s="18">
+      <c r="T142" s="17">
         <v>100</v>
       </c>
-      <c r="U142" s="18">
+      <c r="U142" s="17">
         <v>100</v>
       </c>
-      <c r="V142" s="18">
+      <c r="V142" s="17">
         <v>100</v>
       </c>
-      <c r="W142" s="18">
+      <c r="W142" s="17">
         <v>100</v>
       </c>
-      <c r="X142" s="9"/>
+      <c r="X142" s="17">
+        <v>100</v>
+      </c>
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
@@ -31263,33 +31369,34 @@
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
     </row>
-    <row r="143" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="13"/>
-      <c r="B143" s="13"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="13"/>
-      <c r="I143" s="13"/>
-      <c r="J143" s="13"/>
-      <c r="K143" s="13"/>
-      <c r="L143" s="13"/>
-      <c r="M143" s="13"/>
-      <c r="N143" s="13"/>
-      <c r="O143" s="13"/>
-      <c r="P143" s="13"/>
-      <c r="Q143" s="13"/>
-      <c r="R143" s="13"/>
-      <c r="S143" s="13"/>
-      <c r="T143" s="13"/>
-      <c r="U143" s="13"/>
-      <c r="V143" s="13"/>
-      <c r="W143" s="13"/>
+    <row r="143" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="12"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+      <c r="O143" s="12"/>
+      <c r="P143" s="12"/>
+      <c r="Q143" s="12"/>
+      <c r="R143" s="12"/>
+      <c r="S143" s="12"/>
+      <c r="T143" s="12"/>
+      <c r="U143" s="12"/>
+      <c r="V143" s="12"/>
+      <c r="W143" s="12"/>
+      <c r="X143" s="12"/>
     </row>
-    <row r="144" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A144" s="14" t="s">
+    <row r="144" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A144" s="13" t="s">
         <v>0</v>
       </c>
     </row>
@@ -31299,9 +31406,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="22" man="1"/>
-    <brk id="84" max="22" man="1"/>
-    <brk id="104" max="22" man="1"/>
+    <brk id="42" max="23" man="1"/>
+    <brk id="84" max="23" man="1"/>
+    <brk id="104" max="23" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B51FA8B-162D-40CA-B205-BD2610EAFE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E922E776-A2AA-429D-8836-C6798C62A422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="4185" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="1" r:id="rId1"/>
@@ -610,9 +610,6 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of April 2022</t>
-  </si>
-  <si>
     <t>2021 - 2022</t>
   </si>
   <si>
@@ -620,6 +617,9 @@
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -23557,10 +23557,10 @@
   </sheetPr>
   <dimension ref="A1:CR144"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A88" colorId="22" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="X4" sqref="X4"/>
+      <selection pane="topRight" activeCell="V88" sqref="V1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23582,7 +23582,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23592,7 +23592,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -23773,10 +23773,10 @@
         <v>955504.94750781474</v>
       </c>
       <c r="W12" s="8">
-        <v>1014756.6578156658</v>
+        <v>1016169.4231592985</v>
       </c>
       <c r="X12" s="8">
-        <v>1156996.2067255452</v>
+        <v>1156642.4611471582</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -23919,10 +23919,10 @@
         <v>538037.28907748265</v>
       </c>
       <c r="W13" s="8">
-        <v>582085.68898903811</v>
+        <v>584849.28028964624</v>
       </c>
       <c r="X13" s="8">
-        <v>668636.40644890373</v>
+        <v>670767.60485511716</v>
       </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -24065,10 +24065,10 @@
         <v>235661.04890531785</v>
       </c>
       <c r="W14" s="8">
-        <v>264333.83098763891</v>
+        <v>261384.35145730796</v>
       </c>
       <c r="X14" s="8">
-        <v>287304.78225133271</v>
+        <v>284383.65506450617</v>
       </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -24214,7 +24214,7 @@
         <v>100745.34438333812</v>
       </c>
       <c r="X15" s="8">
-        <v>111648.59266189681</v>
+        <v>112552.54669295016</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -24455,10 +24455,10 @@
         <v>1823978.7216463273</v>
       </c>
       <c r="W17" s="11">
-        <v>1961921.5221756808</v>
+        <v>1963148.3992895908</v>
       </c>
       <c r="X17" s="11">
-        <v>2224585.9880876783</v>
+        <v>2224346.2677597315</v>
       </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -24772,7 +24772,7 @@
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.2">
@@ -24782,7 +24782,7 @@
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.2">
@@ -24963,10 +24963,10 @@
         <v>923859.54923183529</v>
       </c>
       <c r="W33" s="8">
-        <v>956166.1122652241</v>
+        <v>957488.3172031428</v>
       </c>
       <c r="X33" s="8">
-        <v>1031302.9881008554</v>
+        <v>1031035.2385958636</v>
       </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -25109,10 +25109,10 @@
         <v>524150.90579058509</v>
       </c>
       <c r="W34" s="8">
-        <v>550291.83284621756</v>
+        <v>552882.28416602872</v>
       </c>
       <c r="X34" s="8">
-        <v>597692.61169706192</v>
+        <v>599562.74547874508</v>
       </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -25255,10 +25255,10 @@
         <v>230292.04448686878</v>
       </c>
       <c r="W35" s="8">
-        <v>252392.9467974054</v>
+        <v>249573.98830884241</v>
       </c>
       <c r="X35" s="8">
-        <v>259283.08226081391</v>
+        <v>256683.11790422996</v>
       </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -25404,7 +25404,7 @@
         <v>94303.53043028884</v>
       </c>
       <c r="X36" s="8">
-        <v>98653.779832295404</v>
+        <v>99438.181593355781</v>
       </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -25645,10 +25645,10 @@
         <v>1769952.4973231701</v>
       </c>
       <c r="W38" s="11">
-        <v>1853154.4223391358</v>
+        <v>1854248.1201083024</v>
       </c>
       <c r="X38" s="11">
-        <v>1986932.4618910265</v>
+        <v>1986719.2835721944</v>
       </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -25962,7 +25962,7 @@
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.2">
@@ -25972,7 +25972,7 @@
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.2">
@@ -26076,7 +26076,7 @@
         <v>45</v>
       </c>
       <c r="W52" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X52" s="16"/>
     </row>
@@ -26148,10 +26148,10 @@
         <v>15.437478410105101</v>
       </c>
       <c r="V54" s="17">
-        <v>6.2010888025638877</v>
+        <v>6.3489441692281332</v>
       </c>
       <c r="W54" s="17">
-        <v>14.017109206857526</v>
+        <v>13.823781230409907</v>
       </c>
       <c r="X54" s="17"/>
       <c r="Y54" s="9"/>
@@ -26287,10 +26287,10 @@
         <v>4.3356177992670553</v>
       </c>
       <c r="V55" s="17">
-        <v>8.1868674914857138</v>
+        <v>8.7005105710102839</v>
       </c>
       <c r="W55" s="17">
-        <v>14.869068093769172</v>
+        <v>14.690678002188861</v>
       </c>
       <c r="X55" s="17"/>
       <c r="Y55" s="9"/>
@@ -26426,10 +26426,10 @@
         <v>-6.0639178696129221</v>
       </c>
       <c r="V56" s="17">
-        <v>12.166958526031607</v>
+        <v>10.91538150724476</v>
       </c>
       <c r="W56" s="17">
-        <v>8.6901291362769086</v>
+        <v>8.7990361622527047</v>
       </c>
       <c r="X56" s="17"/>
       <c r="Y56" s="9"/>
@@ -26568,7 +26568,7 @@
         <v>6.2990036973480841</v>
       </c>
       <c r="W57" s="17">
-        <v>10.822582765781803</v>
+        <v>11.719849072812139</v>
       </c>
       <c r="X57" s="17"/>
       <c r="Y57" s="9"/>
@@ -26797,10 +26797,10 @@
         <v>8.4494411145178248</v>
       </c>
       <c r="V59" s="17">
-        <v>7.5627417629546869</v>
+        <v>7.6300055473042221</v>
       </c>
       <c r="W59" s="17">
-        <v>13.388122967360829</v>
+        <v>13.305049611362094</v>
       </c>
       <c r="X59" s="17"/>
       <c r="Y59" s="9"/>
@@ -27100,7 +27100,7 @@
     </row>
     <row r="66" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:91" x14ac:dyDescent="0.2">
@@ -27110,7 +27110,7 @@
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:91" x14ac:dyDescent="0.2">
@@ -27214,7 +27214,7 @@
         <v>45</v>
       </c>
       <c r="W73" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X73" s="16"/>
     </row>
@@ -27286,10 +27286,10 @@
         <v>12.471997968330356</v>
       </c>
       <c r="V75" s="17">
-        <v>3.4969128218949237</v>
+        <v>3.6400303486897769</v>
       </c>
       <c r="W75" s="17">
-        <v>7.8581404289288912</v>
+        <v>7.6812343368902702</v>
       </c>
       <c r="X75" s="17"/>
       <c r="Y75" s="9"/>
@@ -27425,10 +27425,10 @@
         <v>1.6041200346238895</v>
       </c>
       <c r="V76" s="17">
-        <v>4.9872902568399979</v>
+        <v>5.4815088666321401</v>
       </c>
       <c r="W76" s="17">
-        <v>8.6137529255482832</v>
+        <v>8.4431103418568512</v>
       </c>
       <c r="X76" s="17"/>
       <c r="Y76" s="9"/>
@@ -27564,10 +27564,10 @@
         <v>-8.5477524134779657</v>
       </c>
       <c r="V77" s="17">
-        <v>9.5969022116162677</v>
+        <v>8.3728223721045936</v>
       </c>
       <c r="W77" s="17">
-        <v>2.7299239344192898</v>
+        <v>2.8485058252906299</v>
       </c>
       <c r="X77" s="17"/>
       <c r="Y77" s="9"/>
@@ -27706,7 +27706,7 @@
         <v>2.8952893395550063</v>
       </c>
       <c r="W78" s="17">
-        <v>4.6130292070267274</v>
+        <v>5.4448132955770632</v>
       </c>
       <c r="X78" s="17"/>
       <c r="Y78" s="9"/>
@@ -27935,10 +27935,10 @@
         <v>5.5775300013149547</v>
       </c>
       <c r="V80" s="17">
-        <v>4.7007998882341724</v>
+        <v>4.7625923810169439</v>
       </c>
       <c r="W80" s="17">
-        <v>7.2189364220942736</v>
+        <v>7.1441983425688704</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="9"/>
@@ -28234,7 +28234,7 @@
     </row>
     <row r="86" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:96" x14ac:dyDescent="0.2">
@@ -28244,7 +28244,7 @@
     </row>
     <row r="89" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:96" x14ac:dyDescent="0.2">
@@ -28425,10 +28425,10 @@
         <v>103.42534731629843</v>
       </c>
       <c r="W95" s="17">
-        <v>106.12765342746111</v>
+        <v>106.12864981241393</v>
       </c>
       <c r="X95" s="17">
-        <v>112.18780708239331</v>
+        <v>112.18263138341958</v>
       </c>
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
@@ -28571,10 +28571,10 @@
         <v>102.6493101764181</v>
       </c>
       <c r="W96" s="17">
-        <v>105.77763547359524</v>
+        <v>105.78188106928343</v>
       </c>
       <c r="X96" s="17">
-        <v>111.86961213229776</v>
+        <v>111.87613138296571</v>
       </c>
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
@@ -28717,10 +28717,10 @@
         <v>102.33138944526378</v>
       </c>
       <c r="W97" s="17">
-        <v>104.73106889148467</v>
+        <v>104.73220916510357</v>
       </c>
       <c r="X97" s="17">
-        <v>110.80737692030816</v>
+        <v>110.79172537190836</v>
       </c>
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
@@ -28866,7 +28866,7 @@
         <v>106.83093615229093</v>
       </c>
       <c r="X98" s="17">
-        <v>113.17213881889947</v>
+        <v>113.18846029709644</v>
       </c>
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
@@ -29107,10 +29107,10 @@
         <v>103.0524109774056</v>
       </c>
       <c r="W100" s="17">
-        <v>105.86929499913205</v>
+        <v>105.87301548268132</v>
       </c>
       <c r="X100" s="17">
-        <v>111.96082558188563</v>
+        <v>111.96077302678992</v>
       </c>
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
@@ -29228,7 +29228,7 @@
     </row>
     <row r="107" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.2">
@@ -29238,7 +29238,7 @@
     </row>
     <row r="110" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:96" x14ac:dyDescent="0.2">
@@ -29419,10 +29419,10 @@
         <v>52.38575078580817</v>
       </c>
       <c r="W116" s="17">
-        <v>51.722591670758945</v>
+        <v>51.762231705306746</v>
       </c>
       <c r="X116" s="17">
-        <v>52.009507068779762</v>
+        <v>51.999208842249189</v>
       </c>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
@@ -29565,10 +29565,10 @@
         <v>29.498002509143799</v>
       </c>
       <c r="W117" s="17">
-        <v>29.669162726933735</v>
+        <v>29.791394298122704</v>
       </c>
       <c r="X117" s="17">
-        <v>30.056667174447316</v>
+        <v>30.155718764537781</v>
       </c>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
@@ -29711,10 +29711,10 @@
         <v>12.920164369714229</v>
       </c>
       <c r="W118" s="17">
-        <v>13.473211237037901</v>
+        <v>13.314548790702514</v>
       </c>
       <c r="X118" s="17">
-        <v>12.914977608858743</v>
+        <v>12.785044270599355</v>
       </c>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
@@ -29857,10 +29857,10 @@
         <v>5.1960823353337977</v>
       </c>
       <c r="W119" s="17">
-        <v>5.1350343652694201</v>
+        <v>5.1318252058680365</v>
       </c>
       <c r="X119" s="17">
-        <v>5.0188481479141807</v>
+        <v>5.0600281226136783</v>
       </c>
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
@@ -30418,7 +30418,7 @@
     </row>
     <row r="128" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.2">
@@ -30428,7 +30428,7 @@
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:96" x14ac:dyDescent="0.2">
@@ -30609,10 +30609,10 @@
         <v>52.196855600873825</v>
       </c>
       <c r="W137" s="17">
-        <v>51.596677575218351</v>
+        <v>51.637550919950137</v>
       </c>
       <c r="X137" s="17">
-        <v>51.904279983393685</v>
+        <v>51.896372432748741</v>
       </c>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
@@ -30755,10 +30755,10 @@
         <v>29.613840291380544</v>
       </c>
       <c r="W138" s="17">
-        <v>29.694871955226169</v>
+        <v>29.817060520128024</v>
       </c>
       <c r="X138" s="17">
-        <v>30.081174028845396</v>
+        <v>30.178533547060017</v>
       </c>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
@@ -30901,10 +30901,10 @@
         <v>13.011199161285766</v>
       </c>
       <c r="W139" s="17">
-        <v>13.619639235397528</v>
+        <v>13.459578877408562</v>
       </c>
       <c r="X139" s="17">
-        <v>13.049415983371976</v>
+        <v>12.919948984574422</v>
       </c>
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
@@ -31047,10 +31047,10 @@
         <v>5.1781049464598743</v>
       </c>
       <c r="W140" s="17">
-        <v>5.0888112341579523</v>
+        <v>5.0858096825132977</v>
       </c>
       <c r="X140" s="17">
-        <v>4.9651300043889508</v>
+        <v>5.0051450356168221</v>
       </c>
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>

--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E922E776-A2AA-429D-8836-C6798C62A422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45CD10D-6C24-46AA-AED7-7E5087478EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$X$144</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$Y$144</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -613,13 +613,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -23557,17 +23560,17 @@
   </sheetPr>
   <dimension ref="A1:CR144"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A88" colorId="22" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="V88" sqref="V1:X1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="24" width="10.77734375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="25" width="10.77734375" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -23582,7 +23585,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23592,7 +23595,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -23627,6 +23630,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -23700,6 +23704,9 @@
       </c>
       <c r="X10" s="6">
         <v>2022</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23778,7 +23785,9 @@
       <c r="X12" s="8">
         <v>1156642.4611471582</v>
       </c>
-      <c r="Y12" s="9"/>
+      <c r="Y12" s="8">
+        <v>1369159.1956896544</v>
+      </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -23924,7 +23933,9 @@
       <c r="X13" s="8">
         <v>670767.60485511716</v>
       </c>
-      <c r="Y13" s="9"/>
+      <c r="Y13" s="8">
+        <v>762597.71522488736</v>
+      </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -24070,7 +24081,9 @@
       <c r="X14" s="8">
         <v>284383.65506450617</v>
       </c>
-      <c r="Y14" s="9"/>
+      <c r="Y14" s="8">
+        <v>307378.09704462381</v>
+      </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -24216,7 +24229,9 @@
       <c r="X15" s="8">
         <v>112552.54669295016</v>
       </c>
-      <c r="Y15" s="9"/>
+      <c r="Y15" s="8">
+        <v>128287.88867979986</v>
+      </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -24460,7 +24475,9 @@
       <c r="X17" s="11">
         <v>2224346.2677597315</v>
       </c>
-      <c r="Y17" s="9"/>
+      <c r="Y17" s="11">
+        <v>2567422.8966389652</v>
+      </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -24558,6 +24575,7 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
     </row>
     <row r="19" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -24772,7 +24790,7 @@
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.2">
@@ -24782,7 +24800,7 @@
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.2">
@@ -24817,6 +24835,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
@@ -24890,6 +24909,9 @@
       </c>
       <c r="X31" s="14">
         <v>2022</v>
+      </c>
+      <c r="Y31" s="14">
+        <v>2023</v>
       </c>
     </row>
     <row r="32" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24968,7 +24990,9 @@
       <c r="X33" s="8">
         <v>1031035.2385958636</v>
       </c>
-      <c r="Y33" s="9"/>
+      <c r="Y33" s="8">
+        <v>1148132.9041444776</v>
+      </c>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
@@ -25114,7 +25138,9 @@
       <c r="X34" s="8">
         <v>599562.74547874508</v>
       </c>
-      <c r="Y34" s="9"/>
+      <c r="Y34" s="8">
+        <v>645664.08835402387</v>
+      </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
@@ -25260,7 +25286,9 @@
       <c r="X35" s="8">
         <v>256683.11790422996</v>
       </c>
-      <c r="Y35" s="9"/>
+      <c r="Y35" s="8">
+        <v>262107.36960565811</v>
+      </c>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
@@ -25406,7 +25434,9 @@
       <c r="X36" s="8">
         <v>99438.181593355781</v>
       </c>
-      <c r="Y36" s="9"/>
+      <c r="Y36" s="8">
+        <v>106981.31269944258</v>
+      </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
@@ -25650,7 +25680,9 @@
       <c r="X38" s="11">
         <v>1986719.2835721944</v>
       </c>
-      <c r="Y38" s="9"/>
+      <c r="Y38" s="11">
+        <v>2162885.674803602</v>
+      </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -25748,6 +25780,7 @@
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
       <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
     </row>
     <row r="40" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
@@ -25962,7 +25995,7 @@
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.2">
@@ -25972,7 +26005,7 @@
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.2">
@@ -26007,6 +26040,7 @@
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
       <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
     </row>
     <row r="52" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -26078,7 +26112,10 @@
       <c r="W52" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="X52" s="16"/>
+      <c r="X52" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y52" s="16"/>
     </row>
     <row r="53" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -26153,8 +26190,10 @@
       <c r="W54" s="17">
         <v>13.823781230409907</v>
       </c>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="9"/>
+      <c r="X54" s="17">
+        <v>18.37358921889502</v>
+      </c>
+      <c r="Y54" s="17"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
@@ -26292,8 +26331,10 @@
       <c r="W55" s="17">
         <v>14.690678002188861</v>
       </c>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="9"/>
+      <c r="X55" s="17">
+        <v>13.690301932456194</v>
+      </c>
+      <c r="Y55" s="17"/>
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
       <c r="AB55" s="9"/>
@@ -26431,8 +26472,10 @@
       <c r="W56" s="17">
         <v>8.7990361622527047</v>
       </c>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="9"/>
+      <c r="X56" s="17">
+        <v>8.0857115275847491</v>
+      </c>
+      <c r="Y56" s="17"/>
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
@@ -26570,8 +26613,10 @@
       <c r="W57" s="17">
         <v>11.719849072812139</v>
       </c>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="9"/>
+      <c r="X57" s="17">
+        <v>13.980440646782185</v>
+      </c>
+      <c r="Y57" s="17"/>
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
@@ -26802,8 +26847,10 @@
       <c r="W59" s="17">
         <v>13.305049611362094</v>
       </c>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="9"/>
+      <c r="X59" s="17">
+        <v>15.423706005304936</v>
+      </c>
+      <c r="Y59" s="17"/>
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
@@ -26896,6 +26943,7 @@
       <c r="V60" s="12"/>
       <c r="W60" s="12"/>
       <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
     </row>
     <row r="61" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
@@ -27100,7 +27148,7 @@
     </row>
     <row r="66" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:91" x14ac:dyDescent="0.2">
@@ -27110,7 +27158,7 @@
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:91" x14ac:dyDescent="0.2">
@@ -27145,6 +27193,7 @@
       <c r="V72" s="15"/>
       <c r="W72" s="15"/>
       <c r="X72" s="15"/>
+      <c r="Y72" s="15"/>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
@@ -27216,7 +27265,10 @@
       <c r="W73" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="X73" s="16"/>
+      <c r="X73" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y73" s="16"/>
     </row>
     <row r="74" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -27291,8 +27343,10 @@
       <c r="W75" s="17">
         <v>7.6812343368902702</v>
       </c>
-      <c r="X75" s="17"/>
-      <c r="Y75" s="9"/>
+      <c r="X75" s="17">
+        <v>11.357290339376362</v>
+      </c>
+      <c r="Y75" s="17"/>
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
@@ -27430,8 +27484,10 @@
       <c r="W76" s="17">
         <v>8.4431103418568512</v>
       </c>
-      <c r="X76" s="17"/>
-      <c r="Y76" s="9"/>
+      <c r="X76" s="17">
+        <v>7.6891606796662018</v>
+      </c>
+      <c r="Y76" s="17"/>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
@@ -27569,8 +27625,10 @@
       <c r="W77" s="17">
         <v>2.8485058252906299</v>
       </c>
-      <c r="X77" s="17"/>
-      <c r="Y77" s="9"/>
+      <c r="X77" s="17">
+        <v>2.113209371039332</v>
+      </c>
+      <c r="Y77" s="17"/>
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
@@ -27708,8 +27766,10 @@
       <c r="W78" s="17">
         <v>5.4448132955770632</v>
       </c>
-      <c r="X78" s="17"/>
-      <c r="Y78" s="9"/>
+      <c r="X78" s="17">
+        <v>7.5857492416080419</v>
+      </c>
+      <c r="Y78" s="17"/>
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
@@ -27940,8 +28000,10 @@
       <c r="W80" s="17">
         <v>7.1441983425688704</v>
       </c>
-      <c r="X80" s="17"/>
-      <c r="Y80" s="9"/>
+      <c r="X80" s="17">
+        <v>8.867200952247984</v>
+      </c>
+      <c r="Y80" s="17"/>
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
       <c r="AB80" s="9"/>
@@ -28034,6 +28096,7 @@
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
       <c r="X81" s="12"/>
+      <c r="Y81" s="12"/>
     </row>
     <row r="82" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
@@ -28234,7 +28297,7 @@
     </row>
     <row r="86" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:96" x14ac:dyDescent="0.2">
@@ -28244,7 +28307,7 @@
     </row>
     <row r="89" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:96" x14ac:dyDescent="0.2">
@@ -28279,6 +28342,7 @@
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
     </row>
     <row r="93" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
@@ -28352,6 +28416,9 @@
       </c>
       <c r="X93" s="14">
         <v>2022</v>
+      </c>
+      <c r="Y93" s="14">
+        <v>2023</v>
       </c>
     </row>
     <row r="94" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28430,7 +28497,9 @@
       <c r="X95" s="17">
         <v>112.18263138341958</v>
       </c>
-      <c r="Y95" s="9"/>
+      <c r="Y95" s="17">
+        <v>119.25093260086234</v>
+      </c>
       <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
@@ -28576,7 +28645,9 @@
       <c r="X96" s="17">
         <v>111.87613138296571</v>
       </c>
-      <c r="Y96" s="9"/>
+      <c r="Y96" s="17">
+        <v>118.11059790687131</v>
+      </c>
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
       <c r="AB96" s="9"/>
@@ -28722,7 +28793,9 @@
       <c r="X97" s="17">
         <v>110.79172537190836</v>
       </c>
-      <c r="Y97" s="9"/>
+      <c r="Y97" s="17">
+        <v>117.27182547635945</v>
+      </c>
       <c r="Z97" s="9"/>
       <c r="AA97" s="9"/>
       <c r="AB97" s="9"/>
@@ -28868,7 +28941,9 @@
       <c r="X98" s="17">
         <v>113.18846029709644</v>
       </c>
-      <c r="Y98" s="9"/>
+      <c r="Y98" s="17">
+        <v>119.91616614409733</v>
+      </c>
       <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
       <c r="AB98" s="9"/>
@@ -29112,7 +29187,9 @@
       <c r="X100" s="17">
         <v>111.96077302678992</v>
       </c>
-      <c r="Y100" s="9"/>
+      <c r="Y100" s="17">
+        <v>118.70358782935196</v>
+      </c>
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
       <c r="AB100" s="9"/>
@@ -29210,6 +29287,7 @@
       <c r="V101" s="12"/>
       <c r="W101" s="12"/>
       <c r="X101" s="12"/>
+      <c r="Y101" s="12"/>
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
@@ -29228,7 +29306,7 @@
     </row>
     <row r="107" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.2">
@@ -29238,7 +29316,7 @@
     </row>
     <row r="110" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:96" x14ac:dyDescent="0.2">
@@ -29273,6 +29351,7 @@
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
+      <c r="Y113" s="5"/>
     </row>
     <row r="114" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
@@ -29346,6 +29425,9 @@
       </c>
       <c r="X114" s="14">
         <v>2022</v>
+      </c>
+      <c r="Y114" s="14">
+        <v>2023</v>
       </c>
     </row>
     <row r="115" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29424,7 +29506,9 @@
       <c r="X116" s="17">
         <v>51.999208842249189</v>
       </c>
-      <c r="Y116" s="9"/>
+      <c r="Y116" s="17">
+        <v>53.328152424052618</v>
+      </c>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
@@ -29570,7 +29654,9 @@
       <c r="X117" s="17">
         <v>30.155718764537781</v>
       </c>
-      <c r="Y117" s="9"/>
+      <c r="Y117" s="17">
+        <v>29.702847794308074</v>
+      </c>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
@@ -29716,7 +29802,9 @@
       <c r="X118" s="17">
         <v>12.785044270599355</v>
       </c>
-      <c r="Y118" s="9"/>
+      <c r="Y118" s="17">
+        <v>11.972242572387083</v>
+      </c>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
@@ -29862,7 +29950,9 @@
       <c r="X119" s="17">
         <v>5.0600281226136783</v>
       </c>
-      <c r="Y119" s="9"/>
+      <c r="Y119" s="17">
+        <v>4.9967572092522277</v>
+      </c>
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
       <c r="AB119" s="9"/>
@@ -29960,7 +30050,7 @@
       <c r="V120" s="17"/>
       <c r="W120" s="17"/>
       <c r="X120" s="17"/>
-      <c r="Y120" s="9"/>
+      <c r="Y120" s="17"/>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
       <c r="AB120" s="9"/>
@@ -30106,7 +30196,9 @@
       <c r="X121" s="17">
         <v>100</v>
       </c>
-      <c r="Y121" s="9"/>
+      <c r="Y121" s="17">
+        <v>100</v>
+      </c>
       <c r="Z121" s="9"/>
       <c r="AA121" s="9"/>
       <c r="AB121" s="9"/>
@@ -30204,6 +30296,7 @@
       <c r="V122" s="12"/>
       <c r="W122" s="12"/>
       <c r="X122" s="12"/>
+      <c r="Y122" s="12"/>
     </row>
     <row r="123" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
@@ -30418,7 +30511,7 @@
     </row>
     <row r="128" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.2">
@@ -30428,7 +30521,7 @@
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:96" x14ac:dyDescent="0.2">
@@ -30463,6 +30556,7 @@
       <c r="V134" s="5"/>
       <c r="W134" s="5"/>
       <c r="X134" s="5"/>
+      <c r="Y134" s="5"/>
     </row>
     <row r="135" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
@@ -30536,6 +30630,9 @@
       </c>
       <c r="X135" s="14">
         <v>2022</v>
+      </c>
+      <c r="Y135" s="14">
+        <v>2023</v>
       </c>
     </row>
     <row r="136" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -30614,7 +30711,9 @@
       <c r="X137" s="17">
         <v>51.896372432748741</v>
       </c>
-      <c r="Y137" s="9"/>
+      <c r="Y137" s="17">
+        <v>53.083383810784731</v>
+      </c>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
@@ -30760,7 +30859,9 @@
       <c r="X138" s="17">
         <v>30.178533547060017</v>
       </c>
-      <c r="Y138" s="9"/>
+      <c r="Y138" s="17">
+        <v>29.851974881319261</v>
+      </c>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
@@ -30906,7 +31007,9 @@
       <c r="X139" s="17">
         <v>12.919948984574422</v>
       </c>
-      <c r="Y139" s="9"/>
+      <c r="Y139" s="17">
+        <v>12.118410725960281</v>
+      </c>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
@@ -31052,7 +31155,9 @@
       <c r="X140" s="17">
         <v>5.0051450356168221</v>
       </c>
-      <c r="Y140" s="9"/>
+      <c r="Y140" s="17">
+        <v>4.9462305819357226</v>
+      </c>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
@@ -31296,7 +31401,9 @@
       <c r="X142" s="17">
         <v>100</v>
       </c>
-      <c r="Y142" s="9"/>
+      <c r="Y142" s="17">
+        <v>100</v>
+      </c>
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
       <c r="AB142" s="9"/>
@@ -31394,6 +31501,7 @@
       <c r="V143" s="12"/>
       <c r="W143" s="12"/>
       <c r="X143" s="12"/>
+      <c r="Y143" s="12"/>
     </row>
     <row r="144" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
@@ -31406,9 +31514,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="23" man="1"/>
-    <brk id="84" max="23" man="1"/>
-    <brk id="104" max="23" man="1"/>
+    <brk id="42" max="24" man="1"/>
+    <brk id="84" max="24" man="1"/>
+    <brk id="104" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45CD10D-6C24-46AA-AED7-7E5087478EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2F9349-5AC4-4383-87AF-4F6B8BF05660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="1" r:id="rId1"/>
@@ -616,13 +616,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -23561,49 +23561,49 @@
   <dimension ref="A1:CR144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="25" width="10.77734375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="1"/>
+    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
+    <col min="2" max="25" width="10.81640625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>7</v>
@@ -23632,7 +23632,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -23709,10 +23709,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -23783,10 +23783,10 @@
         <v>1016169.4231592985</v>
       </c>
       <c r="X12" s="8">
-        <v>1156642.4611471582</v>
+        <v>1156643.1616122853</v>
       </c>
       <c r="Y12" s="8">
-        <v>1369159.1956896544</v>
+        <v>1372859.9103424039</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -23860,7 +23860,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -23931,10 +23931,10 @@
         <v>584849.28028964624</v>
       </c>
       <c r="X13" s="8">
-        <v>670767.60485511716</v>
+        <v>671178.76392564783</v>
       </c>
       <c r="Y13" s="8">
-        <v>762597.71522488736</v>
+        <v>759114.90379703953</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -24008,7 +24008,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -24082,7 +24082,7 @@
         <v>284383.65506450617</v>
       </c>
       <c r="Y14" s="8">
-        <v>307378.09704462381</v>
+        <v>305183.55503364059</v>
       </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -24156,7 +24156,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -24227,10 +24227,10 @@
         <v>100745.34438333812</v>
       </c>
       <c r="X15" s="8">
-        <v>112552.54669295016</v>
+        <v>112469.2024896463</v>
       </c>
       <c r="Y15" s="8">
-        <v>128287.88867979986</v>
+        <v>128223.08710423695</v>
       </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -24304,7 +24304,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -24402,7 +24402,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
@@ -24473,10 +24473,10 @@
         <v>1963148.3992895908</v>
       </c>
       <c r="X17" s="11">
-        <v>2224346.2677597315</v>
+        <v>2224674.7830920853</v>
       </c>
       <c r="Y17" s="11">
-        <v>2567422.8966389652</v>
+        <v>2565381.4562773211</v>
       </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -24550,7 +24550,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -24577,12 +24577,12 @@
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -24680,7 +24680,7 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -24778,37 +24778,37 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>7</v>
@@ -24837,7 +24837,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -24914,10 +24914,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="32" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -24988,10 +24988,10 @@
         <v>957488.3172031428</v>
       </c>
       <c r="X33" s="8">
-        <v>1031035.2385958636</v>
+        <v>1031035.8486308756</v>
       </c>
       <c r="Y33" s="8">
-        <v>1148132.9041444776</v>
+        <v>1151204.2791575154</v>
       </c>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
@@ -25065,7 +25065,7 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>4</v>
       </c>
@@ -25136,10 +25136,10 @@
         <v>552882.28416602872</v>
       </c>
       <c r="X34" s="8">
-        <v>599562.74547874508</v>
+        <v>599923.2430504394</v>
       </c>
       <c r="Y34" s="8">
-        <v>645664.08835402387</v>
+        <v>642718.79454880313</v>
       </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -25213,7 +25213,7 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -25287,7 +25287,7 @@
         <v>256683.11790422996</v>
       </c>
       <c r="Y35" s="8">
-        <v>262107.36960565811</v>
+        <v>260244.14526067115</v>
       </c>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
@@ -25361,7 +25361,7 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -25432,10 +25432,10 @@
         <v>94303.53043028884</v>
       </c>
       <c r="X36" s="8">
-        <v>99438.181593355781</v>
+        <v>99365.31530576582</v>
       </c>
       <c r="Y36" s="8">
-        <v>106981.31269944258</v>
+        <v>106927.83863365212</v>
       </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
@@ -25509,7 +25509,7 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -25607,7 +25607,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>1</v>
       </c>
@@ -25678,10 +25678,10 @@
         <v>1854248.1201083024</v>
       </c>
       <c r="X38" s="11">
-        <v>1986719.2835721944</v>
+        <v>1987007.5248913108</v>
       </c>
       <c r="Y38" s="11">
-        <v>2162885.674803602</v>
+        <v>2161095.0576006421</v>
       </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -25755,7 +25755,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -25782,12 +25782,12 @@
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
     </row>
-    <row r="40" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -25885,7 +25885,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -25983,37 +25983,37 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="15" t="s">
         <v>7</v>
@@ -26042,7 +26042,7 @@
       <c r="X51" s="15"/>
       <c r="Y51" s="15"/>
     </row>
-    <row r="52" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>6</v>
       </c>
@@ -26117,10 +26117,10 @@
       </c>
       <c r="Y52" s="16"/>
     </row>
-    <row r="53" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -26188,10 +26188,10 @@
         <v>6.3489441692281332</v>
       </c>
       <c r="W54" s="17">
-        <v>13.823781230409907</v>
+        <v>13.823850162333187</v>
       </c>
       <c r="X54" s="17">
-        <v>18.37358921889502</v>
+        <v>18.693470545291291</v>
       </c>
       <c r="Y54" s="17"/>
       <c r="Z54" s="9"/>
@@ -26261,7 +26261,7 @@
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
     </row>
-    <row r="55" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>4</v>
       </c>
@@ -26329,10 +26329,10 @@
         <v>8.7005105710102839</v>
       </c>
       <c r="W55" s="17">
-        <v>14.690678002188861</v>
+        <v>14.760979716559959</v>
       </c>
       <c r="X55" s="17">
-        <v>13.690301932456194</v>
+        <v>13.101746449345811</v>
       </c>
       <c r="Y55" s="17"/>
       <c r="Z55" s="9"/>
@@ -26402,7 +26402,7 @@
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
     </row>
-    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -26473,7 +26473,7 @@
         <v>8.7990361622527047</v>
       </c>
       <c r="X56" s="17">
-        <v>8.0857115275847491</v>
+        <v>7.3140279332918823</v>
       </c>
       <c r="Y56" s="17"/>
       <c r="Z56" s="9"/>
@@ -26543,7 +26543,7 @@
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
     </row>
-    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -26611,10 +26611,10 @@
         <v>6.2990036973480841</v>
       </c>
       <c r="W57" s="17">
-        <v>11.719849072812139</v>
+        <v>11.637121475011952</v>
       </c>
       <c r="X57" s="17">
-        <v>13.980440646782185</v>
+        <v>14.007287564825518</v>
       </c>
       <c r="Y57" s="17"/>
       <c r="Z57" s="9"/>
@@ -26684,7 +26684,7 @@
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
     </row>
-    <row r="58" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -26777,7 +26777,7 @@
       <c r="CL58" s="9"/>
       <c r="CM58" s="9"/>
     </row>
-    <row r="59" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>1</v>
       </c>
@@ -26845,10 +26845,10 @@
         <v>7.6300055473042221</v>
       </c>
       <c r="W59" s="17">
-        <v>13.305049611362094</v>
+        <v>13.321783717274442</v>
       </c>
       <c r="X59" s="17">
-        <v>15.423706005304936</v>
+        <v>15.314897969566871</v>
       </c>
       <c r="Y59" s="17"/>
       <c r="Z59" s="9"/>
@@ -26918,7 +26918,7 @@
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
     </row>
-    <row r="60" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -26945,12 +26945,12 @@
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
     </row>
-    <row r="61" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -27043,7 +27043,7 @@
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
     </row>
-    <row r="63" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -27136,37 +27136,37 @@
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
     </row>
-    <row r="64" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="15" t="s">
         <v>7</v>
@@ -27195,7 +27195,7 @@
       <c r="X72" s="15"/>
       <c r="Y72" s="15"/>
     </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>6</v>
       </c>
@@ -27270,10 +27270,10 @@
       </c>
       <c r="Y73" s="16"/>
     </row>
-    <row r="74" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -27341,10 +27341,10 @@
         <v>3.6400303486897769</v>
       </c>
       <c r="W75" s="17">
-        <v>7.6812343368902702</v>
+        <v>7.6812980488960534</v>
       </c>
       <c r="X75" s="17">
-        <v>11.357290339376362</v>
+        <v>11.655116617546597</v>
       </c>
       <c r="Y75" s="17"/>
       <c r="Z75" s="9"/>
@@ -27414,7 +27414,7 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>4</v>
       </c>
@@ -27482,10 +27482,10 @@
         <v>5.4815088666321401</v>
       </c>
       <c r="W76" s="17">
-        <v>8.4431103418568512</v>
+        <v>8.5083136558386201</v>
       </c>
       <c r="X76" s="17">
-        <v>7.6891606796662018</v>
+        <v>7.1335044931349074</v>
       </c>
       <c r="Y76" s="17"/>
       <c r="Z76" s="9"/>
@@ -27555,7 +27555,7 @@
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
     </row>
-    <row r="77" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
@@ -27626,7 +27626,7 @@
         <v>2.8485058252906299</v>
       </c>
       <c r="X77" s="17">
-        <v>2.113209371039332</v>
+        <v>1.3873243341892874</v>
       </c>
       <c r="Y77" s="17"/>
       <c r="Z77" s="9"/>
@@ -27696,7 +27696,7 @@
       <c r="CL77" s="9"/>
       <c r="CM77" s="9"/>
     </row>
-    <row r="78" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
@@ -27764,10 +27764,10 @@
         <v>2.8952893395550063</v>
       </c>
       <c r="W78" s="17">
-        <v>5.4448132955770632</v>
+        <v>5.3675454698048242</v>
       </c>
       <c r="X78" s="17">
-        <v>7.5857492416080419</v>
+        <v>7.6108280888708322</v>
       </c>
       <c r="Y78" s="17"/>
       <c r="Z78" s="9"/>
@@ -27837,7 +27837,7 @@
       <c r="CL78" s="9"/>
       <c r="CM78" s="9"/>
     </row>
-    <row r="79" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -27930,7 +27930,7 @@
       <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
     </row>
-    <row r="80" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>1</v>
       </c>
@@ -27998,10 +27998,10 @@
         <v>4.7625923810169439</v>
       </c>
       <c r="W80" s="17">
-        <v>7.1441983425688704</v>
+        <v>7.1597432589148013</v>
       </c>
       <c r="X80" s="17">
-        <v>8.867200952247984</v>
+        <v>8.7612920700365038</v>
       </c>
       <c r="Y80" s="17"/>
       <c r="Z80" s="9"/>
@@ -28071,7 +28071,7 @@
       <c r="CL80" s="9"/>
       <c r="CM80" s="9"/>
     </row>
-    <row r="81" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -28098,12 +28098,12 @@
       <c r="X81" s="12"/>
       <c r="Y81" s="12"/>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -28196,7 +28196,7 @@
       <c r="CL83" s="9"/>
       <c r="CM83" s="9"/>
     </row>
-    <row r="84" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -28290,32 +28290,32 @@
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5" t="s">
         <v>7</v>
@@ -28344,7 +28344,7 @@
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
     </row>
-    <row r="93" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>6</v>
       </c>
@@ -28421,10 +28421,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="94" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
     </row>
-    <row r="95" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
@@ -28495,10 +28495,10 @@
         <v>106.12864981241393</v>
       </c>
       <c r="X95" s="17">
-        <v>112.18263138341958</v>
+        <v>112.18263294610028</v>
       </c>
       <c r="Y95" s="17">
-        <v>119.25093260086234</v>
+        <v>119.25423968603579</v>
       </c>
       <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
@@ -28572,7 +28572,7 @@
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
     </row>
-    <row r="96" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>4</v>
       </c>
@@ -28643,10 +28643,10 @@
         <v>105.78188106928343</v>
       </c>
       <c r="X96" s="17">
-        <v>111.87613138296571</v>
+        <v>111.87743960592265</v>
       </c>
       <c r="Y96" s="17">
-        <v>118.11059790687131</v>
+        <v>118.10995885532614</v>
       </c>
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
@@ -28720,7 +28720,7 @@
       <c r="CQ96" s="9"/>
       <c r="CR96" s="9"/>
     </row>
-    <row r="97" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -28794,7 +28794,7 @@
         <v>110.79172537190836</v>
       </c>
       <c r="Y97" s="17">
-        <v>117.27182547635945</v>
+        <v>117.26817321018166</v>
       </c>
       <c r="Z97" s="9"/>
       <c r="AA97" s="9"/>
@@ -28868,7 +28868,7 @@
       <c r="CQ97" s="9"/>
       <c r="CR97" s="9"/>
     </row>
-    <row r="98" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -28939,10 +28939,10 @@
         <v>106.83093615229093</v>
       </c>
       <c r="X98" s="17">
-        <v>113.18846029709644</v>
+        <v>113.18758677870375</v>
       </c>
       <c r="Y98" s="17">
-        <v>119.91616614409733</v>
+        <v>119.91553251491874</v>
       </c>
       <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
@@ -29016,7 +29016,7 @@
       <c r="CQ98" s="9"/>
       <c r="CR98" s="9"/>
     </row>
-    <row r="99" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -29114,7 +29114,7 @@
       <c r="CQ99" s="9"/>
       <c r="CR99" s="9"/>
     </row>
-    <row r="100" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>1</v>
       </c>
@@ -29185,10 +29185,10 @@
         <v>105.87301548268132</v>
       </c>
       <c r="X100" s="17">
-        <v>111.96077302678992</v>
+        <v>111.96106482856803</v>
       </c>
       <c r="Y100" s="17">
-        <v>118.70358782935196</v>
+        <v>118.70747875040438</v>
       </c>
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
@@ -29262,7 +29262,7 @@
       <c r="CQ100" s="9"/>
       <c r="CR100" s="9"/>
     </row>
-    <row r="101" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -29289,42 +29289,42 @@
       <c r="X101" s="12"/>
       <c r="Y101" s="12"/>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5" t="s">
         <v>7</v>
@@ -29353,7 +29353,7 @@
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
     </row>
-    <row r="114" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>6</v>
       </c>
@@ -29430,10 +29430,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="115" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
     </row>
-    <row r="116" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>5</v>
       </c>
@@ -29504,10 +29504,10 @@
         <v>51.762231705306746</v>
       </c>
       <c r="X116" s="17">
-        <v>51.999208842249189</v>
+        <v>51.991561661190858</v>
       </c>
       <c r="Y116" s="17">
-        <v>53.328152424052618</v>
+        <v>53.514845013910318</v>
       </c>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
@@ -29581,7 +29581,7 @@
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
     </row>
-    <row r="117" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>4</v>
       </c>
@@ -29652,10 +29652,10 @@
         <v>29.791394298122704</v>
       </c>
       <c r="X117" s="17">
-        <v>30.155718764537781</v>
+        <v>30.169747462717833</v>
       </c>
       <c r="Y117" s="17">
-        <v>29.702847794308074</v>
+        <v>29.590722344216484</v>
       </c>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
@@ -29729,7 +29729,7 @@
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
     </row>
-    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
@@ -29800,10 +29800,10 @@
         <v>13.314548790702514</v>
       </c>
       <c r="X118" s="17">
-        <v>12.785044270599355</v>
+        <v>12.78315631686354</v>
       </c>
       <c r="Y118" s="17">
-        <v>11.972242572387083</v>
+        <v>11.896225190482932</v>
       </c>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
@@ -29877,7 +29877,7 @@
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
     </row>
-    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
@@ -29948,10 +29948,10 @@
         <v>5.1318252058680365</v>
       </c>
       <c r="X119" s="17">
-        <v>5.0600281226136783</v>
+        <v>5.0555345592277927</v>
       </c>
       <c r="Y119" s="17">
-        <v>4.9967572092522277</v>
+        <v>4.9982074513902575</v>
       </c>
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
@@ -30025,7 +30025,7 @@
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
     </row>
-    <row r="120" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
@@ -30123,7 +30123,7 @@
       <c r="CQ120" s="9"/>
       <c r="CR120" s="9"/>
     </row>
-    <row r="121" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>1</v>
       </c>
@@ -30271,7 +30271,7 @@
       <c r="CQ121" s="9"/>
       <c r="CR121" s="9"/>
     </row>
-    <row r="122" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -30298,12 +30298,12 @@
       <c r="X122" s="12"/>
       <c r="Y122" s="12"/>
     </row>
-    <row r="123" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -30401,7 +30401,7 @@
       <c r="CQ124" s="9"/>
       <c r="CR124" s="9"/>
     </row>
-    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -30499,37 +30499,37 @@
       <c r="CQ125" s="9"/>
       <c r="CR125" s="9"/>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="5" t="s">
         <v>7</v>
@@ -30558,7 +30558,7 @@
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
     </row>
-    <row r="135" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>6</v>
       </c>
@@ -30635,10 +30635,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="136" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
     </row>
-    <row r="137" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>5</v>
       </c>
@@ -30709,10 +30709,10 @@
         <v>51.637550919950137</v>
       </c>
       <c r="X137" s="17">
-        <v>51.896372432748741</v>
+        <v>51.888874889252023</v>
       </c>
       <c r="Y137" s="17">
-        <v>53.083383810784731</v>
+        <v>53.269488313745953</v>
       </c>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
@@ -30786,7 +30786,7 @@
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
     </row>
-    <row r="138" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>4</v>
       </c>
@@ -30857,10 +30857,10 @@
         <v>29.817060520128024</v>
       </c>
       <c r="X138" s="17">
-        <v>30.178533547060017</v>
+        <v>30.192298495862772</v>
       </c>
       <c r="Y138" s="17">
-        <v>29.851974881319261</v>
+        <v>29.740422212726834</v>
       </c>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
@@ -30934,7 +30934,7 @@
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
     </row>
-    <row r="139" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
@@ -31005,10 +31005,10 @@
         <v>13.459578877408562</v>
       </c>
       <c r="X139" s="17">
-        <v>12.919948984574422</v>
+        <v>12.918074777712304</v>
       </c>
       <c r="Y139" s="17">
-        <v>12.118410725960281</v>
+        <v>12.04223499310611</v>
       </c>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
@@ -31082,7 +31082,7 @@
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
     </row>
-    <row r="140" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>2</v>
       </c>
@@ -31153,10 +31153,10 @@
         <v>5.0858096825132977</v>
       </c>
       <c r="X140" s="17">
-        <v>5.0051450356168221</v>
+        <v>5.0007518371728912</v>
       </c>
       <c r="Y140" s="17">
-        <v>4.9462305819357226</v>
+        <v>4.9478544804210909</v>
       </c>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
@@ -31230,7 +31230,7 @@
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
     </row>
-    <row r="141" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -31328,7 +31328,7 @@
       <c r="CQ141" s="9"/>
       <c r="CR141" s="9"/>
     </row>
-    <row r="142" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>1</v>
       </c>
@@ -31476,7 +31476,7 @@
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
     </row>
-    <row r="143" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -31503,7 +31503,7 @@
       <c r="X143" s="12"/>
       <c r="Y143" s="12"/>
     </row>
-    <row r="144" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>0</v>
       </c>

--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2F9349-5AC4-4383-87AF-4F6B8BF05660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D37AC58-8676-4293-8E1F-B95B71B06A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$Y$144</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$Z$144</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -616,13 +616,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -703,10 +706,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -742,10 +746,11 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{234F5F8B-09A8-4325-9131-B94387DAF771}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23566,44 +23571,44 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="25" width="10.81640625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="2" max="26" width="10.77734375" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>7</v>
@@ -23631,8 +23636,9 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -23708,11 +23714,14 @@
       <c r="Y10" s="6">
         <v>2023</v>
       </c>
+      <c r="Z10" s="6">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -23788,7 +23797,9 @@
       <c r="Y12" s="8">
         <v>1372859.9103424039</v>
       </c>
-      <c r="Z12" s="9"/>
+      <c r="Z12" s="8">
+        <v>1562498.8328956827</v>
+      </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -23860,7 +23871,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -23936,7 +23947,9 @@
       <c r="Y13" s="8">
         <v>759114.90379703953</v>
       </c>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="8">
+        <v>836806.96864111372</v>
+      </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -24008,7 +24021,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -24084,7 +24097,9 @@
       <c r="Y14" s="8">
         <v>305183.55503364059</v>
       </c>
-      <c r="Z14" s="9"/>
+      <c r="Z14" s="8">
+        <v>338904.35701541835</v>
+      </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
@@ -24156,7 +24171,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -24232,7 +24247,9 @@
       <c r="Y15" s="8">
         <v>128223.08710423695</v>
       </c>
-      <c r="Z15" s="9"/>
+      <c r="Z15" s="8">
+        <v>150881.31728818975</v>
+      </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -24304,7 +24321,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -24402,7 +24419,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
@@ -24478,7 +24495,9 @@
       <c r="Y17" s="11">
         <v>2565381.4562773211</v>
       </c>
-      <c r="Z17" s="9"/>
+      <c r="Z17" s="11">
+        <v>2889091.4758404046</v>
+      </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
@@ -24550,7 +24569,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -24576,13 +24595,14 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
     </row>
-    <row r="19" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -24680,7 +24700,7 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -24778,37 +24798,37 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>7</v>
@@ -24836,8 +24856,9 @@
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -24913,11 +24934,14 @@
       <c r="Y31" s="14">
         <v>2023</v>
       </c>
+      <c r="Z31" s="14">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="32" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -24993,7 +25017,9 @@
       <c r="Y33" s="8">
         <v>1151204.2791575154</v>
       </c>
-      <c r="Z33" s="9"/>
+      <c r="Z33" s="8">
+        <v>1267939.1452484005</v>
+      </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
@@ -25065,7 +25091,7 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>4</v>
       </c>
@@ -25141,7 +25167,9 @@
       <c r="Y34" s="8">
         <v>642718.79454880313</v>
       </c>
-      <c r="Z34" s="9"/>
+      <c r="Z34" s="8">
+        <v>686162.57246741839</v>
+      </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
@@ -25213,7 +25241,7 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -25289,7 +25317,9 @@
       <c r="Y35" s="8">
         <v>260244.14526067115</v>
       </c>
-      <c r="Z35" s="9"/>
+      <c r="Z35" s="8">
+        <v>279642.89419011574</v>
+      </c>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
@@ -25361,7 +25391,7 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -25437,7 +25467,9 @@
       <c r="Y36" s="8">
         <v>106927.83863365212</v>
       </c>
-      <c r="Z36" s="9"/>
+      <c r="Z36" s="8">
+        <v>121307.71784940432</v>
+      </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
@@ -25509,7 +25541,7 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -25607,7 +25639,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>1</v>
       </c>
@@ -25683,7 +25715,9 @@
       <c r="Y38" s="11">
         <v>2161095.0576006421</v>
       </c>
-      <c r="Z38" s="9"/>
+      <c r="Z38" s="11">
+        <v>2355052.3297553388</v>
+      </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
@@ -25755,7 +25789,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -25781,13 +25815,14 @@
       <c r="W39" s="12"/>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
     </row>
-    <row r="40" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -25885,7 +25920,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -25983,37 +26018,37 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="15" t="s">
         <v>7</v>
@@ -26041,8 +26076,9 @@
       <c r="W51" s="15"/>
       <c r="X51" s="15"/>
       <c r="Y51" s="15"/>
+      <c r="Z51" s="15"/>
     </row>
-    <row r="52" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>6</v>
       </c>
@@ -26115,12 +26151,15 @@
       <c r="X52" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Y52" s="16"/>
+      <c r="Y52" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z52" s="16"/>
     </row>
-    <row r="53" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -26193,8 +26232,10 @@
       <c r="X54" s="17">
         <v>18.693470545291291</v>
       </c>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="9"/>
+      <c r="Y54" s="17">
+        <v>13.813421247473173</v>
+      </c>
+      <c r="Z54" s="17"/>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
@@ -26261,7 +26302,7 @@
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
     </row>
-    <row r="55" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>4</v>
       </c>
@@ -26334,8 +26375,10 @@
       <c r="X55" s="17">
         <v>13.101746449345811</v>
       </c>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="9"/>
+      <c r="Y55" s="17">
+        <v>10.234559281534843</v>
+      </c>
+      <c r="Z55" s="17"/>
       <c r="AA55" s="9"/>
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
@@ -26402,7 +26445,7 @@
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
     </row>
-    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -26475,8 +26518,10 @@
       <c r="X56" s="17">
         <v>7.3140279332918823</v>
       </c>
-      <c r="Y56" s="17"/>
-      <c r="Z56" s="9"/>
+      <c r="Y56" s="17">
+        <v>11.049350931789476</v>
+      </c>
+      <c r="Z56" s="17"/>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
@@ -26543,7 +26588,7 @@
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
     </row>
-    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -26616,8 +26661,10 @@
       <c r="X57" s="17">
         <v>14.007287564825518</v>
       </c>
-      <c r="Y57" s="17"/>
-      <c r="Z57" s="9"/>
+      <c r="Y57" s="17">
+        <v>17.670944207990516</v>
+      </c>
+      <c r="Z57" s="17"/>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
       <c r="AC57" s="9"/>
@@ -26684,7 +26731,7 @@
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
     </row>
-    <row r="58" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -26777,7 +26824,7 @@
       <c r="CL58" s="9"/>
       <c r="CM58" s="9"/>
     </row>
-    <row r="59" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>1</v>
       </c>
@@ -26850,8 +26897,10 @@
       <c r="X59" s="17">
         <v>15.314897969566871</v>
       </c>
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="9"/>
+      <c r="Y59" s="17">
+        <v>12.618397110924235</v>
+      </c>
+      <c r="Z59" s="17"/>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
@@ -26918,7 +26967,7 @@
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
     </row>
-    <row r="60" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -26944,13 +26993,14 @@
       <c r="W60" s="12"/>
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
     </row>
-    <row r="61" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -27043,7 +27093,7 @@
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
     </row>
-    <row r="63" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -27136,37 +27186,37 @@
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
     </row>
-    <row r="64" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="15" t="s">
         <v>7</v>
@@ -27194,8 +27244,9 @@
       <c r="W72" s="15"/>
       <c r="X72" s="15"/>
       <c r="Y72" s="15"/>
+      <c r="Z72" s="15"/>
     </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>6</v>
       </c>
@@ -27268,12 +27319,15 @@
       <c r="X73" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Y73" s="16"/>
+      <c r="Y73" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z73" s="16"/>
     </row>
-    <row r="74" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -27346,8 +27400,10 @@
       <c r="X75" s="17">
         <v>11.655116617546597</v>
       </c>
-      <c r="Y75" s="17"/>
-      <c r="Z75" s="9"/>
+      <c r="Y75" s="17">
+        <v>10.14023907002111</v>
+      </c>
+      <c r="Z75" s="17"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
@@ -27414,7 +27470,7 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>4</v>
       </c>
@@ -27487,8 +27543,10 @@
       <c r="X76" s="17">
         <v>7.1335044931349074</v>
       </c>
-      <c r="Y76" s="17"/>
-      <c r="Z76" s="9"/>
+      <c r="Y76" s="17">
+        <v>6.7593756845267592</v>
+      </c>
+      <c r="Z76" s="17"/>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
@@ -27555,7 +27613,7 @@
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
     </row>
-    <row r="77" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
@@ -27628,8 +27686,10 @@
       <c r="X77" s="17">
         <v>1.3873243341892874</v>
       </c>
-      <c r="Y77" s="17"/>
-      <c r="Z77" s="9"/>
+      <c r="Y77" s="17">
+        <v>7.4540577694894807</v>
+      </c>
+      <c r="Z77" s="17"/>
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
@@ -27696,7 +27756,7 @@
       <c r="CL77" s="9"/>
       <c r="CM77" s="9"/>
     </row>
-    <row r="78" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
@@ -27769,8 +27829,10 @@
       <c r="X78" s="17">
         <v>7.6108280888708322</v>
       </c>
-      <c r="Y78" s="17"/>
-      <c r="Z78" s="9"/>
+      <c r="Y78" s="17">
+        <v>13.448208997302771</v>
+      </c>
+      <c r="Z78" s="17"/>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
@@ -27837,7 +27899,7 @@
       <c r="CL78" s="9"/>
       <c r="CM78" s="9"/>
     </row>
-    <row r="79" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -27930,7 +27992,7 @@
       <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
     </row>
-    <row r="80" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>1</v>
       </c>
@@ -28003,8 +28065,10 @@
       <c r="X80" s="17">
         <v>8.7612920700365038</v>
       </c>
-      <c r="Y80" s="17"/>
-      <c r="Z80" s="9"/>
+      <c r="Y80" s="17">
+        <v>8.974953298446664</v>
+      </c>
+      <c r="Z80" s="17"/>
       <c r="AA80" s="9"/>
       <c r="AB80" s="9"/>
       <c r="AC80" s="9"/>
@@ -28071,7 +28135,7 @@
       <c r="CL80" s="9"/>
       <c r="CM80" s="9"/>
     </row>
-    <row r="81" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -28097,13 +28161,14 @@
       <c r="W81" s="12"/>
       <c r="X81" s="12"/>
       <c r="Y81" s="12"/>
+      <c r="Z81" s="12"/>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -28196,7 +28261,7 @@
       <c r="CL83" s="9"/>
       <c r="CM83" s="9"/>
     </row>
-    <row r="84" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -28290,32 +28355,32 @@
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="5" t="s">
         <v>7</v>
@@ -28343,8 +28408,9 @@
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
     </row>
-    <row r="93" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>6</v>
       </c>
@@ -28420,11 +28486,14 @@
       <c r="Y93" s="14">
         <v>2023</v>
       </c>
+      <c r="Z93" s="14">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="94" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
     </row>
-    <row r="95" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
@@ -28500,7 +28569,9 @@
       <c r="Y95" s="17">
         <v>119.25423968603579</v>
       </c>
-      <c r="Z95" s="9"/>
+      <c r="Z95" s="17">
+        <v>123.23137421469666</v>
+      </c>
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
@@ -28572,7 +28643,7 @@
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
     </row>
-    <row r="96" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>4</v>
       </c>
@@ -28648,7 +28719,9 @@
       <c r="Y96" s="17">
         <v>118.10995885532614</v>
       </c>
-      <c r="Z96" s="9"/>
+      <c r="Z96" s="17">
+        <v>121.95462157488173</v>
+      </c>
       <c r="AA96" s="9"/>
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
@@ -28720,7 +28793,7 @@
       <c r="CQ96" s="9"/>
       <c r="CR96" s="9"/>
     </row>
-    <row r="97" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -28796,7 +28869,9 @@
       <c r="Y97" s="17">
         <v>117.26817321018166</v>
       </c>
-      <c r="Z97" s="9"/>
+      <c r="Z97" s="17">
+        <v>121.19183575071055</v>
+      </c>
       <c r="AA97" s="9"/>
       <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
@@ -28868,7 +28943,7 @@
       <c r="CQ97" s="9"/>
       <c r="CR97" s="9"/>
     </row>
-    <row r="98" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -28944,7 +29019,9 @@
       <c r="Y98" s="17">
         <v>119.91553251491874</v>
       </c>
-      <c r="Z98" s="9"/>
+      <c r="Z98" s="17">
+        <v>124.37899250194381</v>
+      </c>
       <c r="AA98" s="9"/>
       <c r="AB98" s="9"/>
       <c r="AC98" s="9"/>
@@ -29016,7 +29093,7 @@
       <c r="CQ98" s="9"/>
       <c r="CR98" s="9"/>
     </row>
-    <row r="99" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -29114,7 +29191,7 @@
       <c r="CQ99" s="9"/>
       <c r="CR99" s="9"/>
     </row>
-    <row r="100" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>1</v>
       </c>
@@ -29190,7 +29267,9 @@
       <c r="Y100" s="17">
         <v>118.70747875040438</v>
       </c>
-      <c r="Z100" s="9"/>
+      <c r="Z100" s="17">
+        <v>122.67631760609522</v>
+      </c>
       <c r="AA100" s="9"/>
       <c r="AB100" s="9"/>
       <c r="AC100" s="9"/>
@@ -29262,7 +29341,7 @@
       <c r="CQ100" s="9"/>
       <c r="CR100" s="9"/>
     </row>
-    <row r="101" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -29288,43 +29367,44 @@
       <c r="W101" s="12"/>
       <c r="X101" s="12"/>
       <c r="Y101" s="12"/>
+      <c r="Z101" s="12"/>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="5" t="s">
         <v>7</v>
@@ -29352,8 +29432,9 @@
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
+      <c r="Z113" s="5"/>
     </row>
-    <row r="114" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>6</v>
       </c>
@@ -29429,11 +29510,14 @@
       <c r="Y114" s="14">
         <v>2023</v>
       </c>
+      <c r="Z114" s="14">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="115" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
     </row>
-    <row r="116" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>5</v>
       </c>
@@ -29509,7 +29593,9 @@
       <c r="Y116" s="17">
         <v>53.514845013910318</v>
       </c>
-      <c r="Z116" s="9"/>
+      <c r="Z116" s="17">
+        <v>54.082705444318577</v>
+      </c>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
@@ -29581,7 +29667,7 @@
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
     </row>
-    <row r="117" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>4</v>
       </c>
@@ -29657,7 +29743,9 @@
       <c r="Y117" s="17">
         <v>29.590722344216484</v>
       </c>
-      <c r="Z117" s="9"/>
+      <c r="Z117" s="17">
+        <v>28.964363906050977</v>
+      </c>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
@@ -29729,7 +29817,7 @@
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
     </row>
-    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
@@ -29805,7 +29893,9 @@
       <c r="Y118" s="17">
         <v>11.896225190482932</v>
       </c>
-      <c r="Z118" s="9"/>
+      <c r="Z118" s="17">
+        <v>11.730482051172674</v>
+      </c>
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
       <c r="AC118" s="9"/>
@@ -29877,7 +29967,7 @@
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
     </row>
-    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
@@ -29953,7 +30043,9 @@
       <c r="Y119" s="17">
         <v>4.9982074513902575</v>
       </c>
-      <c r="Z119" s="9"/>
+      <c r="Z119" s="17">
+        <v>5.2224485984577571</v>
+      </c>
       <c r="AA119" s="9"/>
       <c r="AB119" s="9"/>
       <c r="AC119" s="9"/>
@@ -30025,7 +30117,7 @@
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
     </row>
-    <row r="120" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
@@ -30051,7 +30143,7 @@
       <c r="W120" s="17"/>
       <c r="X120" s="17"/>
       <c r="Y120" s="17"/>
-      <c r="Z120" s="9"/>
+      <c r="Z120" s="17"/>
       <c r="AA120" s="9"/>
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
@@ -30123,7 +30215,7 @@
       <c r="CQ120" s="9"/>
       <c r="CR120" s="9"/>
     </row>
-    <row r="121" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>1</v>
       </c>
@@ -30199,7 +30291,9 @@
       <c r="Y121" s="17">
         <v>100</v>
       </c>
-      <c r="Z121" s="9"/>
+      <c r="Z121" s="17">
+        <v>100</v>
+      </c>
       <c r="AA121" s="9"/>
       <c r="AB121" s="9"/>
       <c r="AC121" s="9"/>
@@ -30271,7 +30365,7 @@
       <c r="CQ121" s="9"/>
       <c r="CR121" s="9"/>
     </row>
-    <row r="122" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -30297,13 +30391,14 @@
       <c r="W122" s="12"/>
       <c r="X122" s="12"/>
       <c r="Y122" s="12"/>
+      <c r="Z122" s="12"/>
     </row>
-    <row r="123" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -30401,7 +30496,7 @@
       <c r="CQ124" s="9"/>
       <c r="CR124" s="9"/>
     </row>
-    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -30499,37 +30594,37 @@
       <c r="CQ125" s="9"/>
       <c r="CR125" s="9"/>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="5" t="s">
         <v>7</v>
@@ -30557,8 +30652,9 @@
       <c r="W134" s="5"/>
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
+      <c r="Z134" s="5"/>
     </row>
-    <row r="135" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>6</v>
       </c>
@@ -30634,11 +30730,14 @@
       <c r="Y135" s="14">
         <v>2023</v>
       </c>
+      <c r="Z135" s="14">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="136" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
     </row>
-    <row r="137" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>5</v>
       </c>
@@ -30714,7 +30813,9 @@
       <c r="Y137" s="17">
         <v>53.269488313745953</v>
       </c>
-      <c r="Z137" s="9"/>
+      <c r="Z137" s="17">
+        <v>53.839107064772698</v>
+      </c>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
@@ -30786,7 +30887,7 @@
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
     </row>
-    <row r="138" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>4</v>
       </c>
@@ -30862,7 +30963,9 @@
       <c r="Y138" s="17">
         <v>29.740422212726834</v>
       </c>
-      <c r="Z138" s="9"/>
+      <c r="Z138" s="17">
+        <v>29.135767549534762</v>
+      </c>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
@@ -30934,7 +31037,7 @@
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
     </row>
-    <row r="139" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
@@ -31010,7 +31113,9 @@
       <c r="Y139" s="17">
         <v>12.04223499310611</v>
       </c>
-      <c r="Z139" s="9"/>
+      <c r="Z139" s="17">
+        <v>11.874169021932826</v>
+      </c>
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
       <c r="AC139" s="9"/>
@@ -31082,7 +31187,7 @@
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
     </row>
-    <row r="140" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>2</v>
       </c>
@@ -31158,7 +31263,9 @@
       <c r="Y140" s="17">
         <v>4.9478544804210909</v>
       </c>
-      <c r="Z140" s="9"/>
+      <c r="Z140" s="17">
+        <v>5.1509563637597262</v>
+      </c>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
       <c r="AC140" s="9"/>
@@ -31230,7 +31337,7 @@
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
     </row>
-    <row r="141" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -31328,7 +31435,7 @@
       <c r="CQ141" s="9"/>
       <c r="CR141" s="9"/>
     </row>
-    <row r="142" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>1</v>
       </c>
@@ -31404,7 +31511,9 @@
       <c r="Y142" s="17">
         <v>100</v>
       </c>
-      <c r="Z142" s="9"/>
+      <c r="Z142" s="17">
+        <v>100</v>
+      </c>
       <c r="AA142" s="9"/>
       <c r="AB142" s="9"/>
       <c r="AC142" s="9"/>
@@ -31476,7 +31585,7 @@
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
     </row>
-    <row r="143" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -31502,8 +31611,9 @@
       <c r="W143" s="12"/>
       <c r="X143" s="12"/>
       <c r="Y143" s="12"/>
+      <c r="Z143" s="12"/>
     </row>
-    <row r="144" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>0</v>
       </c>
@@ -31514,9 +31624,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="24" man="1"/>
-    <brk id="84" max="24" man="1"/>
-    <brk id="104" max="24" man="1"/>
+    <brk id="42" max="25" man="1"/>
+    <brk id="84" max="25" man="1"/>
+    <brk id="104" max="25" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D37AC58-8676-4293-8E1F-B95B71B06A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1441B4C5-5185-4349-A876-ABC0E704F6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="4275" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="1" r:id="rId1"/>
@@ -625,7 +625,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -23566,9 +23566,9 @@
   <dimension ref="A1:CR144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23795,10 +23795,10 @@
         <v>1156643.1616122853</v>
       </c>
       <c r="Y12" s="8">
-        <v>1372859.9103424039</v>
+        <v>1372132.1156776433</v>
       </c>
       <c r="Z12" s="8">
-        <v>1562498.8328956827</v>
+        <v>1556516.0156128821</v>
       </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -23945,10 +23945,10 @@
         <v>671178.76392564783</v>
       </c>
       <c r="Y13" s="8">
-        <v>759114.90379703953</v>
+        <v>759945.80269620812</v>
       </c>
       <c r="Z13" s="8">
-        <v>836806.96864111372</v>
+        <v>842456.8631757145</v>
       </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -24095,10 +24095,10 @@
         <v>284383.65506450617</v>
       </c>
       <c r="Y14" s="8">
-        <v>305183.55503364059</v>
+        <v>304569.36096480803</v>
       </c>
       <c r="Z14" s="8">
-        <v>338904.35701541835</v>
+        <v>337492.08158491872</v>
       </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -24245,10 +24245,10 @@
         <v>112469.2024896463</v>
       </c>
       <c r="Y15" s="8">
-        <v>128223.08710423695</v>
+        <v>128418.98592527377</v>
       </c>
       <c r="Z15" s="8">
-        <v>150881.31728818975</v>
+        <v>150815.53109932554</v>
       </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -24493,10 +24493,10 @@
         <v>2224674.7830920853</v>
       </c>
       <c r="Y17" s="11">
-        <v>2565381.4562773211</v>
+        <v>2565066.2652639337</v>
       </c>
       <c r="Z17" s="11">
-        <v>2889091.4758404046</v>
+        <v>2887280.4914728408</v>
       </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -25015,10 +25015,10 @@
         <v>1031035.8486308756</v>
       </c>
       <c r="Y33" s="8">
-        <v>1151204.2791575154</v>
+        <v>1150598.9723867162</v>
       </c>
       <c r="Z33" s="8">
-        <v>1267939.1452484005</v>
+        <v>1263085.3491931434</v>
       </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
@@ -25165,10 +25165,10 @@
         <v>599923.2430504394</v>
       </c>
       <c r="Y34" s="8">
-        <v>642718.79454880313</v>
+        <v>643415.55614843487</v>
       </c>
       <c r="Z34" s="8">
-        <v>686162.57246741839</v>
+        <v>690781.96492417785</v>
       </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
@@ -25315,10 +25315,10 @@
         <v>256683.11790422996</v>
       </c>
       <c r="Y35" s="8">
-        <v>260244.14526067115</v>
+        <v>259722.67821384859</v>
       </c>
       <c r="Z35" s="8">
-        <v>279642.89419011574</v>
+        <v>278469.03713858617</v>
       </c>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
@@ -25465,10 +25465,10 @@
         <v>99365.31530576582</v>
       </c>
       <c r="Y36" s="8">
-        <v>106927.83863365212</v>
+        <v>107090.21096232953</v>
       </c>
       <c r="Z36" s="8">
-        <v>121307.71784940432</v>
+        <v>121252.00493167926</v>
       </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
@@ -25713,10 +25713,10 @@
         <v>1987007.5248913108</v>
       </c>
       <c r="Y38" s="11">
-        <v>2161095.0576006421</v>
+        <v>2160827.4177113287</v>
       </c>
       <c r="Z38" s="11">
-        <v>2355052.3297553388</v>
+        <v>2353588.3561875871</v>
       </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -26230,10 +26230,10 @@
         <v>13.823850162333187</v>
       </c>
       <c r="X54" s="17">
-        <v>18.693470545291291</v>
+        <v>18.630547537667582</v>
       </c>
       <c r="Y54" s="17">
-        <v>13.813421247473173</v>
+        <v>13.43776578279261</v>
       </c>
       <c r="Z54" s="17"/>
       <c r="AA54" s="9"/>
@@ -26373,10 +26373,10 @@
         <v>14.760979716559959</v>
       </c>
       <c r="X55" s="17">
-        <v>13.101746449345811</v>
+        <v>13.225543408342077</v>
       </c>
       <c r="Y55" s="17">
-        <v>10.234559281534843</v>
+        <v>10.857492756294704</v>
       </c>
       <c r="Z55" s="17"/>
       <c r="AA55" s="9"/>
@@ -26516,10 +26516,10 @@
         <v>8.7990361622527047</v>
       </c>
       <c r="X56" s="17">
-        <v>7.3140279332918823</v>
+        <v>7.0980541746406658</v>
       </c>
       <c r="Y56" s="17">
-        <v>11.049350931789476</v>
+        <v>10.809597037541408</v>
       </c>
       <c r="Z56" s="17"/>
       <c r="AA56" s="9"/>
@@ -26659,10 +26659,10 @@
         <v>11.637121475011952</v>
       </c>
       <c r="X57" s="17">
-        <v>14.007287564825518</v>
+        <v>14.181467532941539</v>
       </c>
       <c r="Y57" s="17">
-        <v>17.670944207990516</v>
+        <v>17.440213386425739</v>
       </c>
       <c r="Z57" s="17"/>
       <c r="AA57" s="9"/>
@@ -26895,10 +26895,10 @@
         <v>13.321783717274442</v>
       </c>
       <c r="X59" s="17">
-        <v>15.314897969566871</v>
+        <v>15.300730010466367</v>
       </c>
       <c r="Y59" s="17">
-        <v>12.618397110924235</v>
+        <v>12.561633614395234</v>
       </c>
       <c r="Z59" s="17"/>
       <c r="AA59" s="9"/>
@@ -27398,10 +27398,10 @@
         <v>7.6812980488960534</v>
       </c>
       <c r="X75" s="17">
-        <v>11.655116617546597</v>
+        <v>11.596408011865918</v>
       </c>
       <c r="Y75" s="17">
-        <v>10.14023907002111</v>
+        <v>9.7763321110129198</v>
       </c>
       <c r="Z75" s="17"/>
       <c r="AA75" s="9"/>
@@ -27541,10 +27541,10 @@
         <v>8.5083136558386201</v>
       </c>
       <c r="X76" s="17">
-        <v>7.1335044931349074</v>
+        <v>7.2496462842228624</v>
       </c>
       <c r="Y76" s="17">
-        <v>6.7593756845267592</v>
+        <v>7.3617133317826813</v>
       </c>
       <c r="Z76" s="17"/>
       <c r="AA76" s="9"/>
@@ -27684,10 +27684,10 @@
         <v>2.8485058252906299</v>
       </c>
       <c r="X77" s="17">
-        <v>1.3873243341892874</v>
+        <v>1.1841683763373396</v>
       </c>
       <c r="Y77" s="17">
-        <v>7.4540577694894807</v>
+        <v>7.2178367532858942</v>
       </c>
       <c r="Z77" s="17"/>
       <c r="AA77" s="9"/>
@@ -27827,10 +27827,10 @@
         <v>5.3675454698048242</v>
       </c>
       <c r="X78" s="17">
-        <v>7.6108280888708322</v>
+        <v>7.7742375524022123</v>
       </c>
       <c r="Y78" s="17">
-        <v>13.448208997302771</v>
+        <v>13.224172258220079</v>
       </c>
       <c r="Z78" s="17"/>
       <c r="AA78" s="9"/>
@@ -28063,10 +28063,10 @@
         <v>7.1597432589148013</v>
       </c>
       <c r="X80" s="17">
-        <v>8.7612920700365038</v>
+        <v>8.7478225745282856</v>
       </c>
       <c r="Y80" s="17">
-        <v>8.974953298446664</v>
+        <v>8.9207003250830468</v>
       </c>
       <c r="Z80" s="17"/>
       <c r="AA80" s="9"/>
@@ -28567,10 +28567,10 @@
         <v>112.18263294610028</v>
       </c>
       <c r="Y95" s="17">
-        <v>119.25423968603579</v>
+        <v>119.25372337430437</v>
       </c>
       <c r="Z95" s="17">
-        <v>123.23137421469666</v>
+        <v>123.23126197348276</v>
       </c>
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
@@ -28717,10 +28717,10 @@
         <v>111.87743960592265</v>
       </c>
       <c r="Y96" s="17">
-        <v>118.10995885532614</v>
+        <v>118.11119507979224</v>
       </c>
       <c r="Z96" s="17">
-        <v>121.95462157488173</v>
+        <v>121.95698584403327</v>
       </c>
       <c r="AA96" s="9"/>
       <c r="AB96" s="9"/>
@@ -28867,10 +28867,10 @@
         <v>110.79172537190836</v>
       </c>
       <c r="Y97" s="17">
-        <v>117.26817321018166</v>
+        <v>117.26714165254137</v>
       </c>
       <c r="Z97" s="17">
-        <v>121.19183575071055</v>
+        <v>121.19555015984002</v>
       </c>
       <c r="AA97" s="9"/>
       <c r="AB97" s="9"/>
@@ -29017,10 +29017,10 @@
         <v>113.18758677870375</v>
       </c>
       <c r="Y98" s="17">
-        <v>119.91553251491874</v>
+        <v>119.91664296043542</v>
       </c>
       <c r="Z98" s="17">
-        <v>124.37899250194381</v>
+        <v>124.38188645565423</v>
       </c>
       <c r="AA98" s="9"/>
       <c r="AB98" s="9"/>
@@ -29265,10 +29265,10 @@
         <v>111.96106482856803</v>
       </c>
       <c r="Y100" s="17">
-        <v>118.70747875040438</v>
+        <v>118.70759525907721</v>
       </c>
       <c r="Z100" s="17">
-        <v>122.67631760609522</v>
+        <v>122.67567877289061</v>
       </c>
       <c r="AA100" s="9"/>
       <c r="AB100" s="9"/>
@@ -29591,10 +29591,10 @@
         <v>51.991561661190858</v>
       </c>
       <c r="Y116" s="17">
-        <v>53.514845013910318</v>
+        <v>53.493047499747817</v>
       </c>
       <c r="Z116" s="17">
-        <v>54.082705444318577</v>
+        <v>53.909414766241923</v>
       </c>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
@@ -29741,10 +29741,10 @@
         <v>30.169747462717833</v>
       </c>
       <c r="Y117" s="17">
-        <v>29.590722344216484</v>
+        <v>29.626751284650073</v>
       </c>
       <c r="Z117" s="17">
-        <v>28.964363906050977</v>
+        <v>29.178213397132257</v>
       </c>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
@@ -29891,10 +29891,10 @@
         <v>12.78315631686354</v>
       </c>
       <c r="Y118" s="17">
-        <v>11.896225190482932</v>
+        <v>11.873742409281158</v>
       </c>
       <c r="Z118" s="17">
-        <v>11.730482051172674</v>
+        <v>11.688926052790924</v>
       </c>
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
@@ -30041,10 +30041,10 @@
         <v>5.0555345592277927</v>
       </c>
       <c r="Y119" s="17">
-        <v>4.9982074513902575</v>
+        <v>5.0064588063209365</v>
       </c>
       <c r="Z119" s="17">
-        <v>5.2224485984577571</v>
+        <v>5.2234457838348947</v>
       </c>
       <c r="AA119" s="9"/>
       <c r="AB119" s="9"/>
@@ -30811,10 +30811,10 @@
         <v>51.888874889252023</v>
       </c>
       <c r="Y137" s="17">
-        <v>53.269488313745953</v>
+        <v>53.248073536820883</v>
       </c>
       <c r="Z137" s="17">
-        <v>53.839107064772698</v>
+        <v>53.666366332604007</v>
       </c>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
@@ -30961,10 +30961,10 @@
         <v>30.192298495862772</v>
       </c>
       <c r="Y138" s="17">
-        <v>29.740422212726834</v>
+        <v>29.776350988267154</v>
       </c>
       <c r="Z138" s="17">
-        <v>29.135767549534762</v>
+        <v>29.350160707079944</v>
       </c>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
@@ -31111,10 +31111,10 @@
         <v>12.918074777712304</v>
       </c>
       <c r="Y139" s="17">
-        <v>12.04223499310611</v>
+        <v>12.01959379472043</v>
       </c>
       <c r="Z139" s="17">
-        <v>11.874169021932826</v>
+        <v>11.831679758547864</v>
       </c>
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
@@ -31261,10 +31261,10 @@
         <v>5.0007518371728912</v>
       </c>
       <c r="Y140" s="17">
-        <v>4.9478544804210909</v>
+        <v>4.9559816801915471</v>
       </c>
       <c r="Z140" s="17">
-        <v>5.1509563637597262</v>
+        <v>5.1517932017681662</v>
       </c>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>

--- a/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-17FIA_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1441B4C5-5185-4349-A876-ABC0E704F6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F49611-77AC-4907-AAB6-1C99F9CF956C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="4275" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIA" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$Z$144</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FIA!$A$1:$AA$144</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -619,13 +619,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -23566,16 +23569,16 @@
   <dimension ref="A1:CR144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
-    <col min="2" max="26" width="10.77734375" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="27" width="10.77734375" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -23590,7 +23593,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23600,7 +23603,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -23637,6 +23640,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -23716,6 +23720,9 @@
       </c>
       <c r="Z10" s="6">
         <v>2024</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23800,7 +23807,9 @@
       <c r="Z12" s="8">
         <v>1556516.0156128821</v>
       </c>
-      <c r="AA12" s="9"/>
+      <c r="AA12" s="8">
+        <v>1649159.0713213254</v>
+      </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -23950,7 +23959,9 @@
       <c r="Z13" s="8">
         <v>842456.8631757145</v>
       </c>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="8">
+        <v>900778.4624606237</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -24100,7 +24111,9 @@
       <c r="Z14" s="8">
         <v>337492.08158491872</v>
       </c>
-      <c r="AA14" s="9"/>
+      <c r="AA14" s="8">
+        <v>380558.91447084676</v>
+      </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -24250,7 +24263,9 @@
       <c r="Z15" s="8">
         <v>150815.53109932554</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="8">
+        <v>174973.15110229631</v>
+      </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -24498,7 +24513,9 @@
       <c r="Z17" s="11">
         <v>2887280.4914728408</v>
       </c>
-      <c r="AA17" s="9"/>
+      <c r="AA17" s="11">
+        <v>3105469.5993550923</v>
+      </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -24596,6 +24613,7 @@
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
     </row>
     <row r="19" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -24810,7 +24828,7 @@
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.2">
@@ -24820,7 +24838,7 @@
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.2">
@@ -24857,6 +24875,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
@@ -24936,6 +24955,9 @@
       </c>
       <c r="Z31" s="14">
         <v>2024</v>
+      </c>
+      <c r="AA31" s="14">
+        <v>2025</v>
       </c>
     </row>
     <row r="32" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25020,7 +25042,9 @@
       <c r="Z33" s="8">
         <v>1263085.3491931434</v>
       </c>
-      <c r="AA33" s="9"/>
+      <c r="AA33" s="8">
+        <v>1316161.0799220488</v>
+      </c>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
@@ -25170,7 +25194,9 @@
       <c r="Z34" s="8">
         <v>690781.96492417785</v>
       </c>
-      <c r="AA34" s="9"/>
+      <c r="AA34" s="8">
+        <v>727006.44313719193</v>
+      </c>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
@@ -25320,7 +25346,9 @@
       <c r="Z35" s="8">
         <v>278469.03713858617</v>
       </c>
-      <c r="AA35" s="9"/>
+      <c r="AA35" s="8">
+        <v>308943.38181452308</v>
+      </c>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
@@ -25470,7 +25498,9 @@
       <c r="Z36" s="8">
         <v>121252.00493167926</v>
       </c>
-      <c r="AA36" s="9"/>
+      <c r="AA36" s="8">
+        <v>138565.9529203822</v>
+      </c>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
@@ -25718,7 +25748,9 @@
       <c r="Z38" s="11">
         <v>2353588.3561875871</v>
       </c>
-      <c r="AA38" s="9"/>
+      <c r="AA38" s="11">
+        <v>2490676.8577941461</v>
+      </c>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
@@ -25816,6 +25848,7 @@
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
     </row>
     <row r="40" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
@@ -26030,7 +26063,7 @@
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.2">
@@ -26040,7 +26073,7 @@
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.2">
@@ -26077,6 +26110,7 @@
       <c r="X51" s="15"/>
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
+      <c r="AA51" s="15"/>
     </row>
     <row r="52" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -26154,7 +26188,10 @@
       <c r="Y52" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Z52" s="16"/>
+      <c r="Z52" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA52" s="16"/>
     </row>
     <row r="53" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -26235,8 +26272,10 @@
       <c r="Y54" s="17">
         <v>13.43776578279261</v>
       </c>
-      <c r="Z54" s="17"/>
-      <c r="AA54" s="9"/>
+      <c r="Z54" s="17">
+        <v>5.9519500460754955</v>
+      </c>
+      <c r="AA54" s="17"/>
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
       <c r="AD54" s="9"/>
@@ -26378,8 +26417,10 @@
       <c r="Y55" s="17">
         <v>10.857492756294704</v>
       </c>
-      <c r="Z55" s="17"/>
-      <c r="AA55" s="9"/>
+      <c r="Z55" s="17">
+        <v>6.9227994730864708</v>
+      </c>
+      <c r="AA55" s="17"/>
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
       <c r="AD55" s="9"/>
@@ -26521,8 +26562,10 @@
       <c r="Y56" s="17">
         <v>10.809597037541408</v>
       </c>
-      <c r="Z56" s="17"/>
-      <c r="AA56" s="9"/>
+      <c r="Z56" s="17">
+        <v>12.760842471823054</v>
+      </c>
+      <c r="AA56" s="17"/>
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
       <c r="AD56" s="9"/>
@@ -26664,8 +26707,10 @@
       <c r="Y57" s="17">
         <v>17.440213386425739</v>
       </c>
-      <c r="Z57" s="17"/>
-      <c r="AA57" s="9"/>
+      <c r="Z57" s="17">
+        <v>16.017992196745851</v>
+      </c>
+      <c r="AA57" s="17"/>
       <c r="AB57" s="9"/>
       <c r="AC57" s="9"/>
       <c r="AD57" s="9"/>
@@ -26900,8 +26945,10 @@
       <c r="Y59" s="17">
         <v>12.561633614395234</v>
       </c>
-      <c r="Z59" s="17"/>
-      <c r="AA59" s="9"/>
+      <c r="Z59" s="17">
+        <v>7.5569072186315367</v>
+      </c>
+      <c r="AA59" s="17"/>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
       <c r="AD59" s="9"/>
@@ -26994,6 +27041,7 @@
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
       <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
     </row>
     <row r="61" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
@@ -27198,7 +27246,7 @@
     </row>
     <row r="66" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:91" x14ac:dyDescent="0.2">
@@ -27208,7 +27256,7 @@
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:91" x14ac:dyDescent="0.2">
@@ -27245,6 +27293,7 @@
       <c r="X72" s="15"/>
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
+      <c r="AA72" s="15"/>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
@@ -27322,7 +27371,10 @@
       <c r="Y73" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Z73" s="16"/>
+      <c r="Z73" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA73" s="16"/>
     </row>
     <row r="74" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -27403,8 +27455,10 @@
       <c r="Y75" s="17">
         <v>9.7763321110129198</v>
       </c>
-      <c r="Z75" s="17"/>
-      <c r="AA75" s="9"/>
+      <c r="Z75" s="17">
+        <v>4.2020700155227075</v>
+      </c>
+      <c r="AA75" s="17"/>
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
       <c r="AD75" s="9"/>
@@ -27546,8 +27600,10 @@
       <c r="Y76" s="17">
         <v>7.3617133317826813</v>
       </c>
-      <c r="Z76" s="17"/>
-      <c r="AA76" s="9"/>
+      <c r="Z76" s="17">
+        <v>5.2439814662778872</v>
+      </c>
+      <c r="AA76" s="17"/>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
       <c r="AD76" s="9"/>
@@ -27689,8 +27745,10 @@
       <c r="Y77" s="17">
         <v>7.2178367532858942</v>
       </c>
-      <c r="Z77" s="17"/>
-      <c r="AA77" s="9"/>
+      <c r="Z77" s="17">
+        <v>10.943530738309931</v>
+      </c>
+      <c r="AA77" s="17"/>
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
       <c r="AD77" s="9"/>
@@ -27832,8 +27890,10 @@
       <c r="Y78" s="17">
         <v>13.224172258220079</v>
       </c>
-      <c r="Z78" s="17"/>
-      <c r="AA78" s="9"/>
+      <c r="Z78" s="17">
+        <v>14.279308617171878</v>
+      </c>
+      <c r="AA78" s="17"/>
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
       <c r="AD78" s="9"/>
@@ -28068,8 +28128,10 @@
       <c r="Y80" s="17">
         <v>8.9207003250830468</v>
       </c>
-      <c r="Z80" s="17"/>
-      <c r="AA80" s="9"/>
+      <c r="Z80" s="17">
+        <v>5.8246592377190041</v>
+      </c>
+      <c r="AA80" s="17"/>
       <c r="AB80" s="9"/>
       <c r="AC80" s="9"/>
       <c r="AD80" s="9"/>
@@ -28162,6 +28224,7 @@
       <c r="X81" s="12"/>
       <c r="Y81" s="12"/>
       <c r="Z81" s="12"/>
+      <c r="AA81" s="12"/>
     </row>
     <row r="82" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
@@ -28362,7 +28425,7 @@
     </row>
     <row r="86" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:96" x14ac:dyDescent="0.2">
@@ -28372,7 +28435,7 @@
     </row>
     <row r="89" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:96" x14ac:dyDescent="0.2">
@@ -28409,6 +28472,7 @@
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
     </row>
     <row r="93" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
@@ -28488,6 +28552,9 @@
       </c>
       <c r="Z93" s="14">
         <v>2024</v>
+      </c>
+      <c r="AA93" s="14">
+        <v>2025</v>
       </c>
     </row>
     <row r="94" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28572,7 +28639,9 @@
       <c r="Z95" s="17">
         <v>123.23126197348276</v>
       </c>
-      <c r="AA95" s="9"/>
+      <c r="AA95" s="17">
+        <v>125.30070190337179</v>
+      </c>
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
       <c r="AD95" s="9"/>
@@ -28722,7 +28791,9 @@
       <c r="Z96" s="17">
         <v>121.95698584403327</v>
       </c>
-      <c r="AA96" s="9"/>
+      <c r="AA96" s="17">
+        <v>123.90240429968784</v>
+      </c>
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
       <c r="AD96" s="9"/>
@@ -28872,7 +28943,9 @@
       <c r="Z97" s="17">
         <v>121.19555015984002</v>
       </c>
-      <c r="AA97" s="9"/>
+      <c r="AA97" s="17">
+        <v>123.18079521098745</v>
+      </c>
       <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
       <c r="AD97" s="9"/>
@@ -29022,7 +29095,9 @@
       <c r="Z98" s="17">
         <v>124.38188645565423</v>
       </c>
-      <c r="AA98" s="9"/>
+      <c r="AA98" s="17">
+        <v>126.27427402951798</v>
+      </c>
       <c r="AB98" s="9"/>
       <c r="AC98" s="9"/>
       <c r="AD98" s="9"/>
@@ -29270,7 +29345,9 @@
       <c r="Z100" s="17">
         <v>122.67567877289061</v>
       </c>
-      <c r="AA100" s="9"/>
+      <c r="AA100" s="17">
+        <v>124.68376175082921</v>
+      </c>
       <c r="AB100" s="9"/>
       <c r="AC100" s="9"/>
       <c r="AD100" s="9"/>
@@ -29368,6 +29445,7 @@
       <c r="X101" s="12"/>
       <c r="Y101" s="12"/>
       <c r="Z101" s="12"/>
+      <c r="AA101" s="12"/>
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
@@ -29386,7 +29464,7 @@
     </row>
     <row r="107" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.2">
@@ -29396,7 +29474,7 @@
     </row>
     <row r="110" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:96" x14ac:dyDescent="0.2">
@@ -29433,6 +29511,7 @@
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
+      <c r="AA113" s="5"/>
     </row>
     <row r="114" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
@@ -29512,6 +29591,9 @@
       </c>
       <c r="Z114" s="14">
         <v>2024</v>
+      </c>
+      <c r="AA114" s="14">
+        <v>2025</v>
       </c>
     </row>
     <row r="115" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29596,7 +29678,9 @@
       <c r="Z116" s="17">
         <v>53.909414766241923</v>
       </c>
-      <c r="AA116" s="9"/>
+      <c r="AA116" s="17">
+        <v>53.10498198609973</v>
+      </c>
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
       <c r="AD116" s="9"/>
@@ -29746,7 +29830,9 @@
       <c r="Z117" s="17">
         <v>29.178213397132257</v>
       </c>
-      <c r="AA117" s="9"/>
+      <c r="AA117" s="17">
+        <v>29.006191612620739</v>
+      </c>
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
       <c r="AD117" s="9"/>
@@ -29896,7 +29982,9 @@
       <c r="Z118" s="17">
         <v>11.688926052790924</v>
       </c>
-      <c r="AA118" s="9"/>
+      <c r="AA118" s="17">
+        <v>12.254472384784473</v>
+      </c>
       <c r="AB118" s="9"/>
       <c r="AC118" s="9"/>
       <c r="AD118" s="9"/>
@@ -30046,7 +30134,9 @@
       <c r="Z119" s="17">
         <v>5.2234457838348947</v>
       </c>
-      <c r="AA119" s="9"/>
+      <c r="AA119" s="17">
+        <v>5.6343540164950472</v>
+      </c>
       <c r="AB119" s="9"/>
       <c r="AC119" s="9"/>
       <c r="AD119" s="9"/>
@@ -30144,7 +30234,7 @@
       <c r="X120" s="17"/>
       <c r="Y120" s="17"/>
       <c r="Z120" s="17"/>
-      <c r="AA120" s="9"/>
+      <c r="AA120" s="17"/>
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
       <c r="AD120" s="9"/>
@@ -30294,7 +30384,9 @@
       <c r="Z121" s="17">
         <v>100</v>
       </c>
-      <c r="AA121" s="9"/>
+      <c r="AA121" s="17">
+        <v>100</v>
+      </c>
       <c r="AB121" s="9"/>
       <c r="AC121" s="9"/>
       <c r="AD121" s="9"/>
@@ -30392,6 +30484,7 @@
       <c r="X122" s="12"/>
       <c r="Y122" s="12"/>
       <c r="Z122" s="12"/>
+      <c r="AA122" s="12"/>
     </row>
     <row r="123" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
@@ -30606,7 +30699,7 @@
     </row>
     <row r="128" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.2">
@@ -30616,7 +30709,7 @@
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:96" x14ac:dyDescent="0.2">
@@ -30653,6 +30746,7 @@
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
+      <c r="AA134" s="5"/>
     </row>
     <row r="135" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
@@ -30732,6 +30826,9 @@
       </c>
       <c r="Z135" s="14">
         <v>2024</v>
+      </c>
+      <c r="AA135" s="14">
+        <v>2025</v>
       </c>
     </row>
     <row r="136" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -30816,7 +30913,9 @@
       <c r="Z137" s="17">
         <v>53.666366332604007</v>
       </c>
-      <c r="AA137" s="9"/>
+      <c r="AA137" s="17">
+        <v>52.843510221060932</v>
+      </c>
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
       <c r="AD137" s="9"/>
@@ -30966,7 +31065,9 @@
       <c r="Z138" s="17">
         <v>29.350160707079944</v>
       </c>
-      <c r="AA138" s="9"/>
+      <c r="AA138" s="17">
+        <v>29.189111420140673</v>
+      </c>
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
       <c r="AD138" s="9"/>
@@ -31116,7 +31217,9 @@
       <c r="Z139" s="17">
         <v>11.831679758547864</v>
       </c>
-      <c r="AA139" s="9"/>
+      <c r="AA139" s="17">
+        <v>12.403992948653205</v>
+      </c>
       <c r="AB139" s="9"/>
       <c r="AC139" s="9"/>
       <c r="AD139" s="9"/>
@@ -31266,7 +31369,9 @@
       <c r="Z140" s="17">
         <v>5.1517932017681662</v>
       </c>
-      <c r="AA140" s="9"/>
+      <c r="AA140" s="17">
+        <v>5.5633854101451909</v>
+      </c>
       <c r="AB140" s="9"/>
       <c r="AC140" s="9"/>
       <c r="AD140" s="9"/>
@@ -31514,7 +31619,9 @@
       <c r="Z142" s="17">
         <v>100</v>
       </c>
-      <c r="AA142" s="9"/>
+      <c r="AA142" s="17">
+        <v>100</v>
+      </c>
       <c r="AB142" s="9"/>
       <c r="AC142" s="9"/>
       <c r="AD142" s="9"/>
@@ -31612,6 +31719,7 @@
       <c r="X143" s="12"/>
       <c r="Y143" s="12"/>
       <c r="Z143" s="12"/>
+      <c r="AA143" s="12"/>
     </row>
     <row r="144" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
@@ -31624,9 +31732,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="25" man="1"/>
-    <brk id="84" max="25" man="1"/>
-    <brk id="104" max="25" man="1"/>
+    <brk id="42" max="26" man="1"/>
+    <brk id="84" max="26" man="1"/>
+    <brk id="104" max="26" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>